--- a/ji_hua work/邝嘉伟2017年度目标与绩效管理表.xlsx
+++ b/ji_hua work/邝嘉伟2017年度目标与绩效管理表.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19770" windowHeight="8370" tabRatio="779" firstSheet="3" activeTab="9"/>
+    <workbookView windowWidth="19770" windowHeight="7950" tabRatio="779" firstSheet="3" activeTab="9"/>
   </bookViews>
   <sheets>
     <sheet name="FY17年度目标与工作计划 " sheetId="31" r:id="rId1"/>
@@ -23,12 +23,12 @@
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="1">'2017周历表'!$B$1:$AC$1</definedName>
   </definedNames>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="144525" concurrentCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="197">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="204">
   <si>
     <t>2017年度目标与绩效管理表</t>
   </si>
@@ -1279,6 +1279,27 @@
     </r>
   </si>
   <si>
+    <t>开发板烧写与新版调试</t>
+  </si>
+  <si>
+    <t>进行中（in progress）</t>
+  </si>
+  <si>
+    <t>供应商修改资源，协助解决</t>
+  </si>
+  <si>
+    <t>消毒模块继续学习</t>
+  </si>
+  <si>
+    <t>11月7号</t>
+  </si>
+  <si>
+    <t>KTV界面的完善,添加功能实现第一版</t>
+  </si>
+  <si>
+    <t>11月8号</t>
+  </si>
+  <si>
     <r>
       <rPr>
         <b/>
@@ -1522,10 +1543,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="64">
     <font>
@@ -1781,8 +1802,61 @@
       <charset val="134"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1804,99 +1878,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1911,7 +1894,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color indexed="8"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1925,10 +1915,41 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color indexed="8"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <b/>
@@ -2077,13 +2098,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2095,7 +2122,91 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2107,43 +2218,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2161,31 +2266,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2197,67 +2278,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2424,21 +2445,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
@@ -2448,13 +2454,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FFB2B2B2"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2483,17 +2493,17 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
       </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
       </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2506,6 +2516,17 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="55">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -2514,10 +2535,10 @@
     <xf numFmtId="42" fontId="24" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="39" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="42" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="46" fillId="27" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="43" fillId="20" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="24" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -2526,145 +2547,145 @@
     <xf numFmtId="41" fontId="24" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="39" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="42" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="43" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="44" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="24" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="44" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="46" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="53" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="24" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="42" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="43" borderId="19" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="24" borderId="15" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="44" fillId="45" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="46" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="41" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="48" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="50" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="52" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="49" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="40" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="55" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="47" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="49" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="50" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="44" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="45" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="41" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="46" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="44" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="48" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="54" fillId="42" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="46" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="57" fillId="42" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="52" fillId="31" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="48" fillId="35" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="53" fillId="31" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="39" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="54" fillId="32" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="44" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="42" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="46" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="55" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="56" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="51" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="57" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="47" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="58" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="45" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="42" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="39" fillId="49" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="46" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="44" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="42" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="39" fillId="48" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="42" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="39" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="42" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="39" fillId="47" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="42" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="39" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="44" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="46" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="44" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="46" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="39" fillId="46" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="42" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="39" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="42" fillId="46" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="44" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="46" fillId="48" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="39" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="42" fillId="45" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="44" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="46" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="44" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="46" fillId="47" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="39" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="42" fillId="49" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="44" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="46" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="58" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="51" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -4689,9 +4710,9 @@
   <dimension ref="A1:H71"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
-      <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="4" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="E11" sqref="E11"/>
+      <selection pane="bottomLeft" activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="7"/>
@@ -4975,11 +4996,17 @@
       <c r="B20" s="19" t="s">
         <v>91</v>
       </c>
-      <c r="C20" s="20"/>
+      <c r="C20" s="20" t="s">
+        <v>190</v>
+      </c>
       <c r="D20" s="21"/>
       <c r="E20" s="22"/>
-      <c r="F20" s="22"/>
-      <c r="G20" s="22"/>
+      <c r="F20" s="22" t="s">
+        <v>191</v>
+      </c>
+      <c r="G20" s="22" t="s">
+        <v>192</v>
+      </c>
       <c r="H20" s="23"/>
     </row>
     <row r="21" ht="30" customHeight="1" spans="1:8">
@@ -4987,10 +5014,16 @@
       <c r="B21" s="19" t="s">
         <v>92</v>
       </c>
-      <c r="C21" s="20"/>
-      <c r="D21" s="21"/>
+      <c r="C21" s="20" t="s">
+        <v>193</v>
+      </c>
+      <c r="D21" s="21" t="s">
+        <v>194</v>
+      </c>
       <c r="E21" s="23"/>
-      <c r="F21" s="23"/>
+      <c r="F21" s="22" t="s">
+        <v>191</v>
+      </c>
       <c r="G21" s="23"/>
       <c r="H21" s="23"/>
     </row>
@@ -4999,10 +5032,16 @@
       <c r="B22" s="19" t="s">
         <v>93</v>
       </c>
-      <c r="C22" s="20"/>
-      <c r="D22" s="21"/>
+      <c r="C22" s="20" t="s">
+        <v>195</v>
+      </c>
+      <c r="D22" s="21" t="s">
+        <v>196</v>
+      </c>
       <c r="E22" s="23"/>
-      <c r="F22" s="23"/>
+      <c r="F22" s="22" t="s">
+        <v>191</v>
+      </c>
       <c r="G22" s="23"/>
       <c r="H22" s="23"/>
     </row>
@@ -5093,7 +5132,7 @@
         <v>84</v>
       </c>
       <c r="C30" s="5" t="s">
-        <v>190</v>
+        <v>197</v>
       </c>
       <c r="D30" s="4" t="s">
         <v>86</v>
@@ -5268,7 +5307,7 @@
         <v>84</v>
       </c>
       <c r="C44" s="5" t="s">
-        <v>191</v>
+        <v>198</v>
       </c>
       <c r="D44" s="4" t="s">
         <v>86</v>
@@ -5437,7 +5476,7 @@
         <v>84</v>
       </c>
       <c r="C58" s="5" t="s">
-        <v>192</v>
+        <v>199</v>
       </c>
       <c r="D58" s="4" t="s">
         <v>86</v>
@@ -6228,7 +6267,7 @@
         <v>84</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>193</v>
+        <v>200</v>
       </c>
       <c r="D2" s="4" t="s">
         <v>86</v>
@@ -6403,7 +6442,7 @@
         <v>84</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>194</v>
+        <v>201</v>
       </c>
       <c r="D16" s="4" t="s">
         <v>86</v>
@@ -6578,7 +6617,7 @@
         <v>84</v>
       </c>
       <c r="C30" s="5" t="s">
-        <v>195</v>
+        <v>202</v>
       </c>
       <c r="D30" s="4" t="s">
         <v>86</v>
@@ -6753,7 +6792,7 @@
         <v>84</v>
       </c>
       <c r="C44" s="5" t="s">
-        <v>196</v>
+        <v>203</v>
       </c>
       <c r="D44" s="4" t="s">
         <v>86</v>

--- a/ji_hua work/邝嘉伟2017年度目标与绩效管理表.xlsx
+++ b/ji_hua work/邝嘉伟2017年度目标与绩效管理表.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19770" windowHeight="7950" tabRatio="779" firstSheet="3" activeTab="9"/>
+    <workbookView windowWidth="20385" windowHeight="8370" tabRatio="779" firstSheet="5" activeTab="9"/>
   </bookViews>
   <sheets>
     <sheet name="FY17年度目标与工作计划 " sheetId="31" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="204">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="218">
   <si>
     <t>2017年度目标与绩效管理表</t>
   </si>
@@ -1334,6 +1334,33 @@
     </r>
   </si>
   <si>
+    <t>KTV界面设计</t>
+  </si>
+  <si>
+    <t>11月14号</t>
+  </si>
+  <si>
+    <t>完成</t>
+  </si>
+  <si>
+    <t>整机流程学习</t>
+  </si>
+  <si>
+    <t>11月15号</t>
+  </si>
+  <si>
+    <t>病人信息系统界面需求讨论</t>
+  </si>
+  <si>
+    <t>11月16号</t>
+  </si>
+  <si>
+    <t>系统烧写修复(内核修改)</t>
+  </si>
+  <si>
+    <t>11月17号</t>
+  </si>
+  <si>
     <r>
       <rPr>
         <b/>
@@ -1368,6 +1395,21 @@
     </r>
   </si>
   <si>
+    <t>KTV算法完善</t>
+  </si>
+  <si>
+    <t>11月21号</t>
+  </si>
+  <si>
+    <t>进行中</t>
+  </si>
+  <si>
+    <t>U盘烧写错误解决</t>
+  </si>
+  <si>
+    <t>11月23号</t>
+  </si>
+  <si>
     <r>
       <rPr>
         <b/>
@@ -1543,9 +1585,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="64">
@@ -1802,11 +1844,18 @@
       <charset val="134"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1827,6 +1876,28 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -1841,22 +1912,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1870,6 +1926,20 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="8"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color theme="3"/>
@@ -1878,25 +1948,12 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
-      <sz val="15"/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="8"/>
-      <name val="宋体"/>
-      <charset val="134"/>
     </font>
     <font>
       <b/>
@@ -1925,21 +1982,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2098,7 +2140,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2110,13 +2182,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2140,25 +2212,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2182,7 +2236,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2194,19 +2248,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2218,13 +2260,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2236,13 +2290,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2254,7 +2302,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2266,19 +2314,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2430,6 +2472,26 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -2441,15 +2503,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2516,17 +2569,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="55">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -2535,10 +2577,10 @@
     <xf numFmtId="42" fontId="24" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="42" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="45" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="43" fillId="20" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="47" fillId="25" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="24" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -2547,139 +2589,139 @@
     <xf numFmtId="41" fontId="24" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="42" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="45" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="44" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="44" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="24" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="46" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="43" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="24" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="50" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="29" borderId="16" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="43" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="52" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="41" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="24" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="49" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="39" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="53" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="43" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="52" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="43" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="54" fillId="33" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="55" fillId="33" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="56" fillId="34" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="45" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="43" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="57" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="46" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="48" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="58" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="45" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="43" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="45" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="45" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="45" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="45" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="43" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="24" borderId="15" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="43" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="46" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="45" fillId="45" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="48" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="45" fillId="47" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="49" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="43" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="45" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="47" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="43" fillId="46" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="50" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="43" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="45" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="45" fillId="48" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="46" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="48" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="46" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="52" fillId="31" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="53" fillId="31" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="54" fillId="32" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="42" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="46" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="55" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="56" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="57" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="58" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="42" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="46" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="42" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="42" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="42" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="42" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="46" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="46" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="42" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="42" fillId="46" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="46" fillId="48" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="42" fillId="45" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="46" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="46" fillId="47" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="42" fillId="49" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="46" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="43" fillId="49" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -4710,9 +4752,9 @@
   <dimension ref="A1:H71"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
-      <pane ySplit="4" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="4" topLeftCell="A44" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="D23" sqref="D23"/>
+      <selection pane="bottomLeft" activeCell="I37" sqref="I37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="7"/>
@@ -5189,10 +5231,16 @@
       <c r="B34" s="19" t="s">
         <v>91</v>
       </c>
-      <c r="C34" s="20"/>
-      <c r="D34" s="21"/>
-      <c r="E34" s="22"/>
-      <c r="F34" s="22"/>
+      <c r="C34" s="20" t="s">
+        <v>198</v>
+      </c>
+      <c r="D34" s="21" t="s">
+        <v>199</v>
+      </c>
+      <c r="E34" s="23"/>
+      <c r="F34" s="22" t="s">
+        <v>200</v>
+      </c>
       <c r="G34" s="22"/>
       <c r="H34" s="23"/>
     </row>
@@ -5201,8 +5249,12 @@
       <c r="B35" s="19" t="s">
         <v>92</v>
       </c>
-      <c r="C35" s="20"/>
-      <c r="D35" s="21"/>
+      <c r="C35" s="20" t="s">
+        <v>201</v>
+      </c>
+      <c r="D35" s="21" t="s">
+        <v>202</v>
+      </c>
       <c r="E35" s="23"/>
       <c r="F35" s="23"/>
       <c r="G35" s="23"/>
@@ -5213,8 +5265,12 @@
       <c r="B36" s="19" t="s">
         <v>93</v>
       </c>
-      <c r="C36" s="20"/>
-      <c r="D36" s="21"/>
+      <c r="C36" s="20" t="s">
+        <v>203</v>
+      </c>
+      <c r="D36" s="21" t="s">
+        <v>204</v>
+      </c>
       <c r="E36" s="23"/>
       <c r="F36" s="23"/>
       <c r="G36" s="23"/>
@@ -5225,10 +5281,16 @@
       <c r="B37" s="19" t="s">
         <v>94</v>
       </c>
-      <c r="C37" s="20"/>
-      <c r="D37" s="21"/>
+      <c r="C37" s="20" t="s">
+        <v>205</v>
+      </c>
+      <c r="D37" s="21" t="s">
+        <v>206</v>
+      </c>
       <c r="E37" s="23"/>
-      <c r="F37" s="23"/>
+      <c r="F37" s="22" t="s">
+        <v>200</v>
+      </c>
       <c r="G37" s="23"/>
       <c r="H37" s="23"/>
     </row>
@@ -5307,7 +5369,7 @@
         <v>84</v>
       </c>
       <c r="C44" s="5" t="s">
-        <v>198</v>
+        <v>207</v>
       </c>
       <c r="D44" s="4" t="s">
         <v>86</v>
@@ -5364,10 +5426,16 @@
       <c r="B48" s="19" t="s">
         <v>91</v>
       </c>
-      <c r="C48" s="20"/>
-      <c r="D48" s="21"/>
-      <c r="E48" s="22"/>
-      <c r="F48" s="22"/>
+      <c r="C48" s="20" t="s">
+        <v>208</v>
+      </c>
+      <c r="D48" s="21" t="s">
+        <v>209</v>
+      </c>
+      <c r="E48" s="23"/>
+      <c r="F48" s="22" t="s">
+        <v>210</v>
+      </c>
       <c r="G48" s="22"/>
       <c r="H48" s="23"/>
     </row>
@@ -5376,10 +5444,16 @@
       <c r="B49" s="19" t="s">
         <v>92</v>
       </c>
-      <c r="C49" s="20"/>
-      <c r="D49" s="21"/>
+      <c r="C49" s="20" t="s">
+        <v>211</v>
+      </c>
+      <c r="D49" s="21" t="s">
+        <v>212</v>
+      </c>
       <c r="E49" s="23"/>
-      <c r="F49" s="23"/>
+      <c r="F49" s="22" t="s">
+        <v>210</v>
+      </c>
       <c r="G49" s="23"/>
       <c r="H49" s="23"/>
     </row>
@@ -5476,7 +5550,7 @@
         <v>84</v>
       </c>
       <c r="C58" s="5" t="s">
-        <v>199</v>
+        <v>213</v>
       </c>
       <c r="D58" s="4" t="s">
         <v>86</v>
@@ -6267,7 +6341,7 @@
         <v>84</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>200</v>
+        <v>214</v>
       </c>
       <c r="D2" s="4" t="s">
         <v>86</v>
@@ -6442,7 +6516,7 @@
         <v>84</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>201</v>
+        <v>215</v>
       </c>
       <c r="D16" s="4" t="s">
         <v>86</v>
@@ -6617,7 +6691,7 @@
         <v>84</v>
       </c>
       <c r="C30" s="5" t="s">
-        <v>202</v>
+        <v>216</v>
       </c>
       <c r="D30" s="4" t="s">
         <v>86</v>
@@ -6792,7 +6866,7 @@
         <v>84</v>
       </c>
       <c r="C44" s="5" t="s">
-        <v>203</v>
+        <v>217</v>
       </c>
       <c r="D44" s="4" t="s">
         <v>86</v>
@@ -7012,7 +7086,7 @@
   <sheetPr/>
   <dimension ref="A1:AC39"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
+    <sheetView topLeftCell="A16" workbookViewId="0">
       <selection activeCell="M27" sqref="M27"/>
     </sheetView>
   </sheetViews>

--- a/ji_hua work/邝嘉伟2017年度目标与绩效管理表.xlsx
+++ b/ji_hua work/邝嘉伟2017年度目标与绩效管理表.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4506"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20385" windowHeight="8370" tabRatio="779" firstSheet="5" activeTab="9"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20385" windowHeight="8370" tabRatio="779" firstSheet="5" activeTab="11"/>
   </bookViews>
   <sheets>
     <sheet name="FY17年度目标与工作计划 " sheetId="31" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="838" uniqueCount="222">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="844" uniqueCount="227">
   <si>
     <t>2017年度目标与绩效管理表</t>
   </si>
@@ -1686,6 +1686,7 @@
         <sz val="11"/>
         <color indexed="10"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>号</t>
@@ -1702,6 +1703,7 @@
         <sz val="11"/>
         <color indexed="10"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>号</t>
@@ -1726,6 +1728,50 @@
       </rPr>
       <t>TV算法完善</t>
     </r>
+    <phoneticPr fontId="22" type="noConversion"/>
+  </si>
+  <si>
+    <t>修改中</t>
+    <phoneticPr fontId="22" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>K</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>TV调试,算法的完善</t>
+    </r>
+    <phoneticPr fontId="22" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>协助通信框架B</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>UG的修改与完善</t>
+    </r>
+    <phoneticPr fontId="22" type="noConversion"/>
+  </si>
+  <si>
+    <t>12月6号</t>
+    <phoneticPr fontId="22" type="noConversion"/>
+  </si>
+  <si>
+    <t>12月8号</t>
     <phoneticPr fontId="22" type="noConversion"/>
   </si>
 </sst>
@@ -2355,7 +2401,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="183">
+  <cellXfs count="184">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2655,6 +2701,93 @@
     <xf numFmtId="0" fontId="37" fillId="9" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="58" fontId="48" fillId="0" borderId="7" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="46" fillId="0" borderId="6" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="16" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="16" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="16" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="12" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="45" fillId="0" borderId="8" xfId="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="45" fillId="0" borderId="3" xfId="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="12" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="12" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="13" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="13" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="13" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="14" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="15" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="13" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="17" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="17" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="17" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="17" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="7" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="7" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="18" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="31" fillId="9" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2691,87 +2824,6 @@
     <xf numFmtId="0" fontId="45" fillId="0" borderId="6" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="17" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="17" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="17" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="17" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="7" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="7" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="18" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="16" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="16" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="16" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="12" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="45" fillId="0" borderId="8" xfId="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="45" fillId="0" borderId="3" xfId="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="12" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="12" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="13" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="13" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="13" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="14" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="15" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="13" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="16" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2781,19 +2833,49 @@
     <xf numFmtId="0" fontId="9" fillId="16" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="57" fontId="6" fillId="8" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="5" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="5" applyFont="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="5" applyFont="1" applyFill="1"/>
-    <xf numFmtId="57" fontId="6" fillId="8" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="7" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="2" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" textRotation="255" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="8" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" textRotation="255" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="2" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="8" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="3" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -2813,89 +2895,56 @@
     <xf numFmtId="0" fontId="14" fillId="2" borderId="7" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="7" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="2" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" textRotation="255" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="8" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" textRotation="255" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="2" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="8" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="3" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="3" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="4" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="5" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="6" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="3" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="4" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="5" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="6" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="4" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="5" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="6" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="4" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="5" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="6" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="3" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="3" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="58" fontId="48" fillId="0" borderId="7" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="58" fontId="46" fillId="0" borderId="7" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="46" fillId="0" borderId="6" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="7">
@@ -3240,30 +3289,30 @@
   <sheetData>
     <row r="1" spans="2:10" ht="14.25" customHeight="1"/>
     <row r="2" spans="2:10" ht="33.75" customHeight="1">
-      <c r="B2" s="101" t="s">
+      <c r="B2" s="130" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="101"/>
-      <c r="D2" s="101"/>
-      <c r="E2" s="101"/>
-      <c r="F2" s="101"/>
-      <c r="G2" s="101"/>
-      <c r="H2" s="101"/>
-      <c r="I2" s="101"/>
-      <c r="J2" s="101"/>
+      <c r="C2" s="130"/>
+      <c r="D2" s="130"/>
+      <c r="E2" s="130"/>
+      <c r="F2" s="130"/>
+      <c r="G2" s="130"/>
+      <c r="H2" s="130"/>
+      <c r="I2" s="130"/>
+      <c r="J2" s="130"/>
     </row>
     <row r="3" spans="2:10" ht="18.75" customHeight="1">
-      <c r="B3" s="102" t="s">
+      <c r="B3" s="131" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="103"/>
-      <c r="D3" s="103"/>
-      <c r="E3" s="103"/>
-      <c r="F3" s="104"/>
-      <c r="G3" s="103"/>
-      <c r="H3" s="103"/>
-      <c r="I3" s="103"/>
-      <c r="J3" s="105"/>
+      <c r="C3" s="132"/>
+      <c r="D3" s="132"/>
+      <c r="E3" s="132"/>
+      <c r="F3" s="133"/>
+      <c r="G3" s="132"/>
+      <c r="H3" s="132"/>
+      <c r="I3" s="132"/>
+      <c r="J3" s="134"/>
     </row>
     <row r="4" spans="2:10" s="72" customFormat="1" ht="36" customHeight="1">
       <c r="B4" s="76" t="s">
@@ -3295,10 +3344,10 @@
       </c>
     </row>
     <row r="5" spans="2:10" s="73" customFormat="1" ht="21.95" customHeight="1">
-      <c r="B5" s="129" t="s">
+      <c r="B5" s="106" t="s">
         <v>11</v>
       </c>
-      <c r="C5" s="134" t="s">
+      <c r="C5" s="111" t="s">
         <v>12</v>
       </c>
       <c r="D5" s="79">
@@ -3309,11 +3358,11 @@
       <c r="G5" s="82"/>
       <c r="H5" s="81"/>
       <c r="I5" s="90"/>
-      <c r="J5" s="140"/>
+      <c r="J5" s="142"/>
     </row>
     <row r="6" spans="2:10" s="73" customFormat="1" ht="21.95" customHeight="1">
-      <c r="B6" s="130"/>
-      <c r="C6" s="135"/>
+      <c r="B6" s="107"/>
+      <c r="C6" s="112"/>
       <c r="D6" s="79">
         <v>2</v>
       </c>
@@ -3322,11 +3371,11 @@
       <c r="G6" s="84"/>
       <c r="H6" s="81"/>
       <c r="I6" s="91"/>
-      <c r="J6" s="141"/>
+      <c r="J6" s="143"/>
     </row>
     <row r="7" spans="2:10" s="73" customFormat="1" ht="21.95" customHeight="1">
-      <c r="B7" s="130"/>
-      <c r="C7" s="135"/>
+      <c r="B7" s="107"/>
+      <c r="C7" s="112"/>
       <c r="D7" s="79">
         <v>3</v>
       </c>
@@ -3335,11 +3384,11 @@
       <c r="G7" s="84"/>
       <c r="H7" s="84"/>
       <c r="I7" s="91"/>
-      <c r="J7" s="141"/>
+      <c r="J7" s="143"/>
     </row>
     <row r="8" spans="2:10" s="73" customFormat="1" ht="21.95" customHeight="1">
-      <c r="B8" s="130"/>
-      <c r="C8" s="135"/>
+      <c r="B8" s="107"/>
+      <c r="C8" s="112"/>
       <c r="D8" s="79">
         <v>4</v>
       </c>
@@ -3348,11 +3397,11 @@
       <c r="G8" s="84"/>
       <c r="H8" s="84"/>
       <c r="I8" s="91"/>
-      <c r="J8" s="141"/>
+      <c r="J8" s="143"/>
     </row>
     <row r="9" spans="2:10" s="73" customFormat="1" ht="21.95" customHeight="1">
-      <c r="B9" s="130"/>
-      <c r="C9" s="135"/>
+      <c r="B9" s="107"/>
+      <c r="C9" s="112"/>
       <c r="D9" s="79">
         <v>5</v>
       </c>
@@ -3361,11 +3410,11 @@
       <c r="G9" s="84"/>
       <c r="H9" s="84"/>
       <c r="I9" s="91"/>
-      <c r="J9" s="141"/>
+      <c r="J9" s="143"/>
     </row>
     <row r="10" spans="2:10" s="73" customFormat="1" ht="21.95" customHeight="1">
-      <c r="B10" s="130"/>
-      <c r="C10" s="136"/>
+      <c r="B10" s="107"/>
+      <c r="C10" s="113"/>
       <c r="D10" s="79">
         <v>6</v>
       </c>
@@ -3374,11 +3423,11 @@
       <c r="G10" s="84"/>
       <c r="H10" s="84"/>
       <c r="I10" s="91"/>
-      <c r="J10" s="141"/>
+      <c r="J10" s="143"/>
     </row>
     <row r="11" spans="2:10" s="73" customFormat="1" ht="21.95" customHeight="1">
-      <c r="B11" s="130"/>
-      <c r="C11" s="137" t="s">
+      <c r="B11" s="107"/>
+      <c r="C11" s="114" t="s">
         <v>13</v>
       </c>
       <c r="D11" s="79">
@@ -3389,11 +3438,11 @@
       <c r="G11" s="82"/>
       <c r="H11" s="81"/>
       <c r="I11" s="91"/>
-      <c r="J11" s="141"/>
+      <c r="J11" s="143"/>
     </row>
     <row r="12" spans="2:10" s="73" customFormat="1" ht="21.95" customHeight="1">
-      <c r="B12" s="130"/>
-      <c r="C12" s="137"/>
+      <c r="B12" s="107"/>
+      <c r="C12" s="114"/>
       <c r="D12" s="79">
         <v>2</v>
       </c>
@@ -3402,11 +3451,11 @@
       <c r="G12" s="82"/>
       <c r="H12" s="81"/>
       <c r="I12" s="91"/>
-      <c r="J12" s="141"/>
+      <c r="J12" s="143"/>
     </row>
     <row r="13" spans="2:10" s="73" customFormat="1" ht="22.5" customHeight="1">
-      <c r="B13" s="130"/>
-      <c r="C13" s="137"/>
+      <c r="B13" s="107"/>
+      <c r="C13" s="114"/>
       <c r="D13" s="79">
         <v>3</v>
       </c>
@@ -3415,11 +3464,11 @@
       <c r="G13" s="85"/>
       <c r="H13" s="85"/>
       <c r="I13" s="91"/>
-      <c r="J13" s="141"/>
+      <c r="J13" s="143"/>
     </row>
     <row r="14" spans="2:10" s="73" customFormat="1" ht="21.95" customHeight="1">
-      <c r="B14" s="130"/>
-      <c r="C14" s="137"/>
+      <c r="B14" s="107"/>
+      <c r="C14" s="114"/>
       <c r="D14" s="79">
         <v>4</v>
       </c>
@@ -3428,11 +3477,11 @@
       <c r="G14" s="82"/>
       <c r="H14" s="82"/>
       <c r="I14" s="91"/>
-      <c r="J14" s="141"/>
+      <c r="J14" s="143"/>
     </row>
     <row r="15" spans="2:10" s="73" customFormat="1" ht="21.95" customHeight="1">
-      <c r="B15" s="130"/>
-      <c r="C15" s="137"/>
+      <c r="B15" s="107"/>
+      <c r="C15" s="114"/>
       <c r="D15" s="79">
         <v>5</v>
       </c>
@@ -3441,11 +3490,11 @@
       <c r="G15" s="82"/>
       <c r="H15" s="82"/>
       <c r="I15" s="91"/>
-      <c r="J15" s="141"/>
+      <c r="J15" s="143"/>
     </row>
     <row r="16" spans="2:10" s="73" customFormat="1" ht="21.95" customHeight="1">
-      <c r="B16" s="130"/>
-      <c r="C16" s="138" t="s">
+      <c r="B16" s="107"/>
+      <c r="C16" s="115" t="s">
         <v>14</v>
       </c>
       <c r="D16" s="86">
@@ -3456,11 +3505,11 @@
       <c r="G16" s="84"/>
       <c r="H16" s="81"/>
       <c r="I16" s="91"/>
-      <c r="J16" s="141"/>
+      <c r="J16" s="143"/>
     </row>
     <row r="17" spans="2:10" s="73" customFormat="1" ht="21.95" customHeight="1">
-      <c r="B17" s="130"/>
-      <c r="C17" s="138"/>
+      <c r="B17" s="107"/>
+      <c r="C17" s="115"/>
       <c r="D17" s="79">
         <v>2</v>
       </c>
@@ -3469,11 +3518,11 @@
       <c r="G17" s="88"/>
       <c r="H17" s="87"/>
       <c r="I17" s="83"/>
-      <c r="J17" s="141"/>
+      <c r="J17" s="143"/>
     </row>
     <row r="18" spans="2:10" s="73" customFormat="1" ht="21.95" customHeight="1">
-      <c r="B18" s="130"/>
-      <c r="C18" s="138"/>
+      <c r="B18" s="107"/>
+      <c r="C18" s="115"/>
       <c r="D18" s="79">
         <v>3</v>
       </c>
@@ -3482,11 +3531,11 @@
       <c r="G18" s="82"/>
       <c r="H18" s="82"/>
       <c r="I18" s="91"/>
-      <c r="J18" s="141"/>
+      <c r="J18" s="143"/>
     </row>
     <row r="19" spans="2:10" s="73" customFormat="1" ht="21.95" customHeight="1">
-      <c r="B19" s="130"/>
-      <c r="C19" s="138"/>
+      <c r="B19" s="107"/>
+      <c r="C19" s="115"/>
       <c r="D19" s="79">
         <v>4</v>
       </c>
@@ -3495,11 +3544,11 @@
       <c r="G19" s="82"/>
       <c r="H19" s="82"/>
       <c r="I19" s="91"/>
-      <c r="J19" s="141"/>
+      <c r="J19" s="143"/>
     </row>
     <row r="20" spans="2:10" s="73" customFormat="1" ht="21.95" customHeight="1">
-      <c r="B20" s="131"/>
-      <c r="C20" s="138"/>
+      <c r="B20" s="108"/>
+      <c r="C20" s="115"/>
       <c r="D20" s="79">
         <v>5</v>
       </c>
@@ -3508,13 +3557,13 @@
       <c r="G20" s="82"/>
       <c r="H20" s="82"/>
       <c r="I20" s="91"/>
-      <c r="J20" s="142"/>
+      <c r="J20" s="144"/>
     </row>
     <row r="21" spans="2:10" s="73" customFormat="1" ht="21.95" customHeight="1">
-      <c r="B21" s="129" t="s">
+      <c r="B21" s="106" t="s">
         <v>15</v>
       </c>
-      <c r="C21" s="139" t="s">
+      <c r="C21" s="116" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="79">
@@ -3525,11 +3574,11 @@
       <c r="G21" s="82"/>
       <c r="H21" s="81"/>
       <c r="I21" s="91"/>
-      <c r="J21" s="140"/>
+      <c r="J21" s="142"/>
     </row>
     <row r="22" spans="2:10" s="73" customFormat="1" ht="21.95" customHeight="1">
-      <c r="B22" s="132"/>
-      <c r="C22" s="139"/>
+      <c r="B22" s="109"/>
+      <c r="C22" s="116"/>
       <c r="D22" s="79">
         <v>2</v>
       </c>
@@ -3538,11 +3587,11 @@
       <c r="G22" s="82"/>
       <c r="H22" s="87"/>
       <c r="I22" s="91"/>
-      <c r="J22" s="141"/>
+      <c r="J22" s="143"/>
     </row>
     <row r="23" spans="2:10" s="73" customFormat="1" ht="21.95" customHeight="1">
-      <c r="B23" s="132"/>
-      <c r="C23" s="139"/>
+      <c r="B23" s="109"/>
+      <c r="C23" s="116"/>
       <c r="D23" s="79">
         <v>3</v>
       </c>
@@ -3551,11 +3600,11 @@
       <c r="G23" s="84"/>
       <c r="H23" s="82"/>
       <c r="I23" s="91"/>
-      <c r="J23" s="141"/>
+      <c r="J23" s="143"/>
     </row>
     <row r="24" spans="2:10" s="73" customFormat="1" ht="21.95" customHeight="1">
-      <c r="B24" s="132"/>
-      <c r="C24" s="139"/>
+      <c r="B24" s="109"/>
+      <c r="C24" s="116"/>
       <c r="D24" s="79">
         <v>4</v>
       </c>
@@ -3564,11 +3613,11 @@
       <c r="G24" s="82"/>
       <c r="H24" s="82"/>
       <c r="I24" s="91"/>
-      <c r="J24" s="141"/>
+      <c r="J24" s="143"/>
     </row>
     <row r="25" spans="2:10" s="73" customFormat="1" ht="21.95" customHeight="1">
-      <c r="B25" s="132"/>
-      <c r="C25" s="139"/>
+      <c r="B25" s="109"/>
+      <c r="C25" s="116"/>
       <c r="D25" s="79">
         <v>5</v>
       </c>
@@ -3577,11 +3626,11 @@
       <c r="G25" s="82"/>
       <c r="H25" s="82"/>
       <c r="I25" s="91"/>
-      <c r="J25" s="141"/>
+      <c r="J25" s="143"/>
     </row>
     <row r="26" spans="2:10" s="73" customFormat="1" ht="21.95" customHeight="1">
-      <c r="B26" s="132"/>
-      <c r="C26" s="137" t="s">
+      <c r="B26" s="109"/>
+      <c r="C26" s="114" t="s">
         <v>17</v>
       </c>
       <c r="D26" s="79">
@@ -3592,11 +3641,11 @@
       <c r="G26" s="84"/>
       <c r="H26" s="81"/>
       <c r="I26" s="91"/>
-      <c r="J26" s="141"/>
+      <c r="J26" s="143"/>
     </row>
     <row r="27" spans="2:10" s="73" customFormat="1" ht="21.95" customHeight="1">
-      <c r="B27" s="132"/>
-      <c r="C27" s="137"/>
+      <c r="B27" s="109"/>
+      <c r="C27" s="114"/>
       <c r="D27" s="79">
         <v>2</v>
       </c>
@@ -3605,11 +3654,11 @@
       <c r="G27" s="82"/>
       <c r="H27" s="82"/>
       <c r="I27" s="91"/>
-      <c r="J27" s="141"/>
+      <c r="J27" s="143"/>
     </row>
     <row r="28" spans="2:10" s="73" customFormat="1" ht="21.95" customHeight="1">
-      <c r="B28" s="132"/>
-      <c r="C28" s="137"/>
+      <c r="B28" s="109"/>
+      <c r="C28" s="114"/>
       <c r="D28" s="79">
         <v>3</v>
       </c>
@@ -3618,11 +3667,11 @@
       <c r="G28" s="82"/>
       <c r="H28" s="82"/>
       <c r="I28" s="91"/>
-      <c r="J28" s="141"/>
+      <c r="J28" s="143"/>
     </row>
     <row r="29" spans="2:10" s="73" customFormat="1" ht="21.95" customHeight="1">
-      <c r="B29" s="132"/>
-      <c r="C29" s="137"/>
+      <c r="B29" s="109"/>
+      <c r="C29" s="114"/>
       <c r="D29" s="79">
         <v>4</v>
       </c>
@@ -3631,11 +3680,11 @@
       <c r="G29" s="82"/>
       <c r="H29" s="82"/>
       <c r="I29" s="91"/>
-      <c r="J29" s="141"/>
+      <c r="J29" s="143"/>
     </row>
     <row r="30" spans="2:10" s="73" customFormat="1" ht="21.95" customHeight="1">
-      <c r="B30" s="132"/>
-      <c r="C30" s="137"/>
+      <c r="B30" s="109"/>
+      <c r="C30" s="114"/>
       <c r="D30" s="79">
         <v>5</v>
       </c>
@@ -3644,11 +3693,11 @@
       <c r="G30" s="82"/>
       <c r="H30" s="82"/>
       <c r="I30" s="91"/>
-      <c r="J30" s="141"/>
+      <c r="J30" s="143"/>
     </row>
     <row r="31" spans="2:10" s="73" customFormat="1" ht="21.95" customHeight="1">
-      <c r="B31" s="132"/>
-      <c r="C31" s="138" t="s">
+      <c r="B31" s="109"/>
+      <c r="C31" s="115" t="s">
         <v>18</v>
       </c>
       <c r="D31" s="79">
@@ -3659,11 +3708,11 @@
       <c r="G31" s="82"/>
       <c r="H31" s="81"/>
       <c r="I31" s="91"/>
-      <c r="J31" s="141"/>
+      <c r="J31" s="143"/>
     </row>
     <row r="32" spans="2:10" s="73" customFormat="1" ht="21.95" customHeight="1">
-      <c r="B32" s="132"/>
-      <c r="C32" s="138"/>
+      <c r="B32" s="109"/>
+      <c r="C32" s="115"/>
       <c r="D32" s="79">
         <v>2</v>
       </c>
@@ -3672,11 +3721,11 @@
       <c r="G32" s="82"/>
       <c r="H32" s="82"/>
       <c r="I32" s="91"/>
-      <c r="J32" s="141"/>
+      <c r="J32" s="143"/>
     </row>
     <row r="33" spans="2:10" s="73" customFormat="1" ht="21.95" customHeight="1">
-      <c r="B33" s="132"/>
-      <c r="C33" s="138"/>
+      <c r="B33" s="109"/>
+      <c r="C33" s="115"/>
       <c r="D33" s="79">
         <v>3</v>
       </c>
@@ -3685,11 +3734,11 @@
       <c r="G33" s="82"/>
       <c r="H33" s="82"/>
       <c r="I33" s="91"/>
-      <c r="J33" s="141"/>
+      <c r="J33" s="143"/>
     </row>
     <row r="34" spans="2:10" s="73" customFormat="1" ht="21.95" customHeight="1">
-      <c r="B34" s="132"/>
-      <c r="C34" s="138"/>
+      <c r="B34" s="109"/>
+      <c r="C34" s="115"/>
       <c r="D34" s="79">
         <v>4</v>
       </c>
@@ -3698,11 +3747,11 @@
       <c r="G34" s="82"/>
       <c r="H34" s="82"/>
       <c r="I34" s="91"/>
-      <c r="J34" s="141"/>
+      <c r="J34" s="143"/>
     </row>
     <row r="35" spans="2:10" s="73" customFormat="1" ht="21.95" customHeight="1">
-      <c r="B35" s="133"/>
-      <c r="C35" s="138"/>
+      <c r="B35" s="110"/>
+      <c r="C35" s="115"/>
       <c r="D35" s="79">
         <v>5</v>
       </c>
@@ -3711,13 +3760,13 @@
       <c r="G35" s="82"/>
       <c r="H35" s="82"/>
       <c r="I35" s="91"/>
-      <c r="J35" s="142"/>
+      <c r="J35" s="144"/>
     </row>
     <row r="36" spans="2:10" s="73" customFormat="1" ht="21.95" customHeight="1">
-      <c r="B36" s="129" t="s">
+      <c r="B36" s="106" t="s">
         <v>19</v>
       </c>
-      <c r="C36" s="139" t="s">
+      <c r="C36" s="116" t="s">
         <v>20</v>
       </c>
       <c r="D36" s="79">
@@ -3728,11 +3777,11 @@
       <c r="G36" s="82"/>
       <c r="H36" s="81"/>
       <c r="I36" s="91"/>
-      <c r="J36" s="140"/>
+      <c r="J36" s="142"/>
     </row>
     <row r="37" spans="2:10" s="73" customFormat="1" ht="21.95" customHeight="1">
-      <c r="B37" s="132"/>
-      <c r="C37" s="139"/>
+      <c r="B37" s="109"/>
+      <c r="C37" s="116"/>
       <c r="D37" s="79">
         <v>2</v>
       </c>
@@ -3741,11 +3790,11 @@
       <c r="G37" s="82"/>
       <c r="H37" s="82"/>
       <c r="I37" s="91"/>
-      <c r="J37" s="141"/>
+      <c r="J37" s="143"/>
     </row>
     <row r="38" spans="2:10" s="73" customFormat="1" ht="21.95" customHeight="1">
-      <c r="B38" s="132"/>
-      <c r="C38" s="139"/>
+      <c r="B38" s="109"/>
+      <c r="C38" s="116"/>
       <c r="D38" s="79">
         <v>3</v>
       </c>
@@ -3754,11 +3803,11 @@
       <c r="G38" s="82"/>
       <c r="H38" s="82"/>
       <c r="I38" s="91"/>
-      <c r="J38" s="141"/>
+      <c r="J38" s="143"/>
     </row>
     <row r="39" spans="2:10" s="73" customFormat="1" ht="21.95" customHeight="1">
-      <c r="B39" s="132"/>
-      <c r="C39" s="139"/>
+      <c r="B39" s="109"/>
+      <c r="C39" s="116"/>
       <c r="D39" s="79">
         <v>4</v>
       </c>
@@ -3767,11 +3816,11 @@
       <c r="G39" s="82"/>
       <c r="H39" s="82"/>
       <c r="I39" s="91"/>
-      <c r="J39" s="141"/>
+      <c r="J39" s="143"/>
     </row>
     <row r="40" spans="2:10" s="73" customFormat="1" ht="21.95" customHeight="1">
-      <c r="B40" s="132"/>
-      <c r="C40" s="139"/>
+      <c r="B40" s="109"/>
+      <c r="C40" s="116"/>
       <c r="D40" s="79">
         <v>5</v>
       </c>
@@ -3780,11 +3829,11 @@
       <c r="G40" s="82"/>
       <c r="H40" s="82"/>
       <c r="I40" s="91"/>
-      <c r="J40" s="141"/>
+      <c r="J40" s="143"/>
     </row>
     <row r="41" spans="2:10" s="73" customFormat="1" ht="21.95" customHeight="1">
-      <c r="B41" s="132"/>
-      <c r="C41" s="137" t="s">
+      <c r="B41" s="109"/>
+      <c r="C41" s="114" t="s">
         <v>21</v>
       </c>
       <c r="D41" s="79">
@@ -3795,11 +3844,11 @@
       <c r="G41" s="82"/>
       <c r="H41" s="81"/>
       <c r="I41" s="91"/>
-      <c r="J41" s="141"/>
+      <c r="J41" s="143"/>
     </row>
     <row r="42" spans="2:10" s="73" customFormat="1" ht="21.95" customHeight="1">
-      <c r="B42" s="132"/>
-      <c r="C42" s="137"/>
+      <c r="B42" s="109"/>
+      <c r="C42" s="114"/>
       <c r="D42" s="79">
         <v>2</v>
       </c>
@@ -3808,11 +3857,11 @@
       <c r="G42" s="82"/>
       <c r="H42" s="82"/>
       <c r="I42" s="91"/>
-      <c r="J42" s="141"/>
+      <c r="J42" s="143"/>
     </row>
     <row r="43" spans="2:10" s="73" customFormat="1" ht="21.95" customHeight="1">
-      <c r="B43" s="132"/>
-      <c r="C43" s="137"/>
+      <c r="B43" s="109"/>
+      <c r="C43" s="114"/>
       <c r="D43" s="79">
         <v>3</v>
       </c>
@@ -3821,11 +3870,11 @@
       <c r="G43" s="82"/>
       <c r="H43" s="82"/>
       <c r="I43" s="91"/>
-      <c r="J43" s="141"/>
+      <c r="J43" s="143"/>
     </row>
     <row r="44" spans="2:10" s="73" customFormat="1" ht="21.95" customHeight="1">
-      <c r="B44" s="132"/>
-      <c r="C44" s="137"/>
+      <c r="B44" s="109"/>
+      <c r="C44" s="114"/>
       <c r="D44" s="79">
         <v>4</v>
       </c>
@@ -3834,11 +3883,11 @@
       <c r="G44" s="82"/>
       <c r="H44" s="82"/>
       <c r="I44" s="91"/>
-      <c r="J44" s="141"/>
+      <c r="J44" s="143"/>
     </row>
     <row r="45" spans="2:10" s="73" customFormat="1" ht="21.95" customHeight="1">
-      <c r="B45" s="132"/>
-      <c r="C45" s="137"/>
+      <c r="B45" s="109"/>
+      <c r="C45" s="114"/>
       <c r="D45" s="79">
         <v>5</v>
       </c>
@@ -3847,11 +3896,11 @@
       <c r="G45" s="82"/>
       <c r="H45" s="82"/>
       <c r="I45" s="91"/>
-      <c r="J45" s="141"/>
+      <c r="J45" s="143"/>
     </row>
     <row r="46" spans="2:10" s="73" customFormat="1" ht="21.95" customHeight="1">
-      <c r="B46" s="132"/>
-      <c r="C46" s="138" t="s">
+      <c r="B46" s="109"/>
+      <c r="C46" s="115" t="s">
         <v>22</v>
       </c>
       <c r="D46" s="79">
@@ -3862,11 +3911,11 @@
       <c r="G46" s="82"/>
       <c r="H46" s="81"/>
       <c r="I46" s="91"/>
-      <c r="J46" s="141"/>
+      <c r="J46" s="143"/>
     </row>
     <row r="47" spans="2:10" s="73" customFormat="1" ht="21.95" customHeight="1">
-      <c r="B47" s="132"/>
-      <c r="C47" s="138"/>
+      <c r="B47" s="109"/>
+      <c r="C47" s="115"/>
       <c r="D47" s="79">
         <v>2</v>
       </c>
@@ -3875,11 +3924,11 @@
       <c r="G47" s="82"/>
       <c r="H47" s="82"/>
       <c r="I47" s="91"/>
-      <c r="J47" s="141"/>
+      <c r="J47" s="143"/>
     </row>
     <row r="48" spans="2:10" s="73" customFormat="1" ht="21.95" customHeight="1">
-      <c r="B48" s="132"/>
-      <c r="C48" s="138"/>
+      <c r="B48" s="109"/>
+      <c r="C48" s="115"/>
       <c r="D48" s="79">
         <v>3</v>
       </c>
@@ -3888,11 +3937,11 @@
       <c r="G48" s="82"/>
       <c r="H48" s="82"/>
       <c r="I48" s="91"/>
-      <c r="J48" s="141"/>
+      <c r="J48" s="143"/>
     </row>
     <row r="49" spans="2:10" s="73" customFormat="1" ht="21.95" customHeight="1">
-      <c r="B49" s="132"/>
-      <c r="C49" s="138"/>
+      <c r="B49" s="109"/>
+      <c r="C49" s="115"/>
       <c r="D49" s="79">
         <v>4</v>
       </c>
@@ -3901,11 +3950,11 @@
       <c r="G49" s="82"/>
       <c r="H49" s="82"/>
       <c r="I49" s="91"/>
-      <c r="J49" s="141"/>
+      <c r="J49" s="143"/>
     </row>
     <row r="50" spans="2:10" s="73" customFormat="1" ht="21.95" customHeight="1">
-      <c r="B50" s="133"/>
-      <c r="C50" s="138"/>
+      <c r="B50" s="110"/>
+      <c r="C50" s="115"/>
       <c r="D50" s="79">
         <v>5</v>
       </c>
@@ -3914,13 +3963,13 @@
       <c r="G50" s="82"/>
       <c r="H50" s="82"/>
       <c r="I50" s="91"/>
-      <c r="J50" s="142"/>
+      <c r="J50" s="144"/>
     </row>
     <row r="51" spans="2:10" s="73" customFormat="1" ht="21.95" customHeight="1">
-      <c r="B51" s="129" t="s">
+      <c r="B51" s="106" t="s">
         <v>23</v>
       </c>
-      <c r="C51" s="139" t="s">
+      <c r="C51" s="116" t="s">
         <v>24</v>
       </c>
       <c r="D51" s="79">
@@ -3931,11 +3980,11 @@
       <c r="G51" s="82"/>
       <c r="H51" s="81"/>
       <c r="I51" s="91"/>
-      <c r="J51" s="140"/>
+      <c r="J51" s="142"/>
     </row>
     <row r="52" spans="2:10" s="73" customFormat="1" ht="21.95" customHeight="1">
-      <c r="B52" s="132"/>
-      <c r="C52" s="139"/>
+      <c r="B52" s="109"/>
+      <c r="C52" s="116"/>
       <c r="D52" s="79">
         <v>2</v>
       </c>
@@ -3944,11 +3993,11 @@
       <c r="G52" s="84"/>
       <c r="H52" s="84"/>
       <c r="I52" s="91"/>
-      <c r="J52" s="141"/>
+      <c r="J52" s="143"/>
     </row>
     <row r="53" spans="2:10" s="73" customFormat="1" ht="21.95" customHeight="1">
-      <c r="B53" s="132"/>
-      <c r="C53" s="139"/>
+      <c r="B53" s="109"/>
+      <c r="C53" s="116"/>
       <c r="D53" s="79">
         <v>3</v>
       </c>
@@ -3957,11 +4006,11 @@
       <c r="G53" s="82"/>
       <c r="H53" s="82"/>
       <c r="I53" s="91"/>
-      <c r="J53" s="141"/>
+      <c r="J53" s="143"/>
     </row>
     <row r="54" spans="2:10" s="73" customFormat="1" ht="21.95" customHeight="1">
-      <c r="B54" s="132"/>
-      <c r="C54" s="139"/>
+      <c r="B54" s="109"/>
+      <c r="C54" s="116"/>
       <c r="D54" s="79">
         <v>4</v>
       </c>
@@ -3970,11 +4019,11 @@
       <c r="G54" s="82"/>
       <c r="H54" s="82"/>
       <c r="I54" s="91"/>
-      <c r="J54" s="141"/>
+      <c r="J54" s="143"/>
     </row>
     <row r="55" spans="2:10" s="73" customFormat="1" ht="21.95" customHeight="1">
-      <c r="B55" s="132"/>
-      <c r="C55" s="139"/>
+      <c r="B55" s="109"/>
+      <c r="C55" s="116"/>
       <c r="D55" s="79">
         <v>5</v>
       </c>
@@ -3983,11 +4032,11 @@
       <c r="G55" s="82"/>
       <c r="H55" s="82"/>
       <c r="I55" s="91"/>
-      <c r="J55" s="141"/>
+      <c r="J55" s="143"/>
     </row>
     <row r="56" spans="2:10" s="73" customFormat="1" ht="21.95" customHeight="1">
-      <c r="B56" s="132"/>
-      <c r="C56" s="137" t="s">
+      <c r="B56" s="109"/>
+      <c r="C56" s="114" t="s">
         <v>25</v>
       </c>
       <c r="D56" s="79">
@@ -3998,11 +4047,11 @@
       <c r="G56" s="82"/>
       <c r="H56" s="81"/>
       <c r="I56" s="91"/>
-      <c r="J56" s="141"/>
+      <c r="J56" s="143"/>
     </row>
     <row r="57" spans="2:10" s="73" customFormat="1" ht="21.95" customHeight="1">
-      <c r="B57" s="132"/>
-      <c r="C57" s="137"/>
+      <c r="B57" s="109"/>
+      <c r="C57" s="114"/>
       <c r="D57" s="79">
         <v>2</v>
       </c>
@@ -4011,11 +4060,11 @@
       <c r="G57" s="82"/>
       <c r="H57" s="82"/>
       <c r="I57" s="91"/>
-      <c r="J57" s="141"/>
+      <c r="J57" s="143"/>
     </row>
     <row r="58" spans="2:10" s="73" customFormat="1" ht="21.95" customHeight="1">
-      <c r="B58" s="132"/>
-      <c r="C58" s="137"/>
+      <c r="B58" s="109"/>
+      <c r="C58" s="114"/>
       <c r="D58" s="79">
         <v>3</v>
       </c>
@@ -4024,11 +4073,11 @@
       <c r="G58" s="82"/>
       <c r="H58" s="82"/>
       <c r="I58" s="91"/>
-      <c r="J58" s="141"/>
+      <c r="J58" s="143"/>
     </row>
     <row r="59" spans="2:10" s="73" customFormat="1" ht="21.95" customHeight="1">
-      <c r="B59" s="132"/>
-      <c r="C59" s="137"/>
+      <c r="B59" s="109"/>
+      <c r="C59" s="114"/>
       <c r="D59" s="79">
         <v>4</v>
       </c>
@@ -4037,11 +4086,11 @@
       <c r="G59" s="82"/>
       <c r="H59" s="82"/>
       <c r="I59" s="91"/>
-      <c r="J59" s="141"/>
+      <c r="J59" s="143"/>
     </row>
     <row r="60" spans="2:10" s="73" customFormat="1" ht="21.95" customHeight="1">
-      <c r="B60" s="132"/>
-      <c r="C60" s="137"/>
+      <c r="B60" s="109"/>
+      <c r="C60" s="114"/>
       <c r="D60" s="79">
         <v>5</v>
       </c>
@@ -4050,11 +4099,11 @@
       <c r="G60" s="82"/>
       <c r="H60" s="82"/>
       <c r="I60" s="91"/>
-      <c r="J60" s="141"/>
+      <c r="J60" s="143"/>
     </row>
     <row r="61" spans="2:10" s="73" customFormat="1" ht="21.95" customHeight="1">
-      <c r="B61" s="132"/>
-      <c r="C61" s="138" t="s">
+      <c r="B61" s="109"/>
+      <c r="C61" s="115" t="s">
         <v>26</v>
       </c>
       <c r="D61" s="79">
@@ -4065,11 +4114,11 @@
       <c r="G61" s="82"/>
       <c r="H61" s="81"/>
       <c r="I61" s="91"/>
-      <c r="J61" s="141"/>
+      <c r="J61" s="143"/>
     </row>
     <row r="62" spans="2:10" s="73" customFormat="1" ht="21.95" customHeight="1">
-      <c r="B62" s="132"/>
-      <c r="C62" s="138"/>
+      <c r="B62" s="109"/>
+      <c r="C62" s="115"/>
       <c r="D62" s="79">
         <v>2</v>
       </c>
@@ -4078,11 +4127,11 @@
       <c r="G62" s="82"/>
       <c r="H62" s="82"/>
       <c r="I62" s="91"/>
-      <c r="J62" s="141"/>
+      <c r="J62" s="143"/>
     </row>
     <row r="63" spans="2:10" s="73" customFormat="1" ht="21.95" customHeight="1">
-      <c r="B63" s="132"/>
-      <c r="C63" s="138"/>
+      <c r="B63" s="109"/>
+      <c r="C63" s="115"/>
       <c r="D63" s="79">
         <v>3</v>
       </c>
@@ -4091,11 +4140,11 @@
       <c r="G63" s="82"/>
       <c r="H63" s="82"/>
       <c r="I63" s="91"/>
-      <c r="J63" s="141"/>
+      <c r="J63" s="143"/>
     </row>
     <row r="64" spans="2:10" s="73" customFormat="1" ht="21.95" customHeight="1">
-      <c r="B64" s="132"/>
-      <c r="C64" s="138"/>
+      <c r="B64" s="109"/>
+      <c r="C64" s="115"/>
       <c r="D64" s="79">
         <v>4</v>
       </c>
@@ -4104,11 +4153,11 @@
       <c r="G64" s="82"/>
       <c r="H64" s="82"/>
       <c r="I64" s="91"/>
-      <c r="J64" s="141"/>
+      <c r="J64" s="143"/>
     </row>
     <row r="65" spans="2:10" s="73" customFormat="1" ht="21.95" customHeight="1">
-      <c r="B65" s="133"/>
-      <c r="C65" s="138"/>
+      <c r="B65" s="110"/>
+      <c r="C65" s="115"/>
       <c r="D65" s="79">
         <v>5</v>
       </c>
@@ -4117,148 +4166,148 @@
       <c r="G65" s="82"/>
       <c r="H65" s="82"/>
       <c r="I65" s="91"/>
-      <c r="J65" s="142"/>
+      <c r="J65" s="144"/>
     </row>
     <row r="66" spans="2:10" ht="21.95" customHeight="1">
-      <c r="B66" s="106" t="s">
+      <c r="B66" s="135" t="s">
         <v>27</v>
       </c>
-      <c r="C66" s="107"/>
-      <c r="D66" s="107"/>
-      <c r="E66" s="107"/>
-      <c r="F66" s="108"/>
-      <c r="G66" s="107"/>
-      <c r="H66" s="107"/>
-      <c r="I66" s="107"/>
-      <c r="J66" s="109"/>
+      <c r="C66" s="136"/>
+      <c r="D66" s="136"/>
+      <c r="E66" s="136"/>
+      <c r="F66" s="137"/>
+      <c r="G66" s="136"/>
+      <c r="H66" s="136"/>
+      <c r="I66" s="136"/>
+      <c r="J66" s="138"/>
     </row>
     <row r="67" spans="2:10" ht="79.5" customHeight="1">
-      <c r="B67" s="110"/>
-      <c r="C67" s="111"/>
-      <c r="D67" s="111"/>
-      <c r="E67" s="111"/>
-      <c r="F67" s="111"/>
-      <c r="G67" s="111"/>
-      <c r="H67" s="111"/>
-      <c r="I67" s="111"/>
-      <c r="J67" s="112"/>
+      <c r="B67" s="139"/>
+      <c r="C67" s="140"/>
+      <c r="D67" s="140"/>
+      <c r="E67" s="140"/>
+      <c r="F67" s="140"/>
+      <c r="G67" s="140"/>
+      <c r="H67" s="140"/>
+      <c r="I67" s="140"/>
+      <c r="J67" s="141"/>
     </row>
     <row r="68" spans="2:10" ht="21.95" customHeight="1">
-      <c r="B68" s="106" t="s">
+      <c r="B68" s="135" t="s">
         <v>28</v>
       </c>
-      <c r="C68" s="107"/>
-      <c r="D68" s="107"/>
-      <c r="E68" s="107"/>
-      <c r="F68" s="108"/>
-      <c r="G68" s="107"/>
-      <c r="H68" s="107"/>
-      <c r="I68" s="107"/>
-      <c r="J68" s="109"/>
+      <c r="C68" s="136"/>
+      <c r="D68" s="136"/>
+      <c r="E68" s="136"/>
+      <c r="F68" s="137"/>
+      <c r="G68" s="136"/>
+      <c r="H68" s="136"/>
+      <c r="I68" s="136"/>
+      <c r="J68" s="138"/>
     </row>
     <row r="69" spans="2:10" ht="98.25" customHeight="1">
-      <c r="B69" s="113"/>
-      <c r="C69" s="113"/>
-      <c r="D69" s="113"/>
-      <c r="E69" s="113"/>
-      <c r="F69" s="113"/>
-      <c r="G69" s="113"/>
-      <c r="H69" s="113"/>
-      <c r="I69" s="113"/>
-      <c r="J69" s="113"/>
+      <c r="B69" s="122"/>
+      <c r="C69" s="122"/>
+      <c r="D69" s="122"/>
+      <c r="E69" s="122"/>
+      <c r="F69" s="122"/>
+      <c r="G69" s="122"/>
+      <c r="H69" s="122"/>
+      <c r="I69" s="122"/>
+      <c r="J69" s="122"/>
     </row>
     <row r="70" spans="2:10" ht="23.25" customHeight="1">
-      <c r="B70" s="114" t="s">
+      <c r="B70" s="123" t="s">
         <v>29</v>
       </c>
-      <c r="C70" s="114"/>
-      <c r="D70" s="114"/>
-      <c r="E70" s="114"/>
-      <c r="F70" s="114"/>
-      <c r="G70" s="114"/>
-      <c r="H70" s="114"/>
-      <c r="I70" s="115"/>
-      <c r="J70" s="115"/>
+      <c r="C70" s="123"/>
+      <c r="D70" s="123"/>
+      <c r="E70" s="123"/>
+      <c r="F70" s="123"/>
+      <c r="G70" s="123"/>
+      <c r="H70" s="123"/>
+      <c r="I70" s="124"/>
+      <c r="J70" s="124"/>
     </row>
     <row r="71" spans="2:10" ht="23.25" customHeight="1">
-      <c r="B71" s="116" t="s">
+      <c r="B71" s="125" t="s">
         <v>30</v>
       </c>
-      <c r="C71" s="117"/>
-      <c r="D71" s="117"/>
+      <c r="C71" s="126"/>
+      <c r="D71" s="126"/>
       <c r="E71" s="92" t="s">
         <v>31</v>
       </c>
       <c r="F71" s="92" t="s">
         <v>32</v>
       </c>
-      <c r="G71" s="118" t="s">
+      <c r="G71" s="127" t="s">
         <v>33</v>
       </c>
-      <c r="H71" s="119"/>
-      <c r="I71" s="120" t="s">
+      <c r="H71" s="128"/>
+      <c r="I71" s="129" t="s">
         <v>34</v>
       </c>
-      <c r="J71" s="120"/>
+      <c r="J71" s="129"/>
     </row>
     <row r="72" spans="2:10" ht="30" customHeight="1">
       <c r="B72" s="93" t="s">
         <v>11</v>
       </c>
-      <c r="C72" s="121"/>
-      <c r="D72" s="122"/>
+      <c r="C72" s="117"/>
+      <c r="D72" s="118"/>
       <c r="E72" s="94"/>
       <c r="F72" s="95"/>
-      <c r="G72" s="123"/>
-      <c r="H72" s="124"/>
-      <c r="I72" s="125"/>
-      <c r="J72" s="125"/>
+      <c r="G72" s="119"/>
+      <c r="H72" s="120"/>
+      <c r="I72" s="121"/>
+      <c r="J72" s="121"/>
     </row>
     <row r="73" spans="2:10" ht="30" customHeight="1">
       <c r="B73" s="93" t="s">
         <v>15</v>
       </c>
-      <c r="C73" s="121"/>
-      <c r="D73" s="122"/>
+      <c r="C73" s="117"/>
+      <c r="D73" s="118"/>
       <c r="E73" s="94"/>
       <c r="F73" s="95"/>
-      <c r="G73" s="123"/>
-      <c r="H73" s="124"/>
-      <c r="I73" s="125"/>
-      <c r="J73" s="125"/>
+      <c r="G73" s="119"/>
+      <c r="H73" s="120"/>
+      <c r="I73" s="121"/>
+      <c r="J73" s="121"/>
     </row>
     <row r="74" spans="2:10" ht="30" customHeight="1">
       <c r="B74" s="93" t="s">
         <v>19</v>
       </c>
-      <c r="C74" s="121"/>
-      <c r="D74" s="122"/>
+      <c r="C74" s="117"/>
+      <c r="D74" s="118"/>
       <c r="E74" s="94"/>
       <c r="F74" s="95"/>
-      <c r="G74" s="123"/>
-      <c r="H74" s="124"/>
-      <c r="I74" s="125"/>
-      <c r="J74" s="125"/>
+      <c r="G74" s="119"/>
+      <c r="H74" s="120"/>
+      <c r="I74" s="121"/>
+      <c r="J74" s="121"/>
     </row>
     <row r="75" spans="2:10" ht="30" customHeight="1">
       <c r="B75" s="93" t="s">
         <v>23</v>
       </c>
-      <c r="C75" s="121"/>
-      <c r="D75" s="122"/>
+      <c r="C75" s="117"/>
+      <c r="D75" s="118"/>
       <c r="E75" s="94"/>
       <c r="F75" s="95"/>
-      <c r="G75" s="123"/>
-      <c r="H75" s="124"/>
-      <c r="I75" s="125"/>
-      <c r="J75" s="125"/>
+      <c r="G75" s="119"/>
+      <c r="H75" s="120"/>
+      <c r="I75" s="121"/>
+      <c r="J75" s="121"/>
     </row>
     <row r="76" spans="2:10" ht="36.75" customHeight="1">
-      <c r="B76" s="126" t="s">
+      <c r="B76" s="103" t="s">
         <v>35</v>
       </c>
-      <c r="C76" s="127"/>
-      <c r="D76" s="128"/>
+      <c r="C76" s="104"/>
+      <c r="D76" s="105"/>
       <c r="E76" s="96"/>
       <c r="F76" s="93" t="s">
         <v>36</v>
@@ -4273,6 +4322,33 @@
   </sheetData>
   <sheetProtection selectLockedCells="1" selectUnlockedCells="1"/>
   <mergeCells count="43">
+    <mergeCell ref="B2:J2"/>
+    <mergeCell ref="B3:J3"/>
+    <mergeCell ref="B66:J66"/>
+    <mergeCell ref="B67:J67"/>
+    <mergeCell ref="B68:J68"/>
+    <mergeCell ref="C61:C65"/>
+    <mergeCell ref="J5:J20"/>
+    <mergeCell ref="J21:J35"/>
+    <mergeCell ref="J36:J50"/>
+    <mergeCell ref="J51:J65"/>
+    <mergeCell ref="B69:J69"/>
+    <mergeCell ref="B70:J70"/>
+    <mergeCell ref="B71:D71"/>
+    <mergeCell ref="G71:H71"/>
+    <mergeCell ref="I71:J71"/>
+    <mergeCell ref="C72:D72"/>
+    <mergeCell ref="G72:H72"/>
+    <mergeCell ref="I72:J72"/>
+    <mergeCell ref="C73:D73"/>
+    <mergeCell ref="G73:H73"/>
+    <mergeCell ref="I73:J73"/>
+    <mergeCell ref="C74:D74"/>
+    <mergeCell ref="G74:H74"/>
+    <mergeCell ref="I74:J74"/>
+    <mergeCell ref="C75:D75"/>
+    <mergeCell ref="G75:H75"/>
+    <mergeCell ref="I75:J75"/>
     <mergeCell ref="B76:D76"/>
     <mergeCell ref="B5:B20"/>
     <mergeCell ref="B21:B35"/>
@@ -4289,33 +4365,6 @@
     <mergeCell ref="C46:C50"/>
     <mergeCell ref="C51:C55"/>
     <mergeCell ref="C56:C60"/>
-    <mergeCell ref="C74:D74"/>
-    <mergeCell ref="G74:H74"/>
-    <mergeCell ref="I74:J74"/>
-    <mergeCell ref="C75:D75"/>
-    <mergeCell ref="G75:H75"/>
-    <mergeCell ref="I75:J75"/>
-    <mergeCell ref="C72:D72"/>
-    <mergeCell ref="G72:H72"/>
-    <mergeCell ref="I72:J72"/>
-    <mergeCell ref="C73:D73"/>
-    <mergeCell ref="G73:H73"/>
-    <mergeCell ref="I73:J73"/>
-    <mergeCell ref="B69:J69"/>
-    <mergeCell ref="B70:J70"/>
-    <mergeCell ref="B71:D71"/>
-    <mergeCell ref="G71:H71"/>
-    <mergeCell ref="I71:J71"/>
-    <mergeCell ref="B2:J2"/>
-    <mergeCell ref="B3:J3"/>
-    <mergeCell ref="B66:J66"/>
-    <mergeCell ref="B67:J67"/>
-    <mergeCell ref="B68:J68"/>
-    <mergeCell ref="C61:C65"/>
-    <mergeCell ref="J5:J20"/>
-    <mergeCell ref="J21:J35"/>
-    <mergeCell ref="J36:J50"/>
-    <mergeCell ref="J51:J65"/>
   </mergeCells>
   <phoneticPr fontId="22" type="noConversion"/>
   <dataValidations count="1">
@@ -4335,9 +4384,9 @@
   </sheetPr>
   <dimension ref="A1:H71"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
-      <pane ySplit="4" topLeftCell="A56" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D63" sqref="D63"/>
+    <sheetView showGridLines="0" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
+      <pane ySplit="4" topLeftCell="A59" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D62" sqref="D62:F62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -4355,73 +4404,73 @@
   <sheetData>
     <row r="1" spans="1:8" ht="24" customHeight="1">
       <c r="A1" s="2"/>
-      <c r="B1" s="165"/>
-      <c r="C1" s="165"/>
-      <c r="D1" s="165"/>
-      <c r="E1" s="165"/>
-      <c r="F1" s="165"/>
-      <c r="G1" s="165"/>
-      <c r="H1" s="165"/>
+      <c r="B1" s="181"/>
+      <c r="C1" s="181"/>
+      <c r="D1" s="181"/>
+      <c r="E1" s="181"/>
+      <c r="F1" s="181"/>
+      <c r="G1" s="181"/>
+      <c r="H1" s="181"/>
     </row>
     <row r="2" spans="1:8" ht="27.75" customHeight="1">
-      <c r="A2" s="172" t="s">
+      <c r="A2" s="169" t="s">
         <v>83</v>
       </c>
-      <c r="B2" s="172" t="s">
+      <c r="B2" s="169" t="s">
         <v>84</v>
       </c>
-      <c r="C2" s="174" t="s">
+      <c r="C2" s="176" t="s">
         <v>182</v>
       </c>
-      <c r="D2" s="172" t="s">
+      <c r="D2" s="169" t="s">
         <v>86</v>
       </c>
-      <c r="E2" s="176" t="s">
+      <c r="E2" s="171" t="s">
         <v>87</v>
       </c>
-      <c r="F2" s="178" t="s">
+      <c r="F2" s="167" t="s">
         <v>9</v>
       </c>
-      <c r="G2" s="178" t="s">
+      <c r="G2" s="167" t="s">
         <v>88</v>
       </c>
-      <c r="H2" s="178" t="s">
+      <c r="H2" s="167" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="27" customHeight="1">
-      <c r="A3" s="173"/>
-      <c r="B3" s="173"/>
-      <c r="C3" s="175"/>
-      <c r="D3" s="173"/>
-      <c r="E3" s="177"/>
-      <c r="F3" s="179"/>
-      <c r="G3" s="179"/>
-      <c r="H3" s="179"/>
+      <c r="A3" s="170"/>
+      <c r="B3" s="170"/>
+      <c r="C3" s="177"/>
+      <c r="D3" s="170"/>
+      <c r="E3" s="172"/>
+      <c r="F3" s="168"/>
+      <c r="G3" s="168"/>
+      <c r="H3" s="168"/>
     </row>
     <row r="4" spans="1:8" ht="24.75" customHeight="1">
-      <c r="A4" s="166" t="s">
+      <c r="A4" s="178" t="s">
         <v>89</v>
       </c>
-      <c r="B4" s="167"/>
-      <c r="C4" s="167"/>
-      <c r="D4" s="167"/>
-      <c r="E4" s="167"/>
-      <c r="F4" s="167"/>
-      <c r="G4" s="167"/>
-      <c r="H4" s="168"/>
+      <c r="B4" s="179"/>
+      <c r="C4" s="179"/>
+      <c r="D4" s="179"/>
+      <c r="E4" s="179"/>
+      <c r="F4" s="179"/>
+      <c r="G4" s="179"/>
+      <c r="H4" s="180"/>
     </row>
     <row r="5" spans="1:8" ht="30" customHeight="1">
-      <c r="A5" s="169" t="s">
+      <c r="A5" s="173" t="s">
         <v>90</v>
       </c>
-      <c r="B5" s="170"/>
-      <c r="C5" s="170"/>
-      <c r="D5" s="170"/>
-      <c r="E5" s="170"/>
-      <c r="F5" s="170"/>
-      <c r="G5" s="170"/>
-      <c r="H5" s="171"/>
+      <c r="B5" s="174"/>
+      <c r="C5" s="174"/>
+      <c r="D5" s="174"/>
+      <c r="E5" s="174"/>
+      <c r="F5" s="174"/>
+      <c r="G5" s="174"/>
+      <c r="H5" s="175"/>
     </row>
     <row r="6" spans="1:8" ht="30" customHeight="1">
       <c r="A6" s="3"/>
@@ -4557,64 +4606,64 @@
       <c r="G15" s="12"/>
     </row>
     <row r="16" spans="1:8" ht="27.75" customHeight="1">
-      <c r="A16" s="172" t="s">
+      <c r="A16" s="169" t="s">
         <v>83</v>
       </c>
-      <c r="B16" s="172" t="s">
+      <c r="B16" s="169" t="s">
         <v>84</v>
       </c>
-      <c r="C16" s="174" t="s">
+      <c r="C16" s="176" t="s">
         <v>189</v>
       </c>
-      <c r="D16" s="172" t="s">
+      <c r="D16" s="169" t="s">
         <v>86</v>
       </c>
-      <c r="E16" s="176" t="s">
+      <c r="E16" s="171" t="s">
         <v>87</v>
       </c>
-      <c r="F16" s="178" t="s">
+      <c r="F16" s="167" t="s">
         <v>9</v>
       </c>
-      <c r="G16" s="178" t="s">
+      <c r="G16" s="167" t="s">
         <v>88</v>
       </c>
-      <c r="H16" s="178" t="s">
+      <c r="H16" s="167" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="17" spans="1:8" ht="27" customHeight="1">
-      <c r="A17" s="173"/>
-      <c r="B17" s="173"/>
-      <c r="C17" s="175"/>
-      <c r="D17" s="173"/>
-      <c r="E17" s="177"/>
-      <c r="F17" s="179"/>
-      <c r="G17" s="179"/>
-      <c r="H17" s="179"/>
+      <c r="A17" s="170"/>
+      <c r="B17" s="170"/>
+      <c r="C17" s="177"/>
+      <c r="D17" s="170"/>
+      <c r="E17" s="172"/>
+      <c r="F17" s="168"/>
+      <c r="G17" s="168"/>
+      <c r="H17" s="168"/>
     </row>
     <row r="18" spans="1:8" ht="24.75" customHeight="1">
-      <c r="A18" s="166" t="s">
+      <c r="A18" s="178" t="s">
         <v>89</v>
       </c>
-      <c r="B18" s="167"/>
-      <c r="C18" s="167"/>
-      <c r="D18" s="167"/>
-      <c r="E18" s="167"/>
-      <c r="F18" s="167"/>
-      <c r="G18" s="167"/>
-      <c r="H18" s="168"/>
+      <c r="B18" s="179"/>
+      <c r="C18" s="179"/>
+      <c r="D18" s="179"/>
+      <c r="E18" s="179"/>
+      <c r="F18" s="179"/>
+      <c r="G18" s="179"/>
+      <c r="H18" s="180"/>
     </row>
     <row r="19" spans="1:8" ht="30" customHeight="1">
-      <c r="A19" s="169" t="s">
+      <c r="A19" s="173" t="s">
         <v>90</v>
       </c>
-      <c r="B19" s="170"/>
-      <c r="C19" s="170"/>
-      <c r="D19" s="170"/>
-      <c r="E19" s="170"/>
-      <c r="F19" s="170"/>
-      <c r="G19" s="170"/>
-      <c r="H19" s="171"/>
+      <c r="B19" s="174"/>
+      <c r="C19" s="174"/>
+      <c r="D19" s="174"/>
+      <c r="E19" s="174"/>
+      <c r="F19" s="174"/>
+      <c r="G19" s="174"/>
+      <c r="H19" s="175"/>
     </row>
     <row r="20" spans="1:8" ht="30" customHeight="1">
       <c r="A20" s="3"/>
@@ -4750,64 +4799,64 @@
       <c r="G29" s="12"/>
     </row>
     <row r="30" spans="1:8" ht="27.75" customHeight="1">
-      <c r="A30" s="172" t="s">
+      <c r="A30" s="169" t="s">
         <v>83</v>
       </c>
-      <c r="B30" s="172" t="s">
+      <c r="B30" s="169" t="s">
         <v>84</v>
       </c>
-      <c r="C30" s="174" t="s">
+      <c r="C30" s="176" t="s">
         <v>197</v>
       </c>
-      <c r="D30" s="172" t="s">
+      <c r="D30" s="169" t="s">
         <v>86</v>
       </c>
-      <c r="E30" s="176" t="s">
+      <c r="E30" s="171" t="s">
         <v>87</v>
       </c>
-      <c r="F30" s="178" t="s">
+      <c r="F30" s="167" t="s">
         <v>9</v>
       </c>
-      <c r="G30" s="178" t="s">
+      <c r="G30" s="167" t="s">
         <v>88</v>
       </c>
-      <c r="H30" s="178" t="s">
+      <c r="H30" s="167" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="31" spans="1:8" ht="27" customHeight="1">
-      <c r="A31" s="173"/>
-      <c r="B31" s="173"/>
-      <c r="C31" s="175"/>
-      <c r="D31" s="173"/>
-      <c r="E31" s="177"/>
-      <c r="F31" s="179"/>
-      <c r="G31" s="179"/>
-      <c r="H31" s="179"/>
+      <c r="A31" s="170"/>
+      <c r="B31" s="170"/>
+      <c r="C31" s="177"/>
+      <c r="D31" s="170"/>
+      <c r="E31" s="172"/>
+      <c r="F31" s="168"/>
+      <c r="G31" s="168"/>
+      <c r="H31" s="168"/>
     </row>
     <row r="32" spans="1:8" ht="24.75" customHeight="1">
-      <c r="A32" s="166" t="s">
+      <c r="A32" s="178" t="s">
         <v>89</v>
       </c>
-      <c r="B32" s="167"/>
-      <c r="C32" s="167"/>
-      <c r="D32" s="167"/>
-      <c r="E32" s="167"/>
-      <c r="F32" s="167"/>
-      <c r="G32" s="167"/>
-      <c r="H32" s="168"/>
+      <c r="B32" s="179"/>
+      <c r="C32" s="179"/>
+      <c r="D32" s="179"/>
+      <c r="E32" s="179"/>
+      <c r="F32" s="179"/>
+      <c r="G32" s="179"/>
+      <c r="H32" s="180"/>
     </row>
     <row r="33" spans="1:8" ht="30" customHeight="1">
-      <c r="A33" s="169" t="s">
+      <c r="A33" s="173" t="s">
         <v>90</v>
       </c>
-      <c r="B33" s="170"/>
-      <c r="C33" s="170"/>
-      <c r="D33" s="170"/>
-      <c r="E33" s="170"/>
-      <c r="F33" s="170"/>
-      <c r="G33" s="170"/>
-      <c r="H33" s="171"/>
+      <c r="B33" s="174"/>
+      <c r="C33" s="174"/>
+      <c r="D33" s="174"/>
+      <c r="E33" s="174"/>
+      <c r="F33" s="174"/>
+      <c r="G33" s="174"/>
+      <c r="H33" s="175"/>
     </row>
     <row r="34" spans="1:8" ht="30" customHeight="1">
       <c r="A34" s="3"/>
@@ -4945,64 +4994,64 @@
       <c r="G43" s="12"/>
     </row>
     <row r="44" spans="1:8" ht="27.75" customHeight="1">
-      <c r="A44" s="172" t="s">
+      <c r="A44" s="169" t="s">
         <v>83</v>
       </c>
-      <c r="B44" s="172" t="s">
+      <c r="B44" s="169" t="s">
         <v>84</v>
       </c>
-      <c r="C44" s="174" t="s">
+      <c r="C44" s="176" t="s">
         <v>207</v>
       </c>
-      <c r="D44" s="172" t="s">
+      <c r="D44" s="169" t="s">
         <v>86</v>
       </c>
-      <c r="E44" s="176" t="s">
+      <c r="E44" s="171" t="s">
         <v>87</v>
       </c>
-      <c r="F44" s="178" t="s">
+      <c r="F44" s="167" t="s">
         <v>9</v>
       </c>
-      <c r="G44" s="178" t="s">
+      <c r="G44" s="167" t="s">
         <v>88</v>
       </c>
-      <c r="H44" s="178" t="s">
+      <c r="H44" s="167" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="45" spans="1:8" ht="27" customHeight="1">
-      <c r="A45" s="173"/>
-      <c r="B45" s="173"/>
-      <c r="C45" s="175"/>
-      <c r="D45" s="173"/>
-      <c r="E45" s="177"/>
-      <c r="F45" s="179"/>
-      <c r="G45" s="179"/>
-      <c r="H45" s="179"/>
+      <c r="A45" s="170"/>
+      <c r="B45" s="170"/>
+      <c r="C45" s="177"/>
+      <c r="D45" s="170"/>
+      <c r="E45" s="172"/>
+      <c r="F45" s="168"/>
+      <c r="G45" s="168"/>
+      <c r="H45" s="168"/>
     </row>
     <row r="46" spans="1:8" ht="24.75" customHeight="1">
-      <c r="A46" s="166" t="s">
+      <c r="A46" s="178" t="s">
         <v>89</v>
       </c>
-      <c r="B46" s="167"/>
-      <c r="C46" s="167"/>
-      <c r="D46" s="167"/>
-      <c r="E46" s="167"/>
-      <c r="F46" s="167"/>
-      <c r="G46" s="167"/>
-      <c r="H46" s="168"/>
+      <c r="B46" s="179"/>
+      <c r="C46" s="179"/>
+      <c r="D46" s="179"/>
+      <c r="E46" s="179"/>
+      <c r="F46" s="179"/>
+      <c r="G46" s="179"/>
+      <c r="H46" s="180"/>
     </row>
     <row r="47" spans="1:8" ht="30" customHeight="1">
-      <c r="A47" s="169" t="s">
+      <c r="A47" s="173" t="s">
         <v>90</v>
       </c>
-      <c r="B47" s="170"/>
-      <c r="C47" s="170"/>
-      <c r="D47" s="170"/>
-      <c r="E47" s="170"/>
-      <c r="F47" s="170"/>
-      <c r="G47" s="170"/>
-      <c r="H47" s="171"/>
+      <c r="B47" s="174"/>
+      <c r="C47" s="174"/>
+      <c r="D47" s="174"/>
+      <c r="E47" s="174"/>
+      <c r="F47" s="174"/>
+      <c r="G47" s="174"/>
+      <c r="H47" s="175"/>
     </row>
     <row r="48" spans="1:8" ht="30" customHeight="1">
       <c r="A48" s="3"/>
@@ -5126,79 +5175,79 @@
     </row>
     <row r="57" spans="1:8" ht="51" customHeight="1"/>
     <row r="58" spans="1:8">
-      <c r="A58" s="172" t="s">
+      <c r="A58" s="169" t="s">
         <v>83</v>
       </c>
-      <c r="B58" s="172" t="s">
+      <c r="B58" s="169" t="s">
         <v>84</v>
       </c>
-      <c r="C58" s="174" t="s">
+      <c r="C58" s="176" t="s">
         <v>213</v>
       </c>
-      <c r="D58" s="172" t="s">
+      <c r="D58" s="169" t="s">
         <v>86</v>
       </c>
-      <c r="E58" s="176" t="s">
+      <c r="E58" s="171" t="s">
         <v>87</v>
       </c>
-      <c r="F58" s="178" t="s">
+      <c r="F58" s="167" t="s">
         <v>9</v>
       </c>
-      <c r="G58" s="178" t="s">
+      <c r="G58" s="167" t="s">
         <v>88</v>
       </c>
-      <c r="H58" s="178" t="s">
+      <c r="H58" s="167" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="59" spans="1:8" ht="31.5" customHeight="1">
-      <c r="A59" s="173"/>
-      <c r="B59" s="173"/>
-      <c r="C59" s="175"/>
-      <c r="D59" s="173"/>
-      <c r="E59" s="177"/>
-      <c r="F59" s="179"/>
-      <c r="G59" s="179"/>
-      <c r="H59" s="179"/>
+      <c r="A59" s="170"/>
+      <c r="B59" s="170"/>
+      <c r="C59" s="177"/>
+      <c r="D59" s="170"/>
+      <c r="E59" s="172"/>
+      <c r="F59" s="168"/>
+      <c r="G59" s="168"/>
+      <c r="H59" s="168"/>
     </row>
     <row r="60" spans="1:8" ht="33" customHeight="1">
-      <c r="A60" s="166" t="s">
+      <c r="A60" s="178" t="s">
         <v>89</v>
       </c>
-      <c r="B60" s="167"/>
-      <c r="C60" s="167"/>
-      <c r="D60" s="167"/>
-      <c r="E60" s="167"/>
-      <c r="F60" s="167"/>
-      <c r="G60" s="167"/>
-      <c r="H60" s="168"/>
+      <c r="B60" s="179"/>
+      <c r="C60" s="179"/>
+      <c r="D60" s="179"/>
+      <c r="E60" s="179"/>
+      <c r="F60" s="179"/>
+      <c r="G60" s="179"/>
+      <c r="H60" s="180"/>
     </row>
     <row r="61" spans="1:8" ht="33" customHeight="1">
-      <c r="A61" s="169" t="s">
+      <c r="A61" s="173" t="s">
         <v>90</v>
       </c>
-      <c r="B61" s="170"/>
-      <c r="C61" s="170"/>
-      <c r="D61" s="170"/>
-      <c r="E61" s="170"/>
-      <c r="F61" s="170"/>
-      <c r="G61" s="170"/>
-      <c r="H61" s="171"/>
+      <c r="B61" s="174"/>
+      <c r="C61" s="174"/>
+      <c r="D61" s="174"/>
+      <c r="E61" s="174"/>
+      <c r="F61" s="174"/>
+      <c r="G61" s="174"/>
+      <c r="H61" s="175"/>
     </row>
     <row r="62" spans="1:8" ht="33" customHeight="1">
       <c r="A62" s="3"/>
       <c r="B62" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="C62" s="182" t="s">
+      <c r="C62" s="102" t="s">
         <v>221</v>
       </c>
-      <c r="D62" s="181" t="s">
+      <c r="D62" s="101" t="s">
         <v>218</v>
       </c>
       <c r="E62" s="8"/>
-      <c r="F62" s="7" t="s">
-        <v>210</v>
+      <c r="F62" s="183" t="s">
+        <v>222</v>
       </c>
       <c r="G62" s="7"/>
       <c r="H62" s="8"/>
@@ -5208,10 +5257,10 @@
       <c r="B63" s="4" t="s">
         <v>92</v>
       </c>
-      <c r="C63" s="182" t="s">
+      <c r="C63" s="102" t="s">
         <v>220</v>
       </c>
-      <c r="D63" s="181" t="s">
+      <c r="D63" s="101" t="s">
         <v>219</v>
       </c>
       <c r="E63" s="8"/>
@@ -5308,25 +5357,18 @@
     <row r="71" spans="1:8" ht="66" customHeight="1"/>
   </sheetData>
   <mergeCells count="51">
-    <mergeCell ref="H30:H31"/>
-    <mergeCell ref="H44:H45"/>
-    <mergeCell ref="H58:H59"/>
-    <mergeCell ref="F30:F31"/>
-    <mergeCell ref="F44:F45"/>
-    <mergeCell ref="F58:F59"/>
-    <mergeCell ref="G2:G3"/>
-    <mergeCell ref="G16:G17"/>
-    <mergeCell ref="G30:G31"/>
-    <mergeCell ref="G44:G45"/>
-    <mergeCell ref="G58:G59"/>
-    <mergeCell ref="D30:D31"/>
-    <mergeCell ref="D44:D45"/>
-    <mergeCell ref="D58:D59"/>
-    <mergeCell ref="E2:E3"/>
-    <mergeCell ref="E16:E17"/>
-    <mergeCell ref="E30:E31"/>
-    <mergeCell ref="E44:E45"/>
-    <mergeCell ref="E58:E59"/>
+    <mergeCell ref="A60:H60"/>
+    <mergeCell ref="B1:H1"/>
+    <mergeCell ref="A4:H4"/>
+    <mergeCell ref="A5:H5"/>
+    <mergeCell ref="A18:H18"/>
+    <mergeCell ref="A19:H19"/>
+    <mergeCell ref="D2:D3"/>
+    <mergeCell ref="D16:D17"/>
+    <mergeCell ref="F2:F3"/>
+    <mergeCell ref="F16:F17"/>
+    <mergeCell ref="H2:H3"/>
+    <mergeCell ref="H16:H17"/>
     <mergeCell ref="A61:H61"/>
     <mergeCell ref="A2:A3"/>
     <mergeCell ref="A16:A17"/>
@@ -5343,22 +5385,29 @@
     <mergeCell ref="C30:C31"/>
     <mergeCell ref="C44:C45"/>
     <mergeCell ref="C58:C59"/>
+    <mergeCell ref="D30:D31"/>
+    <mergeCell ref="D44:D45"/>
+    <mergeCell ref="D58:D59"/>
+    <mergeCell ref="E2:E3"/>
+    <mergeCell ref="E16:E17"/>
+    <mergeCell ref="E30:E31"/>
+    <mergeCell ref="E44:E45"/>
+    <mergeCell ref="E58:E59"/>
     <mergeCell ref="A32:H32"/>
     <mergeCell ref="A33:H33"/>
     <mergeCell ref="A46:H46"/>
     <mergeCell ref="A47:H47"/>
-    <mergeCell ref="A60:H60"/>
-    <mergeCell ref="B1:H1"/>
-    <mergeCell ref="A4:H4"/>
-    <mergeCell ref="A5:H5"/>
-    <mergeCell ref="A18:H18"/>
-    <mergeCell ref="A19:H19"/>
-    <mergeCell ref="D2:D3"/>
-    <mergeCell ref="D16:D17"/>
-    <mergeCell ref="F2:F3"/>
-    <mergeCell ref="F16:F17"/>
-    <mergeCell ref="H2:H3"/>
-    <mergeCell ref="H16:H17"/>
+    <mergeCell ref="G2:G3"/>
+    <mergeCell ref="G16:G17"/>
+    <mergeCell ref="G30:G31"/>
+    <mergeCell ref="G44:G45"/>
+    <mergeCell ref="G58:G59"/>
+    <mergeCell ref="H30:H31"/>
+    <mergeCell ref="H44:H45"/>
+    <mergeCell ref="H58:H59"/>
+    <mergeCell ref="F30:F31"/>
+    <mergeCell ref="F44:F45"/>
+    <mergeCell ref="F58:F59"/>
   </mergeCells>
   <phoneticPr fontId="22" type="noConversion"/>
   <dataValidations count="1">
@@ -5402,43 +5451,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:10" ht="14.25" customHeight="1">
-      <c r="B1" s="149" t="s">
+      <c r="B1" s="161" t="s">
         <v>47</v>
       </c>
-      <c r="C1" s="149"/>
-      <c r="D1" s="149"/>
-      <c r="E1" s="149"/>
-      <c r="F1" s="149"/>
-      <c r="G1" s="149"/>
-      <c r="H1" s="149"/>
-      <c r="I1" s="149"/>
-      <c r="J1" s="149"/>
+      <c r="C1" s="161"/>
+      <c r="D1" s="161"/>
+      <c r="E1" s="161"/>
+      <c r="F1" s="161"/>
+      <c r="G1" s="161"/>
+      <c r="H1" s="161"/>
+      <c r="I1" s="161"/>
+      <c r="J1" s="161"/>
     </row>
     <row r="2" spans="2:10" ht="49.5" customHeight="1">
-      <c r="B2" s="150" t="s">
+      <c r="B2" s="162" t="s">
         <v>181</v>
       </c>
-      <c r="C2" s="151"/>
-      <c r="D2" s="151"/>
-      <c r="E2" s="151"/>
-      <c r="F2" s="151"/>
-      <c r="G2" s="151"/>
-      <c r="H2" s="151"/>
-      <c r="I2" s="151"/>
-      <c r="J2" s="151"/>
+      <c r="C2" s="163"/>
+      <c r="D2" s="163"/>
+      <c r="E2" s="163"/>
+      <c r="F2" s="163"/>
+      <c r="G2" s="163"/>
+      <c r="H2" s="163"/>
+      <c r="I2" s="163"/>
+      <c r="J2" s="163"/>
     </row>
     <row r="3" spans="2:10" ht="30.75" customHeight="1">
-      <c r="B3" s="152" t="s">
+      <c r="B3" s="164" t="s">
         <v>49</v>
       </c>
-      <c r="C3" s="153"/>
-      <c r="D3" s="153"/>
-      <c r="E3" s="153"/>
-      <c r="F3" s="153"/>
-      <c r="G3" s="153"/>
-      <c r="H3" s="153"/>
-      <c r="I3" s="153"/>
-      <c r="J3" s="153"/>
+      <c r="C3" s="165"/>
+      <c r="D3" s="165"/>
+      <c r="E3" s="165"/>
+      <c r="F3" s="165"/>
+      <c r="G3" s="165"/>
+      <c r="H3" s="165"/>
+      <c r="I3" s="165"/>
+      <c r="J3" s="165"/>
     </row>
     <row r="4" spans="2:10" ht="36.75" customHeight="1">
       <c r="B4" s="16" t="s">
@@ -5470,10 +5519,10 @@
       </c>
     </row>
     <row r="5" spans="2:10" ht="28.5" customHeight="1">
-      <c r="B5" s="160" t="s">
+      <c r="B5" s="155" t="s">
         <v>56</v>
       </c>
-      <c r="C5" s="162" t="s">
+      <c r="C5" s="157" t="s">
         <v>57</v>
       </c>
       <c r="D5" s="19">
@@ -5487,8 +5536,8 @@
       <c r="J5" s="6"/>
     </row>
     <row r="6" spans="2:10" ht="28.5" customHeight="1">
-      <c r="B6" s="161"/>
-      <c r="C6" s="163"/>
+      <c r="B6" s="156"/>
+      <c r="C6" s="158"/>
       <c r="D6" s="19">
         <v>2</v>
       </c>
@@ -5500,8 +5549,8 @@
       <c r="J6" s="6"/>
     </row>
     <row r="7" spans="2:10" ht="28.5" customHeight="1">
-      <c r="B7" s="161"/>
-      <c r="C7" s="163"/>
+      <c r="B7" s="156"/>
+      <c r="C7" s="158"/>
       <c r="D7" s="19">
         <v>3</v>
       </c>
@@ -5513,8 +5562,8 @@
       <c r="J7" s="6"/>
     </row>
     <row r="8" spans="2:10" ht="28.5" customHeight="1">
-      <c r="B8" s="161"/>
-      <c r="C8" s="163"/>
+      <c r="B8" s="156"/>
+      <c r="C8" s="158"/>
       <c r="D8" s="19">
         <v>4</v>
       </c>
@@ -5526,8 +5575,8 @@
       <c r="J8" s="6"/>
     </row>
     <row r="9" spans="2:10" ht="28.5" customHeight="1">
-      <c r="B9" s="161"/>
-      <c r="C9" s="163"/>
+      <c r="B9" s="156"/>
+      <c r="C9" s="158"/>
       <c r="D9" s="19">
         <v>5</v>
       </c>
@@ -5539,8 +5588,8 @@
       <c r="J9" s="6"/>
     </row>
     <row r="10" spans="2:10" ht="28.5" customHeight="1">
-      <c r="B10" s="161"/>
-      <c r="C10" s="163"/>
+      <c r="B10" s="156"/>
+      <c r="C10" s="158"/>
       <c r="D10" s="19">
         <v>6</v>
       </c>
@@ -5552,8 +5601,8 @@
       <c r="J10" s="6"/>
     </row>
     <row r="11" spans="2:10" ht="28.5" customHeight="1">
-      <c r="B11" s="161"/>
-      <c r="C11" s="163"/>
+      <c r="B11" s="156"/>
+      <c r="C11" s="158"/>
       <c r="D11" s="19">
         <v>7</v>
       </c>
@@ -5565,8 +5614,8 @@
       <c r="J11" s="6"/>
     </row>
     <row r="12" spans="2:10" ht="28.5" customHeight="1">
-      <c r="B12" s="161"/>
-      <c r="C12" s="163"/>
+      <c r="B12" s="156"/>
+      <c r="C12" s="158"/>
       <c r="D12" s="19">
         <v>8</v>
       </c>
@@ -5578,8 +5627,8 @@
       <c r="J12" s="6"/>
     </row>
     <row r="13" spans="2:10" ht="28.5" customHeight="1">
-      <c r="B13" s="161"/>
-      <c r="C13" s="164"/>
+      <c r="B13" s="156"/>
+      <c r="C13" s="159"/>
       <c r="D13" s="19">
         <v>9</v>
       </c>
@@ -5591,8 +5640,8 @@
       <c r="J13" s="23"/>
     </row>
     <row r="14" spans="2:10" ht="28.5" customHeight="1">
-      <c r="B14" s="161"/>
-      <c r="C14" s="162" t="s">
+      <c r="B14" s="156"/>
+      <c r="C14" s="157" t="s">
         <v>66</v>
       </c>
       <c r="D14" s="19">
@@ -5606,8 +5655,8 @@
       <c r="J14" s="6"/>
     </row>
     <row r="15" spans="2:10" ht="28.5" customHeight="1">
-      <c r="B15" s="161"/>
-      <c r="C15" s="163"/>
+      <c r="B15" s="156"/>
+      <c r="C15" s="158"/>
       <c r="D15" s="19">
         <v>2</v>
       </c>
@@ -5619,8 +5668,8 @@
       <c r="J15" s="6"/>
     </row>
     <row r="16" spans="2:10" ht="28.5" customHeight="1">
-      <c r="B16" s="161"/>
-      <c r="C16" s="163"/>
+      <c r="B16" s="156"/>
+      <c r="C16" s="158"/>
       <c r="D16" s="19">
         <v>3</v>
       </c>
@@ -5632,8 +5681,8 @@
       <c r="J16" s="6"/>
     </row>
     <row r="17" spans="2:10" ht="28.5" customHeight="1">
-      <c r="B17" s="161"/>
-      <c r="C17" s="163"/>
+      <c r="B17" s="156"/>
+      <c r="C17" s="158"/>
       <c r="D17" s="19">
         <v>4</v>
       </c>
@@ -5645,8 +5694,8 @@
       <c r="J17" s="6"/>
     </row>
     <row r="18" spans="2:10" ht="28.5" customHeight="1">
-      <c r="B18" s="161"/>
-      <c r="C18" s="163"/>
+      <c r="B18" s="156"/>
+      <c r="C18" s="158"/>
       <c r="D18" s="19">
         <v>5</v>
       </c>
@@ -5658,8 +5707,8 @@
       <c r="J18" s="6"/>
     </row>
     <row r="19" spans="2:10" ht="28.5" customHeight="1">
-      <c r="B19" s="161"/>
-      <c r="C19" s="164"/>
+      <c r="B19" s="156"/>
+      <c r="C19" s="159"/>
       <c r="D19" s="19">
         <v>6</v>
       </c>
@@ -5671,8 +5720,8 @@
       <c r="J19" s="6"/>
     </row>
     <row r="20" spans="2:10" ht="28.5" customHeight="1">
-      <c r="B20" s="161"/>
-      <c r="C20" s="162" t="s">
+      <c r="B20" s="156"/>
+      <c r="C20" s="157" t="s">
         <v>73</v>
       </c>
       <c r="D20" s="19">
@@ -5686,8 +5735,8 @@
       <c r="J20" s="6"/>
     </row>
     <row r="21" spans="2:10" ht="28.5" customHeight="1">
-      <c r="B21" s="161"/>
-      <c r="C21" s="163"/>
+      <c r="B21" s="156"/>
+      <c r="C21" s="158"/>
       <c r="D21" s="19">
         <v>2</v>
       </c>
@@ -5699,8 +5748,8 @@
       <c r="J21" s="6"/>
     </row>
     <row r="22" spans="2:10" ht="28.5" customHeight="1">
-      <c r="B22" s="161"/>
-      <c r="C22" s="163"/>
+      <c r="B22" s="156"/>
+      <c r="C22" s="158"/>
       <c r="D22" s="19">
         <v>3</v>
       </c>
@@ -5712,8 +5761,8 @@
       <c r="J22" s="6"/>
     </row>
     <row r="23" spans="2:10" ht="28.5" customHeight="1">
-      <c r="B23" s="161"/>
-      <c r="C23" s="163"/>
+      <c r="B23" s="156"/>
+      <c r="C23" s="158"/>
       <c r="D23" s="19">
         <v>4</v>
       </c>
@@ -5725,8 +5774,8 @@
       <c r="J23" s="6"/>
     </row>
     <row r="24" spans="2:10" ht="28.5" customHeight="1">
-      <c r="B24" s="161"/>
-      <c r="C24" s="163"/>
+      <c r="B24" s="156"/>
+      <c r="C24" s="158"/>
       <c r="D24" s="19">
         <v>5</v>
       </c>
@@ -5739,7 +5788,7 @@
     </row>
     <row r="25" spans="2:10" ht="28.5" customHeight="1">
       <c r="B25" s="20"/>
-      <c r="C25" s="164"/>
+      <c r="C25" s="159"/>
       <c r="D25" s="19">
         <v>6</v>
       </c>
@@ -5752,118 +5801,123 @@
     </row>
     <row r="26" spans="2:10" ht="8.25" customHeight="1"/>
     <row r="27" spans="2:10" ht="36.75" customHeight="1">
-      <c r="B27" s="154" t="s">
+      <c r="B27" s="166" t="s">
         <v>74</v>
       </c>
-      <c r="C27" s="154"/>
-      <c r="D27" s="154"/>
-      <c r="E27" s="154"/>
-      <c r="F27" s="154"/>
-      <c r="G27" s="154"/>
-      <c r="H27" s="154"/>
-      <c r="I27" s="154"/>
-      <c r="J27" s="154"/>
+      <c r="C27" s="166"/>
+      <c r="D27" s="166"/>
+      <c r="E27" s="166"/>
+      <c r="F27" s="166"/>
+      <c r="G27" s="166"/>
+      <c r="H27" s="166"/>
+      <c r="I27" s="166"/>
+      <c r="J27" s="166"/>
     </row>
     <row r="28" spans="2:10" ht="26.25" customHeight="1">
-      <c r="B28" s="155" t="s">
+      <c r="B28" s="151" t="s">
         <v>75</v>
       </c>
-      <c r="C28" s="155"/>
-      <c r="D28" s="155"/>
-      <c r="E28" s="155"/>
-      <c r="F28" s="155"/>
-      <c r="G28" s="155"/>
-      <c r="H28" s="155"/>
-      <c r="I28" s="155"/>
-      <c r="J28" s="155"/>
+      <c r="C28" s="151"/>
+      <c r="D28" s="151"/>
+      <c r="E28" s="151"/>
+      <c r="F28" s="151"/>
+      <c r="G28" s="151"/>
+      <c r="H28" s="151"/>
+      <c r="I28" s="151"/>
+      <c r="J28" s="151"/>
     </row>
     <row r="29" spans="2:10" ht="50.25" customHeight="1">
-      <c r="B29" s="156"/>
-      <c r="C29" s="156"/>
-      <c r="D29" s="156"/>
-      <c r="E29" s="156"/>
-      <c r="F29" s="156"/>
-      <c r="G29" s="156"/>
-      <c r="H29" s="156"/>
-      <c r="I29" s="156"/>
-      <c r="J29" s="156"/>
+      <c r="B29" s="160"/>
+      <c r="C29" s="160"/>
+      <c r="D29" s="160"/>
+      <c r="E29" s="160"/>
+      <c r="F29" s="160"/>
+      <c r="G29" s="160"/>
+      <c r="H29" s="160"/>
+      <c r="I29" s="160"/>
+      <c r="J29" s="160"/>
     </row>
     <row r="30" spans="2:10" ht="27" customHeight="1">
-      <c r="B30" s="155" t="s">
+      <c r="B30" s="151" t="s">
         <v>77</v>
       </c>
-      <c r="C30" s="155"/>
-      <c r="D30" s="155"/>
-      <c r="E30" s="155"/>
-      <c r="F30" s="155"/>
-      <c r="G30" s="155"/>
-      <c r="H30" s="155"/>
-      <c r="I30" s="155"/>
-      <c r="J30" s="155"/>
+      <c r="C30" s="151"/>
+      <c r="D30" s="151"/>
+      <c r="E30" s="151"/>
+      <c r="F30" s="151"/>
+      <c r="G30" s="151"/>
+      <c r="H30" s="151"/>
+      <c r="I30" s="151"/>
+      <c r="J30" s="151"/>
     </row>
     <row r="31" spans="2:10" ht="51.75" customHeight="1">
-      <c r="B31" s="156" t="s">
+      <c r="B31" s="160" t="s">
         <v>154</v>
       </c>
-      <c r="C31" s="156"/>
-      <c r="D31" s="156"/>
-      <c r="E31" s="156"/>
-      <c r="F31" s="156"/>
-      <c r="G31" s="156"/>
-      <c r="H31" s="156"/>
-      <c r="I31" s="156"/>
-      <c r="J31" s="156"/>
+      <c r="C31" s="160"/>
+      <c r="D31" s="160"/>
+      <c r="E31" s="160"/>
+      <c r="F31" s="160"/>
+      <c r="G31" s="160"/>
+      <c r="H31" s="160"/>
+      <c r="I31" s="160"/>
+      <c r="J31" s="160"/>
     </row>
     <row r="32" spans="2:10" ht="27" customHeight="1">
-      <c r="B32" s="155" t="s">
+      <c r="B32" s="151" t="s">
         <v>79</v>
       </c>
-      <c r="C32" s="155"/>
-      <c r="D32" s="155"/>
-      <c r="E32" s="155"/>
-      <c r="F32" s="155"/>
-      <c r="G32" s="155"/>
-      <c r="H32" s="155"/>
-      <c r="I32" s="155"/>
-      <c r="J32" s="155"/>
+      <c r="C32" s="151"/>
+      <c r="D32" s="151"/>
+      <c r="E32" s="151"/>
+      <c r="F32" s="151"/>
+      <c r="G32" s="151"/>
+      <c r="H32" s="151"/>
+      <c r="I32" s="151"/>
+      <c r="J32" s="151"/>
     </row>
     <row r="33" spans="2:10" ht="43.5" customHeight="1">
-      <c r="B33" s="180"/>
-      <c r="C33" s="180"/>
-      <c r="D33" s="180"/>
-      <c r="E33" s="180"/>
-      <c r="F33" s="180"/>
-      <c r="G33" s="180"/>
-      <c r="H33" s="180"/>
-      <c r="I33" s="180"/>
-      <c r="J33" s="180"/>
+      <c r="B33" s="182"/>
+      <c r="C33" s="182"/>
+      <c r="D33" s="182"/>
+      <c r="E33" s="182"/>
+      <c r="F33" s="182"/>
+      <c r="G33" s="182"/>
+      <c r="H33" s="182"/>
+      <c r="I33" s="182"/>
+      <c r="J33" s="182"/>
     </row>
     <row r="34" spans="2:10" ht="26.25" customHeight="1">
-      <c r="B34" s="155" t="s">
+      <c r="B34" s="151" t="s">
         <v>81</v>
       </c>
-      <c r="C34" s="155"/>
-      <c r="D34" s="155"/>
-      <c r="E34" s="155"/>
-      <c r="F34" s="155"/>
-      <c r="G34" s="155"/>
-      <c r="H34" s="155"/>
-      <c r="I34" s="155"/>
-      <c r="J34" s="155"/>
+      <c r="C34" s="151"/>
+      <c r="D34" s="151"/>
+      <c r="E34" s="151"/>
+      <c r="F34" s="151"/>
+      <c r="G34" s="151"/>
+      <c r="H34" s="151"/>
+      <c r="I34" s="151"/>
+      <c r="J34" s="151"/>
     </row>
     <row r="35" spans="2:10" ht="57.75" customHeight="1">
-      <c r="B35" s="180"/>
-      <c r="C35" s="180"/>
-      <c r="D35" s="180"/>
-      <c r="E35" s="180"/>
-      <c r="F35" s="180"/>
-      <c r="G35" s="180"/>
-      <c r="H35" s="180"/>
-      <c r="I35" s="180"/>
-      <c r="J35" s="180"/>
+      <c r="B35" s="182"/>
+      <c r="C35" s="182"/>
+      <c r="D35" s="182"/>
+      <c r="E35" s="182"/>
+      <c r="F35" s="182"/>
+      <c r="G35" s="182"/>
+      <c r="H35" s="182"/>
+      <c r="I35" s="182"/>
+      <c r="J35" s="182"/>
     </row>
   </sheetData>
   <mergeCells count="16">
+    <mergeCell ref="B1:J1"/>
+    <mergeCell ref="B2:J2"/>
+    <mergeCell ref="B3:J3"/>
+    <mergeCell ref="B27:J27"/>
+    <mergeCell ref="B28:J28"/>
     <mergeCell ref="B34:J34"/>
     <mergeCell ref="B35:J35"/>
     <mergeCell ref="B5:B24"/>
@@ -5875,11 +5929,6 @@
     <mergeCell ref="B31:J31"/>
     <mergeCell ref="B32:J32"/>
     <mergeCell ref="B33:J33"/>
-    <mergeCell ref="B1:J1"/>
-    <mergeCell ref="B2:J2"/>
-    <mergeCell ref="B3:J3"/>
-    <mergeCell ref="B27:J27"/>
-    <mergeCell ref="B28:J28"/>
   </mergeCells>
   <phoneticPr fontId="22" type="noConversion"/>
   <dataValidations count="1">
@@ -5900,9 +5949,9 @@
   </sheetPr>
   <dimension ref="A1:H56"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C62" sqref="C62"/>
+      <selection pane="bottomLeft" activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -5920,83 +5969,89 @@
   <sheetData>
     <row r="1" spans="1:8" ht="24" customHeight="1">
       <c r="A1" s="2"/>
-      <c r="B1" s="165"/>
-      <c r="C1" s="165"/>
-      <c r="D1" s="165"/>
-      <c r="E1" s="165"/>
-      <c r="F1" s="165"/>
-      <c r="G1" s="165"/>
-      <c r="H1" s="165"/>
+      <c r="B1" s="181"/>
+      <c r="C1" s="181"/>
+      <c r="D1" s="181"/>
+      <c r="E1" s="181"/>
+      <c r="F1" s="181"/>
+      <c r="G1" s="181"/>
+      <c r="H1" s="181"/>
     </row>
     <row r="2" spans="1:8" ht="27.75" customHeight="1">
-      <c r="A2" s="172" t="s">
+      <c r="A2" s="169" t="s">
         <v>83</v>
       </c>
-      <c r="B2" s="172" t="s">
+      <c r="B2" s="169" t="s">
         <v>84</v>
       </c>
-      <c r="C2" s="174" t="s">
+      <c r="C2" s="176" t="s">
         <v>214</v>
       </c>
-      <c r="D2" s="172" t="s">
+      <c r="D2" s="169" t="s">
         <v>86</v>
       </c>
-      <c r="E2" s="176" t="s">
+      <c r="E2" s="171" t="s">
         <v>87</v>
       </c>
-      <c r="F2" s="178" t="s">
+      <c r="F2" s="167" t="s">
         <v>9</v>
       </c>
-      <c r="G2" s="178" t="s">
+      <c r="G2" s="167" t="s">
         <v>88</v>
       </c>
-      <c r="H2" s="178" t="s">
+      <c r="H2" s="167" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="27" customHeight="1">
-      <c r="A3" s="173"/>
-      <c r="B3" s="173"/>
-      <c r="C3" s="175"/>
-      <c r="D3" s="173"/>
-      <c r="E3" s="177"/>
-      <c r="F3" s="179"/>
-      <c r="G3" s="179"/>
-      <c r="H3" s="179"/>
+      <c r="A3" s="170"/>
+      <c r="B3" s="170"/>
+      <c r="C3" s="177"/>
+      <c r="D3" s="170"/>
+      <c r="E3" s="172"/>
+      <c r="F3" s="168"/>
+      <c r="G3" s="168"/>
+      <c r="H3" s="168"/>
     </row>
     <row r="4" spans="1:8" ht="24.75" customHeight="1">
-      <c r="A4" s="166" t="s">
+      <c r="A4" s="178" t="s">
         <v>89</v>
       </c>
-      <c r="B4" s="167"/>
-      <c r="C4" s="167"/>
-      <c r="D4" s="167"/>
-      <c r="E4" s="167"/>
-      <c r="F4" s="167"/>
-      <c r="G4" s="167"/>
-      <c r="H4" s="168"/>
+      <c r="B4" s="179"/>
+      <c r="C4" s="179"/>
+      <c r="D4" s="179"/>
+      <c r="E4" s="179"/>
+      <c r="F4" s="179"/>
+      <c r="G4" s="179"/>
+      <c r="H4" s="180"/>
     </row>
     <row r="5" spans="1:8" ht="30" customHeight="1">
-      <c r="A5" s="169" t="s">
+      <c r="A5" s="173" t="s">
         <v>90</v>
       </c>
-      <c r="B5" s="170"/>
-      <c r="C5" s="170"/>
-      <c r="D5" s="170"/>
-      <c r="E5" s="170"/>
-      <c r="F5" s="170"/>
-      <c r="G5" s="170"/>
-      <c r="H5" s="171"/>
+      <c r="B5" s="174"/>
+      <c r="C5" s="174"/>
+      <c r="D5" s="174"/>
+      <c r="E5" s="174"/>
+      <c r="F5" s="174"/>
+      <c r="G5" s="174"/>
+      <c r="H5" s="175"/>
     </row>
     <row r="6" spans="1:8" ht="30" customHeight="1">
       <c r="A6" s="3"/>
       <c r="B6" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="C6" s="5"/>
-      <c r="D6" s="6"/>
-      <c r="E6" s="7"/>
-      <c r="F6" s="7"/>
+      <c r="C6" s="102" t="s">
+        <v>223</v>
+      </c>
+      <c r="D6" s="101" t="s">
+        <v>225</v>
+      </c>
+      <c r="E6" s="8"/>
+      <c r="F6" s="183" t="s">
+        <v>222</v>
+      </c>
       <c r="G6" s="7"/>
       <c r="H6" s="8"/>
     </row>
@@ -6005,10 +6060,16 @@
       <c r="B7" s="4" t="s">
         <v>92</v>
       </c>
-      <c r="C7" s="5"/>
-      <c r="D7" s="6"/>
+      <c r="C7" s="102" t="s">
+        <v>224</v>
+      </c>
+      <c r="D7" s="101" t="s">
+        <v>226</v>
+      </c>
       <c r="E7" s="8"/>
-      <c r="F7" s="8"/>
+      <c r="F7" s="183" t="s">
+        <v>222</v>
+      </c>
       <c r="G7" s="8"/>
       <c r="H7" s="8"/>
     </row>
@@ -6104,64 +6165,64 @@
       <c r="G15" s="12"/>
     </row>
     <row r="16" spans="1:8" ht="27.75" customHeight="1">
-      <c r="A16" s="172" t="s">
+      <c r="A16" s="169" t="s">
         <v>83</v>
       </c>
-      <c r="B16" s="172" t="s">
+      <c r="B16" s="169" t="s">
         <v>84</v>
       </c>
-      <c r="C16" s="174" t="s">
+      <c r="C16" s="176" t="s">
         <v>215</v>
       </c>
-      <c r="D16" s="172" t="s">
+      <c r="D16" s="169" t="s">
         <v>86</v>
       </c>
-      <c r="E16" s="176" t="s">
+      <c r="E16" s="171" t="s">
         <v>87</v>
       </c>
-      <c r="F16" s="178" t="s">
+      <c r="F16" s="167" t="s">
         <v>9</v>
       </c>
-      <c r="G16" s="178" t="s">
+      <c r="G16" s="167" t="s">
         <v>88</v>
       </c>
-      <c r="H16" s="178" t="s">
+      <c r="H16" s="167" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="17" spans="1:8" ht="27" customHeight="1">
-      <c r="A17" s="173"/>
-      <c r="B17" s="173"/>
-      <c r="C17" s="175"/>
-      <c r="D17" s="173"/>
-      <c r="E17" s="177"/>
-      <c r="F17" s="179"/>
-      <c r="G17" s="179"/>
-      <c r="H17" s="179"/>
+      <c r="A17" s="170"/>
+      <c r="B17" s="170"/>
+      <c r="C17" s="177"/>
+      <c r="D17" s="170"/>
+      <c r="E17" s="172"/>
+      <c r="F17" s="168"/>
+      <c r="G17" s="168"/>
+      <c r="H17" s="168"/>
     </row>
     <row r="18" spans="1:8" ht="24.75" customHeight="1">
-      <c r="A18" s="166" t="s">
+      <c r="A18" s="178" t="s">
         <v>89</v>
       </c>
-      <c r="B18" s="167"/>
-      <c r="C18" s="167"/>
-      <c r="D18" s="167"/>
-      <c r="E18" s="167"/>
-      <c r="F18" s="167"/>
-      <c r="G18" s="167"/>
-      <c r="H18" s="168"/>
+      <c r="B18" s="179"/>
+      <c r="C18" s="179"/>
+      <c r="D18" s="179"/>
+      <c r="E18" s="179"/>
+      <c r="F18" s="179"/>
+      <c r="G18" s="179"/>
+      <c r="H18" s="180"/>
     </row>
     <row r="19" spans="1:8" ht="30" customHeight="1">
-      <c r="A19" s="169" t="s">
+      <c r="A19" s="173" t="s">
         <v>90</v>
       </c>
-      <c r="B19" s="170"/>
-      <c r="C19" s="170"/>
-      <c r="D19" s="170"/>
-      <c r="E19" s="170"/>
-      <c r="F19" s="170"/>
-      <c r="G19" s="170"/>
-      <c r="H19" s="171"/>
+      <c r="B19" s="174"/>
+      <c r="C19" s="174"/>
+      <c r="D19" s="174"/>
+      <c r="E19" s="174"/>
+      <c r="F19" s="174"/>
+      <c r="G19" s="174"/>
+      <c r="H19" s="175"/>
     </row>
     <row r="20" spans="1:8" ht="30" customHeight="1">
       <c r="A20" s="3"/>
@@ -6279,64 +6340,64 @@
       <c r="G29" s="12"/>
     </row>
     <row r="30" spans="1:8" ht="27.75" customHeight="1">
-      <c r="A30" s="172" t="s">
+      <c r="A30" s="169" t="s">
         <v>83</v>
       </c>
-      <c r="B30" s="172" t="s">
+      <c r="B30" s="169" t="s">
         <v>84</v>
       </c>
-      <c r="C30" s="174" t="s">
+      <c r="C30" s="176" t="s">
         <v>216</v>
       </c>
-      <c r="D30" s="172" t="s">
+      <c r="D30" s="169" t="s">
         <v>86</v>
       </c>
-      <c r="E30" s="176" t="s">
+      <c r="E30" s="171" t="s">
         <v>87</v>
       </c>
-      <c r="F30" s="178" t="s">
+      <c r="F30" s="167" t="s">
         <v>9</v>
       </c>
-      <c r="G30" s="178" t="s">
+      <c r="G30" s="167" t="s">
         <v>88</v>
       </c>
-      <c r="H30" s="178" t="s">
+      <c r="H30" s="167" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="31" spans="1:8" ht="27" customHeight="1">
-      <c r="A31" s="173"/>
-      <c r="B31" s="173"/>
-      <c r="C31" s="175"/>
-      <c r="D31" s="173"/>
-      <c r="E31" s="177"/>
-      <c r="F31" s="179"/>
-      <c r="G31" s="179"/>
-      <c r="H31" s="179"/>
+      <c r="A31" s="170"/>
+      <c r="B31" s="170"/>
+      <c r="C31" s="177"/>
+      <c r="D31" s="170"/>
+      <c r="E31" s="172"/>
+      <c r="F31" s="168"/>
+      <c r="G31" s="168"/>
+      <c r="H31" s="168"/>
     </row>
     <row r="32" spans="1:8" ht="24.75" customHeight="1">
-      <c r="A32" s="166" t="s">
+      <c r="A32" s="178" t="s">
         <v>89</v>
       </c>
-      <c r="B32" s="167"/>
-      <c r="C32" s="167"/>
-      <c r="D32" s="167"/>
-      <c r="E32" s="167"/>
-      <c r="F32" s="167"/>
-      <c r="G32" s="167"/>
-      <c r="H32" s="168"/>
+      <c r="B32" s="179"/>
+      <c r="C32" s="179"/>
+      <c r="D32" s="179"/>
+      <c r="E32" s="179"/>
+      <c r="F32" s="179"/>
+      <c r="G32" s="179"/>
+      <c r="H32" s="180"/>
     </row>
     <row r="33" spans="1:8" ht="30" customHeight="1">
-      <c r="A33" s="169" t="s">
+      <c r="A33" s="173" t="s">
         <v>90</v>
       </c>
-      <c r="B33" s="170"/>
-      <c r="C33" s="170"/>
-      <c r="D33" s="170"/>
-      <c r="E33" s="170"/>
-      <c r="F33" s="170"/>
-      <c r="G33" s="170"/>
-      <c r="H33" s="171"/>
+      <c r="B33" s="174"/>
+      <c r="C33" s="174"/>
+      <c r="D33" s="174"/>
+      <c r="E33" s="174"/>
+      <c r="F33" s="174"/>
+      <c r="G33" s="174"/>
+      <c r="H33" s="175"/>
     </row>
     <row r="34" spans="1:8" ht="30" customHeight="1">
       <c r="A34" s="3"/>
@@ -6454,64 +6515,64 @@
       <c r="G43" s="12"/>
     </row>
     <row r="44" spans="1:8" ht="27.75" customHeight="1">
-      <c r="A44" s="172" t="s">
+      <c r="A44" s="169" t="s">
         <v>83</v>
       </c>
-      <c r="B44" s="172" t="s">
+      <c r="B44" s="169" t="s">
         <v>84</v>
       </c>
-      <c r="C44" s="174" t="s">
+      <c r="C44" s="176" t="s">
         <v>217</v>
       </c>
-      <c r="D44" s="172" t="s">
+      <c r="D44" s="169" t="s">
         <v>86</v>
       </c>
-      <c r="E44" s="176" t="s">
+      <c r="E44" s="171" t="s">
         <v>87</v>
       </c>
-      <c r="F44" s="178" t="s">
+      <c r="F44" s="167" t="s">
         <v>9</v>
       </c>
-      <c r="G44" s="178" t="s">
+      <c r="G44" s="167" t="s">
         <v>88</v>
       </c>
-      <c r="H44" s="178" t="s">
+      <c r="H44" s="167" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="45" spans="1:8" ht="27" customHeight="1">
-      <c r="A45" s="173"/>
-      <c r="B45" s="173"/>
-      <c r="C45" s="175"/>
-      <c r="D45" s="173"/>
-      <c r="E45" s="177"/>
-      <c r="F45" s="179"/>
-      <c r="G45" s="179"/>
-      <c r="H45" s="179"/>
+      <c r="A45" s="170"/>
+      <c r="B45" s="170"/>
+      <c r="C45" s="177"/>
+      <c r="D45" s="170"/>
+      <c r="E45" s="172"/>
+      <c r="F45" s="168"/>
+      <c r="G45" s="168"/>
+      <c r="H45" s="168"/>
     </row>
     <row r="46" spans="1:8" ht="24.75" customHeight="1">
-      <c r="A46" s="166" t="s">
+      <c r="A46" s="178" t="s">
         <v>89</v>
       </c>
-      <c r="B46" s="167"/>
-      <c r="C46" s="167"/>
-      <c r="D46" s="167"/>
-      <c r="E46" s="167"/>
-      <c r="F46" s="167"/>
-      <c r="G46" s="167"/>
-      <c r="H46" s="168"/>
+      <c r="B46" s="179"/>
+      <c r="C46" s="179"/>
+      <c r="D46" s="179"/>
+      <c r="E46" s="179"/>
+      <c r="F46" s="179"/>
+      <c r="G46" s="179"/>
+      <c r="H46" s="180"/>
     </row>
     <row r="47" spans="1:8" ht="30" customHeight="1">
-      <c r="A47" s="169" t="s">
+      <c r="A47" s="173" t="s">
         <v>90</v>
       </c>
-      <c r="B47" s="170"/>
-      <c r="C47" s="170"/>
-      <c r="D47" s="170"/>
-      <c r="E47" s="170"/>
-      <c r="F47" s="170"/>
-      <c r="G47" s="170"/>
-      <c r="H47" s="171"/>
+      <c r="B47" s="174"/>
+      <c r="C47" s="174"/>
+      <c r="D47" s="174"/>
+      <c r="E47" s="174"/>
+      <c r="F47" s="174"/>
+      <c r="G47" s="174"/>
+      <c r="H47" s="175"/>
     </row>
     <row r="48" spans="1:8" ht="30" customHeight="1">
       <c r="A48" s="3"/>
@@ -6623,22 +6684,17 @@
     </row>
   </sheetData>
   <mergeCells count="41">
-    <mergeCell ref="H30:H31"/>
-    <mergeCell ref="H44:H45"/>
-    <mergeCell ref="F30:F31"/>
-    <mergeCell ref="F44:F45"/>
-    <mergeCell ref="G2:G3"/>
-    <mergeCell ref="G16:G17"/>
-    <mergeCell ref="G30:G31"/>
-    <mergeCell ref="G44:G45"/>
-    <mergeCell ref="D30:D31"/>
-    <mergeCell ref="D44:D45"/>
-    <mergeCell ref="E2:E3"/>
-    <mergeCell ref="E16:E17"/>
-    <mergeCell ref="E30:E31"/>
-    <mergeCell ref="E44:E45"/>
-    <mergeCell ref="A32:H32"/>
-    <mergeCell ref="A33:H33"/>
+    <mergeCell ref="B1:H1"/>
+    <mergeCell ref="A4:H4"/>
+    <mergeCell ref="A5:H5"/>
+    <mergeCell ref="A18:H18"/>
+    <mergeCell ref="A19:H19"/>
+    <mergeCell ref="D2:D3"/>
+    <mergeCell ref="D16:D17"/>
+    <mergeCell ref="F2:F3"/>
+    <mergeCell ref="F16:F17"/>
+    <mergeCell ref="H2:H3"/>
+    <mergeCell ref="H16:H17"/>
     <mergeCell ref="A46:H46"/>
     <mergeCell ref="A47:H47"/>
     <mergeCell ref="A2:A3"/>
@@ -6653,17 +6709,22 @@
     <mergeCell ref="C16:C17"/>
     <mergeCell ref="C30:C31"/>
     <mergeCell ref="C44:C45"/>
-    <mergeCell ref="B1:H1"/>
-    <mergeCell ref="A4:H4"/>
-    <mergeCell ref="A5:H5"/>
-    <mergeCell ref="A18:H18"/>
-    <mergeCell ref="A19:H19"/>
-    <mergeCell ref="D2:D3"/>
-    <mergeCell ref="D16:D17"/>
-    <mergeCell ref="F2:F3"/>
-    <mergeCell ref="F16:F17"/>
-    <mergeCell ref="H2:H3"/>
-    <mergeCell ref="H16:H17"/>
+    <mergeCell ref="D30:D31"/>
+    <mergeCell ref="D44:D45"/>
+    <mergeCell ref="E2:E3"/>
+    <mergeCell ref="E16:E17"/>
+    <mergeCell ref="E30:E31"/>
+    <mergeCell ref="E44:E45"/>
+    <mergeCell ref="A32:H32"/>
+    <mergeCell ref="A33:H33"/>
+    <mergeCell ref="H30:H31"/>
+    <mergeCell ref="H44:H45"/>
+    <mergeCell ref="F30:F31"/>
+    <mergeCell ref="F44:F45"/>
+    <mergeCell ref="G2:G3"/>
+    <mergeCell ref="G16:G17"/>
+    <mergeCell ref="G30:G31"/>
+    <mergeCell ref="G44:G45"/>
   </mergeCells>
   <phoneticPr fontId="22" type="noConversion"/>
   <dataValidations count="1">
@@ -6700,76 +6761,76 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:29" ht="39.950000000000003" customHeight="1">
-      <c r="B1" s="143" t="s">
+      <c r="B1" s="148" t="s">
         <v>38</v>
       </c>
-      <c r="C1" s="144"/>
-      <c r="D1" s="144"/>
-      <c r="E1" s="144"/>
-      <c r="F1" s="144"/>
-      <c r="G1" s="144"/>
-      <c r="H1" s="144"/>
-      <c r="I1" s="145"/>
-      <c r="J1" s="144"/>
-      <c r="K1" s="144"/>
-      <c r="L1" s="144"/>
-      <c r="M1" s="144"/>
-      <c r="N1" s="144"/>
-      <c r="O1" s="144"/>
-      <c r="P1" s="144"/>
-      <c r="Q1" s="144"/>
-      <c r="R1" s="145"/>
-      <c r="S1" s="144"/>
-      <c r="T1" s="144"/>
-      <c r="U1" s="144"/>
-      <c r="V1" s="144"/>
-      <c r="W1" s="144"/>
-      <c r="X1" s="144"/>
-      <c r="Y1" s="144"/>
-      <c r="Z1" s="144"/>
-      <c r="AA1" s="144"/>
-      <c r="AB1" s="144"/>
-      <c r="AC1" s="144"/>
+      <c r="C1" s="149"/>
+      <c r="D1" s="149"/>
+      <c r="E1" s="149"/>
+      <c r="F1" s="149"/>
+      <c r="G1" s="149"/>
+      <c r="H1" s="149"/>
+      <c r="I1" s="150"/>
+      <c r="J1" s="149"/>
+      <c r="K1" s="149"/>
+      <c r="L1" s="149"/>
+      <c r="M1" s="149"/>
+      <c r="N1" s="149"/>
+      <c r="O1" s="149"/>
+      <c r="P1" s="149"/>
+      <c r="Q1" s="149"/>
+      <c r="R1" s="150"/>
+      <c r="S1" s="149"/>
+      <c r="T1" s="149"/>
+      <c r="U1" s="149"/>
+      <c r="V1" s="149"/>
+      <c r="W1" s="149"/>
+      <c r="X1" s="149"/>
+      <c r="Y1" s="149"/>
+      <c r="Z1" s="149"/>
+      <c r="AA1" s="149"/>
+      <c r="AB1" s="149"/>
+      <c r="AC1" s="149"/>
     </row>
     <row r="2" spans="1:29">
       <c r="A2" s="28" t="s">
         <v>39</v>
       </c>
-      <c r="B2" s="146">
+      <c r="B2" s="145">
         <v>42736</v>
       </c>
-      <c r="C2" s="147"/>
-      <c r="D2" s="147"/>
-      <c r="E2" s="147"/>
-      <c r="F2" s="147"/>
-      <c r="G2" s="147"/>
-      <c r="H2" s="148"/>
+      <c r="C2" s="146"/>
+      <c r="D2" s="146"/>
+      <c r="E2" s="146"/>
+      <c r="F2" s="146"/>
+      <c r="G2" s="146"/>
+      <c r="H2" s="147"/>
       <c r="I2" s="45"/>
       <c r="J2" s="28" t="s">
         <v>39</v>
       </c>
-      <c r="K2" s="146">
+      <c r="K2" s="145">
         <v>42767</v>
       </c>
-      <c r="L2" s="147"/>
-      <c r="M2" s="147"/>
-      <c r="N2" s="147"/>
-      <c r="O2" s="147"/>
-      <c r="P2" s="147"/>
-      <c r="Q2" s="148"/>
+      <c r="L2" s="146"/>
+      <c r="M2" s="146"/>
+      <c r="N2" s="146"/>
+      <c r="O2" s="146"/>
+      <c r="P2" s="146"/>
+      <c r="Q2" s="147"/>
       <c r="R2" s="45"/>
       <c r="S2" s="28" t="s">
         <v>39</v>
       </c>
-      <c r="T2" s="146">
+      <c r="T2" s="145">
         <v>42795</v>
       </c>
-      <c r="U2" s="147"/>
-      <c r="V2" s="147"/>
-      <c r="W2" s="147"/>
-      <c r="X2" s="147"/>
-      <c r="Y2" s="147"/>
-      <c r="Z2" s="148"/>
+      <c r="U2" s="146"/>
+      <c r="V2" s="146"/>
+      <c r="W2" s="146"/>
+      <c r="X2" s="146"/>
+      <c r="Y2" s="146"/>
+      <c r="Z2" s="147"/>
     </row>
     <row r="3" spans="1:29" ht="15.75">
       <c r="A3" s="28"/>
@@ -7249,41 +7310,41 @@
       <c r="A11" s="28" t="s">
         <v>39</v>
       </c>
-      <c r="B11" s="146">
+      <c r="B11" s="145">
         <v>42826</v>
       </c>
-      <c r="C11" s="147"/>
-      <c r="D11" s="147"/>
-      <c r="E11" s="147"/>
-      <c r="F11" s="147"/>
-      <c r="G11" s="147"/>
-      <c r="H11" s="148"/>
+      <c r="C11" s="146"/>
+      <c r="D11" s="146"/>
+      <c r="E11" s="146"/>
+      <c r="F11" s="146"/>
+      <c r="G11" s="146"/>
+      <c r="H11" s="147"/>
       <c r="I11" s="45"/>
       <c r="J11" s="28" t="s">
         <v>39</v>
       </c>
-      <c r="K11" s="146">
+      <c r="K11" s="145">
         <v>42856</v>
       </c>
-      <c r="L11" s="147"/>
-      <c r="M11" s="147"/>
-      <c r="N11" s="147"/>
-      <c r="O11" s="147"/>
-      <c r="P11" s="147"/>
-      <c r="Q11" s="148"/>
+      <c r="L11" s="146"/>
+      <c r="M11" s="146"/>
+      <c r="N11" s="146"/>
+      <c r="O11" s="146"/>
+      <c r="P11" s="146"/>
+      <c r="Q11" s="147"/>
       <c r="R11" s="45"/>
       <c r="S11" s="28" t="s">
         <v>39</v>
       </c>
-      <c r="T11" s="146">
+      <c r="T11" s="145">
         <v>42887</v>
       </c>
-      <c r="U11" s="147"/>
-      <c r="V11" s="147"/>
-      <c r="W11" s="147"/>
-      <c r="X11" s="147"/>
-      <c r="Y11" s="147"/>
-      <c r="Z11" s="148"/>
+      <c r="U11" s="146"/>
+      <c r="V11" s="146"/>
+      <c r="W11" s="146"/>
+      <c r="X11" s="146"/>
+      <c r="Y11" s="146"/>
+      <c r="Z11" s="147"/>
     </row>
     <row r="12" spans="1:29" ht="15.75">
       <c r="A12" s="28"/>
@@ -7791,41 +7852,41 @@
       <c r="A21" s="28" t="s">
         <v>39</v>
       </c>
-      <c r="B21" s="146">
+      <c r="B21" s="145">
         <v>42917</v>
       </c>
-      <c r="C21" s="147"/>
-      <c r="D21" s="147"/>
-      <c r="E21" s="147"/>
-      <c r="F21" s="147"/>
-      <c r="G21" s="147"/>
-      <c r="H21" s="148"/>
+      <c r="C21" s="146"/>
+      <c r="D21" s="146"/>
+      <c r="E21" s="146"/>
+      <c r="F21" s="146"/>
+      <c r="G21" s="146"/>
+      <c r="H21" s="147"/>
       <c r="I21" s="45"/>
       <c r="J21" s="28" t="s">
         <v>39</v>
       </c>
-      <c r="K21" s="146">
+      <c r="K21" s="145">
         <v>42948</v>
       </c>
-      <c r="L21" s="147"/>
-      <c r="M21" s="147"/>
-      <c r="N21" s="147"/>
-      <c r="O21" s="147"/>
-      <c r="P21" s="147"/>
-      <c r="Q21" s="148"/>
+      <c r="L21" s="146"/>
+      <c r="M21" s="146"/>
+      <c r="N21" s="146"/>
+      <c r="O21" s="146"/>
+      <c r="P21" s="146"/>
+      <c r="Q21" s="147"/>
       <c r="R21" s="45"/>
       <c r="S21" s="28" t="s">
         <v>39</v>
       </c>
-      <c r="T21" s="146">
+      <c r="T21" s="145">
         <v>42979</v>
       </c>
-      <c r="U21" s="147"/>
-      <c r="V21" s="147"/>
-      <c r="W21" s="147"/>
-      <c r="X21" s="147"/>
-      <c r="Y21" s="147"/>
-      <c r="Z21" s="148"/>
+      <c r="U21" s="146"/>
+      <c r="V21" s="146"/>
+      <c r="W21" s="146"/>
+      <c r="X21" s="146"/>
+      <c r="Y21" s="146"/>
+      <c r="Z21" s="147"/>
     </row>
     <row r="22" spans="1:26" ht="15.75">
       <c r="A22" s="28"/>
@@ -8333,41 +8394,41 @@
       <c r="A31" s="28" t="s">
         <v>39</v>
       </c>
-      <c r="B31" s="146">
+      <c r="B31" s="145">
         <v>43009</v>
       </c>
-      <c r="C31" s="147"/>
-      <c r="D31" s="147"/>
-      <c r="E31" s="147"/>
-      <c r="F31" s="147"/>
-      <c r="G31" s="147"/>
-      <c r="H31" s="148"/>
+      <c r="C31" s="146"/>
+      <c r="D31" s="146"/>
+      <c r="E31" s="146"/>
+      <c r="F31" s="146"/>
+      <c r="G31" s="146"/>
+      <c r="H31" s="147"/>
       <c r="I31" s="45"/>
       <c r="J31" s="28" t="s">
         <v>39</v>
       </c>
-      <c r="K31" s="146">
+      <c r="K31" s="145">
         <v>43040</v>
       </c>
-      <c r="L31" s="147"/>
-      <c r="M31" s="147"/>
-      <c r="N31" s="147"/>
-      <c r="O31" s="147"/>
-      <c r="P31" s="147"/>
-      <c r="Q31" s="148"/>
+      <c r="L31" s="146"/>
+      <c r="M31" s="146"/>
+      <c r="N31" s="146"/>
+      <c r="O31" s="146"/>
+      <c r="P31" s="146"/>
+      <c r="Q31" s="147"/>
       <c r="R31" s="45"/>
       <c r="S31" s="28" t="s">
         <v>39</v>
       </c>
-      <c r="T31" s="146">
+      <c r="T31" s="145">
         <v>43070</v>
       </c>
-      <c r="U31" s="147"/>
-      <c r="V31" s="147"/>
-      <c r="W31" s="147"/>
-      <c r="X31" s="147"/>
-      <c r="Y31" s="147"/>
-      <c r="Z31" s="148"/>
+      <c r="U31" s="146"/>
+      <c r="V31" s="146"/>
+      <c r="W31" s="146"/>
+      <c r="X31" s="146"/>
+      <c r="Y31" s="146"/>
+      <c r="Z31" s="147"/>
     </row>
     <row r="32" spans="1:26" ht="15.75">
       <c r="A32" s="28"/>
@@ -8845,12 +8906,6 @@
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="B21:H21"/>
-    <mergeCell ref="K21:Q21"/>
-    <mergeCell ref="T21:Z21"/>
-    <mergeCell ref="B31:H31"/>
-    <mergeCell ref="K31:Q31"/>
-    <mergeCell ref="T31:Z31"/>
     <mergeCell ref="B1:AC1"/>
     <mergeCell ref="B2:H2"/>
     <mergeCell ref="K2:Q2"/>
@@ -8858,6 +8913,12 @@
     <mergeCell ref="B11:H11"/>
     <mergeCell ref="K11:Q11"/>
     <mergeCell ref="T11:Z11"/>
+    <mergeCell ref="B21:H21"/>
+    <mergeCell ref="K21:Q21"/>
+    <mergeCell ref="T21:Z21"/>
+    <mergeCell ref="B31:H31"/>
+    <mergeCell ref="K31:Q31"/>
+    <mergeCell ref="T31:Z31"/>
   </mergeCells>
   <phoneticPr fontId="22" type="noConversion"/>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
@@ -8897,43 +8958,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:10" ht="14.25" customHeight="1">
-      <c r="B1" s="149" t="s">
+      <c r="B1" s="161" t="s">
         <v>47</v>
       </c>
-      <c r="C1" s="149"/>
-      <c r="D1" s="149"/>
-      <c r="E1" s="149"/>
-      <c r="F1" s="149"/>
-      <c r="G1" s="149"/>
-      <c r="H1" s="149"/>
-      <c r="I1" s="149"/>
-      <c r="J1" s="149"/>
+      <c r="C1" s="161"/>
+      <c r="D1" s="161"/>
+      <c r="E1" s="161"/>
+      <c r="F1" s="161"/>
+      <c r="G1" s="161"/>
+      <c r="H1" s="161"/>
+      <c r="I1" s="161"/>
+      <c r="J1" s="161"/>
     </row>
     <row r="2" spans="2:10" ht="49.5" customHeight="1">
-      <c r="B2" s="150" t="s">
+      <c r="B2" s="162" t="s">
         <v>48</v>
       </c>
-      <c r="C2" s="151"/>
-      <c r="D2" s="151"/>
-      <c r="E2" s="151"/>
-      <c r="F2" s="151"/>
-      <c r="G2" s="151"/>
-      <c r="H2" s="151"/>
-      <c r="I2" s="151"/>
-      <c r="J2" s="151"/>
+      <c r="C2" s="163"/>
+      <c r="D2" s="163"/>
+      <c r="E2" s="163"/>
+      <c r="F2" s="163"/>
+      <c r="G2" s="163"/>
+      <c r="H2" s="163"/>
+      <c r="I2" s="163"/>
+      <c r="J2" s="163"/>
     </row>
     <row r="3" spans="2:10" ht="30.75" customHeight="1">
-      <c r="B3" s="152" t="s">
+      <c r="B3" s="164" t="s">
         <v>49</v>
       </c>
-      <c r="C3" s="153"/>
-      <c r="D3" s="153"/>
-      <c r="E3" s="153"/>
-      <c r="F3" s="153"/>
-      <c r="G3" s="153"/>
-      <c r="H3" s="153"/>
-      <c r="I3" s="153"/>
-      <c r="J3" s="153"/>
+      <c r="C3" s="165"/>
+      <c r="D3" s="165"/>
+      <c r="E3" s="165"/>
+      <c r="F3" s="165"/>
+      <c r="G3" s="165"/>
+      <c r="H3" s="165"/>
+      <c r="I3" s="165"/>
+      <c r="J3" s="165"/>
     </row>
     <row r="4" spans="2:10" ht="36.75" customHeight="1">
       <c r="B4" s="16" t="s">
@@ -8965,10 +9026,10 @@
       </c>
     </row>
     <row r="5" spans="2:10" ht="28.5" customHeight="1">
-      <c r="B5" s="160" t="s">
+      <c r="B5" s="155" t="s">
         <v>56</v>
       </c>
-      <c r="C5" s="162" t="s">
+      <c r="C5" s="157" t="s">
         <v>57</v>
       </c>
       <c r="D5" s="19">
@@ -8988,8 +9049,8 @@
       <c r="J5" s="6"/>
     </row>
     <row r="6" spans="2:10" ht="28.5" customHeight="1">
-      <c r="B6" s="161"/>
-      <c r="C6" s="163"/>
+      <c r="B6" s="156"/>
+      <c r="C6" s="158"/>
       <c r="D6" s="19">
         <v>2</v>
       </c>
@@ -9006,8 +9067,8 @@
       <c r="J6" s="6"/>
     </row>
     <row r="7" spans="2:10" ht="28.5" customHeight="1">
-      <c r="B7" s="161"/>
-      <c r="C7" s="163"/>
+      <c r="B7" s="156"/>
+      <c r="C7" s="158"/>
       <c r="D7" s="19">
         <v>3</v>
       </c>
@@ -9027,8 +9088,8 @@
       <c r="J7" s="6"/>
     </row>
     <row r="8" spans="2:10" ht="28.5" customHeight="1">
-      <c r="B8" s="161"/>
-      <c r="C8" s="163"/>
+      <c r="B8" s="156"/>
+      <c r="C8" s="158"/>
       <c r="D8" s="19">
         <v>4</v>
       </c>
@@ -9040,8 +9101,8 @@
       <c r="J8" s="6"/>
     </row>
     <row r="9" spans="2:10" ht="28.5" customHeight="1">
-      <c r="B9" s="161"/>
-      <c r="C9" s="163"/>
+      <c r="B9" s="156"/>
+      <c r="C9" s="158"/>
       <c r="D9" s="19">
         <v>5</v>
       </c>
@@ -9053,8 +9114,8 @@
       <c r="J9" s="6"/>
     </row>
     <row r="10" spans="2:10" ht="28.5" customHeight="1">
-      <c r="B10" s="161"/>
-      <c r="C10" s="163"/>
+      <c r="B10" s="156"/>
+      <c r="C10" s="158"/>
       <c r="D10" s="19">
         <v>6</v>
       </c>
@@ -9066,8 +9127,8 @@
       <c r="J10" s="6"/>
     </row>
     <row r="11" spans="2:10" ht="28.5" customHeight="1">
-      <c r="B11" s="161"/>
-      <c r="C11" s="163"/>
+      <c r="B11" s="156"/>
+      <c r="C11" s="158"/>
       <c r="D11" s="19">
         <v>7</v>
       </c>
@@ -9079,8 +9140,8 @@
       <c r="J11" s="6"/>
     </row>
     <row r="12" spans="2:10" ht="28.5" customHeight="1">
-      <c r="B12" s="161"/>
-      <c r="C12" s="163"/>
+      <c r="B12" s="156"/>
+      <c r="C12" s="158"/>
       <c r="D12" s="19">
         <v>8</v>
       </c>
@@ -9092,8 +9153,8 @@
       <c r="J12" s="6"/>
     </row>
     <row r="13" spans="2:10" ht="28.5" customHeight="1">
-      <c r="B13" s="161"/>
-      <c r="C13" s="164"/>
+      <c r="B13" s="156"/>
+      <c r="C13" s="159"/>
       <c r="D13" s="19">
         <v>9</v>
       </c>
@@ -9105,8 +9166,8 @@
       <c r="J13" s="23"/>
     </row>
     <row r="14" spans="2:10" ht="28.5" customHeight="1">
-      <c r="B14" s="161"/>
-      <c r="C14" s="162" t="s">
+      <c r="B14" s="156"/>
+      <c r="C14" s="157" t="s">
         <v>66</v>
       </c>
       <c r="D14" s="19">
@@ -9126,8 +9187,8 @@
       <c r="J14" s="6"/>
     </row>
     <row r="15" spans="2:10" ht="28.5" customHeight="1">
-      <c r="B15" s="161"/>
-      <c r="C15" s="163"/>
+      <c r="B15" s="156"/>
+      <c r="C15" s="158"/>
       <c r="D15" s="19">
         <v>2</v>
       </c>
@@ -9143,8 +9204,8 @@
       <c r="J15" s="6"/>
     </row>
     <row r="16" spans="2:10" ht="28.5" customHeight="1">
-      <c r="B16" s="161"/>
-      <c r="C16" s="163"/>
+      <c r="B16" s="156"/>
+      <c r="C16" s="158"/>
       <c r="D16" s="19">
         <v>3</v>
       </c>
@@ -9160,8 +9221,8 @@
       <c r="J16" s="6"/>
     </row>
     <row r="17" spans="2:10" ht="28.5" customHeight="1">
-      <c r="B17" s="161"/>
-      <c r="C17" s="163"/>
+      <c r="B17" s="156"/>
+      <c r="C17" s="158"/>
       <c r="D17" s="19">
         <v>4</v>
       </c>
@@ -9179,8 +9240,8 @@
       <c r="J17" s="6"/>
     </row>
     <row r="18" spans="2:10" ht="28.5" customHeight="1">
-      <c r="B18" s="161"/>
-      <c r="C18" s="163"/>
+      <c r="B18" s="156"/>
+      <c r="C18" s="158"/>
       <c r="D18" s="19">
         <v>5</v>
       </c>
@@ -9192,8 +9253,8 @@
       <c r="J18" s="6"/>
     </row>
     <row r="19" spans="2:10" ht="28.5" customHeight="1">
-      <c r="B19" s="161"/>
-      <c r="C19" s="164"/>
+      <c r="B19" s="156"/>
+      <c r="C19" s="159"/>
       <c r="D19" s="19">
         <v>6</v>
       </c>
@@ -9205,8 +9266,8 @@
       <c r="J19" s="6"/>
     </row>
     <row r="20" spans="2:10" ht="28.5" customHeight="1">
-      <c r="B20" s="161"/>
-      <c r="C20" s="162" t="s">
+      <c r="B20" s="156"/>
+      <c r="C20" s="157" t="s">
         <v>73</v>
       </c>
       <c r="D20" s="19">
@@ -9220,8 +9281,8 @@
       <c r="J20" s="6"/>
     </row>
     <row r="21" spans="2:10" ht="28.5" customHeight="1">
-      <c r="B21" s="161"/>
-      <c r="C21" s="163"/>
+      <c r="B21" s="156"/>
+      <c r="C21" s="158"/>
       <c r="D21" s="19">
         <v>2</v>
       </c>
@@ -9233,8 +9294,8 @@
       <c r="J21" s="6"/>
     </row>
     <row r="22" spans="2:10" ht="28.5" customHeight="1">
-      <c r="B22" s="161"/>
-      <c r="C22" s="163"/>
+      <c r="B22" s="156"/>
+      <c r="C22" s="158"/>
       <c r="D22" s="19">
         <v>3</v>
       </c>
@@ -9246,8 +9307,8 @@
       <c r="J22" s="6"/>
     </row>
     <row r="23" spans="2:10" ht="28.5" customHeight="1">
-      <c r="B23" s="161"/>
-      <c r="C23" s="163"/>
+      <c r="B23" s="156"/>
+      <c r="C23" s="158"/>
       <c r="D23" s="19">
         <v>4</v>
       </c>
@@ -9259,8 +9320,8 @@
       <c r="J23" s="6"/>
     </row>
     <row r="24" spans="2:10" ht="28.5" customHeight="1">
-      <c r="B24" s="161"/>
-      <c r="C24" s="163"/>
+      <c r="B24" s="156"/>
+      <c r="C24" s="158"/>
       <c r="D24" s="19">
         <v>5</v>
       </c>
@@ -9273,7 +9334,7 @@
     </row>
     <row r="25" spans="2:10" ht="28.5" customHeight="1">
       <c r="B25" s="20"/>
-      <c r="C25" s="164"/>
+      <c r="C25" s="159"/>
       <c r="D25" s="19">
         <v>6</v>
       </c>
@@ -9286,124 +9347,129 @@
     </row>
     <row r="26" spans="2:10" ht="8.25" customHeight="1"/>
     <row r="27" spans="2:10" ht="36.75" customHeight="1">
-      <c r="B27" s="154" t="s">
+      <c r="B27" s="166" t="s">
         <v>74</v>
       </c>
-      <c r="C27" s="154"/>
-      <c r="D27" s="154"/>
-      <c r="E27" s="154"/>
-      <c r="F27" s="154"/>
-      <c r="G27" s="154"/>
-      <c r="H27" s="154"/>
-      <c r="I27" s="154"/>
-      <c r="J27" s="154"/>
+      <c r="C27" s="166"/>
+      <c r="D27" s="166"/>
+      <c r="E27" s="166"/>
+      <c r="F27" s="166"/>
+      <c r="G27" s="166"/>
+      <c r="H27" s="166"/>
+      <c r="I27" s="166"/>
+      <c r="J27" s="166"/>
     </row>
     <row r="28" spans="2:10" ht="26.25" customHeight="1">
-      <c r="B28" s="155" t="s">
+      <c r="B28" s="151" t="s">
         <v>75</v>
       </c>
-      <c r="C28" s="155"/>
-      <c r="D28" s="155"/>
-      <c r="E28" s="155"/>
-      <c r="F28" s="155"/>
-      <c r="G28" s="155"/>
-      <c r="H28" s="155"/>
-      <c r="I28" s="155"/>
-      <c r="J28" s="155"/>
+      <c r="C28" s="151"/>
+      <c r="D28" s="151"/>
+      <c r="E28" s="151"/>
+      <c r="F28" s="151"/>
+      <c r="G28" s="151"/>
+      <c r="H28" s="151"/>
+      <c r="I28" s="151"/>
+      <c r="J28" s="151"/>
     </row>
     <row r="29" spans="2:10" ht="50.25" customHeight="1">
-      <c r="B29" s="156" t="s">
+      <c r="B29" s="160" t="s">
         <v>76</v>
       </c>
-      <c r="C29" s="156"/>
-      <c r="D29" s="156"/>
-      <c r="E29" s="156"/>
-      <c r="F29" s="156"/>
-      <c r="G29" s="156"/>
-      <c r="H29" s="156"/>
-      <c r="I29" s="156"/>
-      <c r="J29" s="156"/>
+      <c r="C29" s="160"/>
+      <c r="D29" s="160"/>
+      <c r="E29" s="160"/>
+      <c r="F29" s="160"/>
+      <c r="G29" s="160"/>
+      <c r="H29" s="160"/>
+      <c r="I29" s="160"/>
+      <c r="J29" s="160"/>
     </row>
     <row r="30" spans="2:10" ht="27" customHeight="1">
-      <c r="B30" s="155" t="s">
+      <c r="B30" s="151" t="s">
         <v>77</v>
       </c>
-      <c r="C30" s="155"/>
-      <c r="D30" s="155"/>
-      <c r="E30" s="155"/>
-      <c r="F30" s="155"/>
-      <c r="G30" s="155"/>
-      <c r="H30" s="155"/>
-      <c r="I30" s="155"/>
-      <c r="J30" s="155"/>
+      <c r="C30" s="151"/>
+      <c r="D30" s="151"/>
+      <c r="E30" s="151"/>
+      <c r="F30" s="151"/>
+      <c r="G30" s="151"/>
+      <c r="H30" s="151"/>
+      <c r="I30" s="151"/>
+      <c r="J30" s="151"/>
     </row>
     <row r="31" spans="2:10" ht="51.75" customHeight="1">
-      <c r="B31" s="156" t="s">
+      <c r="B31" s="160" t="s">
         <v>78</v>
       </c>
-      <c r="C31" s="156"/>
-      <c r="D31" s="156"/>
-      <c r="E31" s="156"/>
-      <c r="F31" s="156"/>
-      <c r="G31" s="156"/>
-      <c r="H31" s="156"/>
-      <c r="I31" s="156"/>
-      <c r="J31" s="156"/>
+      <c r="C31" s="160"/>
+      <c r="D31" s="160"/>
+      <c r="E31" s="160"/>
+      <c r="F31" s="160"/>
+      <c r="G31" s="160"/>
+      <c r="H31" s="160"/>
+      <c r="I31" s="160"/>
+      <c r="J31" s="160"/>
     </row>
     <row r="32" spans="2:10" ht="27" customHeight="1">
-      <c r="B32" s="155" t="s">
+      <c r="B32" s="151" t="s">
         <v>79</v>
       </c>
-      <c r="C32" s="155"/>
-      <c r="D32" s="155"/>
-      <c r="E32" s="155"/>
-      <c r="F32" s="155"/>
-      <c r="G32" s="155"/>
-      <c r="H32" s="155"/>
-      <c r="I32" s="155"/>
-      <c r="J32" s="155"/>
+      <c r="C32" s="151"/>
+      <c r="D32" s="151"/>
+      <c r="E32" s="151"/>
+      <c r="F32" s="151"/>
+      <c r="G32" s="151"/>
+      <c r="H32" s="151"/>
+      <c r="I32" s="151"/>
+      <c r="J32" s="151"/>
     </row>
     <row r="33" spans="2:10" ht="43.5" customHeight="1">
-      <c r="B33" s="157" t="s">
+      <c r="B33" s="152" t="s">
         <v>80</v>
       </c>
-      <c r="C33" s="158"/>
-      <c r="D33" s="158"/>
-      <c r="E33" s="158"/>
-      <c r="F33" s="158"/>
-      <c r="G33" s="158"/>
-      <c r="H33" s="158"/>
-      <c r="I33" s="158"/>
-      <c r="J33" s="159"/>
+      <c r="C33" s="153"/>
+      <c r="D33" s="153"/>
+      <c r="E33" s="153"/>
+      <c r="F33" s="153"/>
+      <c r="G33" s="153"/>
+      <c r="H33" s="153"/>
+      <c r="I33" s="153"/>
+      <c r="J33" s="154"/>
     </row>
     <row r="34" spans="2:10" ht="26.25" customHeight="1">
-      <c r="B34" s="155" t="s">
+      <c r="B34" s="151" t="s">
         <v>81</v>
       </c>
-      <c r="C34" s="155"/>
-      <c r="D34" s="155"/>
-      <c r="E34" s="155"/>
-      <c r="F34" s="155"/>
-      <c r="G34" s="155"/>
-      <c r="H34" s="155"/>
-      <c r="I34" s="155"/>
-      <c r="J34" s="155"/>
+      <c r="C34" s="151"/>
+      <c r="D34" s="151"/>
+      <c r="E34" s="151"/>
+      <c r="F34" s="151"/>
+      <c r="G34" s="151"/>
+      <c r="H34" s="151"/>
+      <c r="I34" s="151"/>
+      <c r="J34" s="151"/>
     </row>
     <row r="35" spans="2:10" ht="57.75" customHeight="1">
-      <c r="B35" s="157" t="s">
+      <c r="B35" s="152" t="s">
         <v>82</v>
       </c>
-      <c r="C35" s="158"/>
-      <c r="D35" s="158"/>
-      <c r="E35" s="158"/>
-      <c r="F35" s="158"/>
-      <c r="G35" s="158"/>
-      <c r="H35" s="158"/>
-      <c r="I35" s="158"/>
-      <c r="J35" s="159"/>
+      <c r="C35" s="153"/>
+      <c r="D35" s="153"/>
+      <c r="E35" s="153"/>
+      <c r="F35" s="153"/>
+      <c r="G35" s="153"/>
+      <c r="H35" s="153"/>
+      <c r="I35" s="153"/>
+      <c r="J35" s="154"/>
     </row>
   </sheetData>
   <mergeCells count="16">
+    <mergeCell ref="B1:J1"/>
+    <mergeCell ref="B2:J2"/>
+    <mergeCell ref="B3:J3"/>
+    <mergeCell ref="B27:J27"/>
+    <mergeCell ref="B28:J28"/>
     <mergeCell ref="B34:J34"/>
     <mergeCell ref="B35:J35"/>
     <mergeCell ref="B5:B24"/>
@@ -9415,11 +9481,6 @@
     <mergeCell ref="B31:J31"/>
     <mergeCell ref="B32:J32"/>
     <mergeCell ref="B33:J33"/>
-    <mergeCell ref="B1:J1"/>
-    <mergeCell ref="B2:J2"/>
-    <mergeCell ref="B3:J3"/>
-    <mergeCell ref="B27:J27"/>
-    <mergeCell ref="B28:J28"/>
   </mergeCells>
   <phoneticPr fontId="22" type="noConversion"/>
   <dataValidations count="1">
@@ -9460,73 +9521,73 @@
   <sheetData>
     <row r="1" spans="1:8" ht="24" customHeight="1">
       <c r="A1" s="2"/>
-      <c r="B1" s="165"/>
-      <c r="C1" s="165"/>
-      <c r="D1" s="165"/>
-      <c r="E1" s="165"/>
-      <c r="F1" s="165"/>
-      <c r="G1" s="165"/>
-      <c r="H1" s="165"/>
+      <c r="B1" s="181"/>
+      <c r="C1" s="181"/>
+      <c r="D1" s="181"/>
+      <c r="E1" s="181"/>
+      <c r="F1" s="181"/>
+      <c r="G1" s="181"/>
+      <c r="H1" s="181"/>
     </row>
     <row r="2" spans="1:8" ht="27.75" customHeight="1">
-      <c r="A2" s="172" t="s">
+      <c r="A2" s="169" t="s">
         <v>83</v>
       </c>
-      <c r="B2" s="172" t="s">
+      <c r="B2" s="169" t="s">
         <v>84</v>
       </c>
-      <c r="C2" s="174" t="s">
+      <c r="C2" s="176" t="s">
         <v>85</v>
       </c>
-      <c r="D2" s="172" t="s">
+      <c r="D2" s="169" t="s">
         <v>86</v>
       </c>
-      <c r="E2" s="176" t="s">
+      <c r="E2" s="171" t="s">
         <v>87</v>
       </c>
-      <c r="F2" s="178" t="s">
+      <c r="F2" s="167" t="s">
         <v>9</v>
       </c>
-      <c r="G2" s="178" t="s">
+      <c r="G2" s="167" t="s">
         <v>88</v>
       </c>
-      <c r="H2" s="178" t="s">
+      <c r="H2" s="167" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="27" customHeight="1">
-      <c r="A3" s="173"/>
-      <c r="B3" s="173"/>
-      <c r="C3" s="175"/>
-      <c r="D3" s="173"/>
-      <c r="E3" s="177"/>
-      <c r="F3" s="179"/>
-      <c r="G3" s="179"/>
-      <c r="H3" s="179"/>
+      <c r="A3" s="170"/>
+      <c r="B3" s="170"/>
+      <c r="C3" s="177"/>
+      <c r="D3" s="170"/>
+      <c r="E3" s="172"/>
+      <c r="F3" s="168"/>
+      <c r="G3" s="168"/>
+      <c r="H3" s="168"/>
     </row>
     <row r="4" spans="1:8" ht="24.75" customHeight="1">
-      <c r="A4" s="166" t="s">
+      <c r="A4" s="178" t="s">
         <v>89</v>
       </c>
-      <c r="B4" s="167"/>
-      <c r="C4" s="167"/>
-      <c r="D4" s="167"/>
-      <c r="E4" s="167"/>
-      <c r="F4" s="167"/>
-      <c r="G4" s="167"/>
-      <c r="H4" s="168"/>
+      <c r="B4" s="179"/>
+      <c r="C4" s="179"/>
+      <c r="D4" s="179"/>
+      <c r="E4" s="179"/>
+      <c r="F4" s="179"/>
+      <c r="G4" s="179"/>
+      <c r="H4" s="180"/>
     </row>
     <row r="5" spans="1:8" ht="30" customHeight="1">
-      <c r="A5" s="169" t="s">
+      <c r="A5" s="173" t="s">
         <v>90</v>
       </c>
-      <c r="B5" s="170"/>
-      <c r="C5" s="170"/>
-      <c r="D5" s="170"/>
-      <c r="E5" s="170"/>
-      <c r="F5" s="170"/>
-      <c r="G5" s="170"/>
-      <c r="H5" s="171"/>
+      <c r="B5" s="174"/>
+      <c r="C5" s="174"/>
+      <c r="D5" s="174"/>
+      <c r="E5" s="174"/>
+      <c r="F5" s="174"/>
+      <c r="G5" s="174"/>
+      <c r="H5" s="175"/>
     </row>
     <row r="6" spans="1:8" ht="30" customHeight="1">
       <c r="A6" s="3"/>
@@ -9644,64 +9705,64 @@
       <c r="G15" s="12"/>
     </row>
     <row r="16" spans="1:8" ht="27.75" customHeight="1">
-      <c r="A16" s="172" t="s">
+      <c r="A16" s="169" t="s">
         <v>83</v>
       </c>
-      <c r="B16" s="172" t="s">
+      <c r="B16" s="169" t="s">
         <v>84</v>
       </c>
-      <c r="C16" s="174" t="s">
+      <c r="C16" s="176" t="s">
         <v>100</v>
       </c>
-      <c r="D16" s="172" t="s">
+      <c r="D16" s="169" t="s">
         <v>86</v>
       </c>
-      <c r="E16" s="176" t="s">
+      <c r="E16" s="171" t="s">
         <v>87</v>
       </c>
-      <c r="F16" s="178" t="s">
+      <c r="F16" s="167" t="s">
         <v>9</v>
       </c>
-      <c r="G16" s="178" t="s">
+      <c r="G16" s="167" t="s">
         <v>88</v>
       </c>
-      <c r="H16" s="178" t="s">
+      <c r="H16" s="167" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="17" spans="1:8" ht="27" customHeight="1">
-      <c r="A17" s="173"/>
-      <c r="B17" s="173"/>
-      <c r="C17" s="175"/>
-      <c r="D17" s="173"/>
-      <c r="E17" s="177"/>
-      <c r="F17" s="179"/>
-      <c r="G17" s="179"/>
-      <c r="H17" s="179"/>
+      <c r="A17" s="170"/>
+      <c r="B17" s="170"/>
+      <c r="C17" s="177"/>
+      <c r="D17" s="170"/>
+      <c r="E17" s="172"/>
+      <c r="F17" s="168"/>
+      <c r="G17" s="168"/>
+      <c r="H17" s="168"/>
     </row>
     <row r="18" spans="1:8" ht="24.75" customHeight="1">
-      <c r="A18" s="166" t="s">
+      <c r="A18" s="178" t="s">
         <v>89</v>
       </c>
-      <c r="B18" s="167"/>
-      <c r="C18" s="167"/>
-      <c r="D18" s="167"/>
-      <c r="E18" s="167"/>
-      <c r="F18" s="167"/>
-      <c r="G18" s="167"/>
-      <c r="H18" s="168"/>
+      <c r="B18" s="179"/>
+      <c r="C18" s="179"/>
+      <c r="D18" s="179"/>
+      <c r="E18" s="179"/>
+      <c r="F18" s="179"/>
+      <c r="G18" s="179"/>
+      <c r="H18" s="180"/>
     </row>
     <row r="19" spans="1:8" ht="30" customHeight="1">
-      <c r="A19" s="169" t="s">
+      <c r="A19" s="173" t="s">
         <v>90</v>
       </c>
-      <c r="B19" s="170"/>
-      <c r="C19" s="170"/>
-      <c r="D19" s="170"/>
-      <c r="E19" s="170"/>
-      <c r="F19" s="170"/>
-      <c r="G19" s="170"/>
-      <c r="H19" s="171"/>
+      <c r="B19" s="174"/>
+      <c r="C19" s="174"/>
+      <c r="D19" s="174"/>
+      <c r="E19" s="174"/>
+      <c r="F19" s="174"/>
+      <c r="G19" s="174"/>
+      <c r="H19" s="175"/>
     </row>
     <row r="20" spans="1:8" ht="30" customHeight="1">
       <c r="A20" s="3"/>
@@ -9825,64 +9886,64 @@
       <c r="G29" s="12"/>
     </row>
     <row r="30" spans="1:8" ht="27.75" customHeight="1">
-      <c r="A30" s="172" t="s">
+      <c r="A30" s="169" t="s">
         <v>83</v>
       </c>
-      <c r="B30" s="172" t="s">
+      <c r="B30" s="169" t="s">
         <v>84</v>
       </c>
-      <c r="C30" s="174" t="s">
+      <c r="C30" s="176" t="s">
         <v>102</v>
       </c>
-      <c r="D30" s="172" t="s">
+      <c r="D30" s="169" t="s">
         <v>86</v>
       </c>
-      <c r="E30" s="176" t="s">
+      <c r="E30" s="171" t="s">
         <v>87</v>
       </c>
-      <c r="F30" s="178" t="s">
+      <c r="F30" s="167" t="s">
         <v>9</v>
       </c>
-      <c r="G30" s="178" t="s">
+      <c r="G30" s="167" t="s">
         <v>88</v>
       </c>
-      <c r="H30" s="178" t="s">
+      <c r="H30" s="167" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="31" spans="1:8" ht="27" customHeight="1">
-      <c r="A31" s="173"/>
-      <c r="B31" s="173"/>
-      <c r="C31" s="175"/>
-      <c r="D31" s="173"/>
-      <c r="E31" s="177"/>
-      <c r="F31" s="179"/>
-      <c r="G31" s="179"/>
-      <c r="H31" s="179"/>
+      <c r="A31" s="170"/>
+      <c r="B31" s="170"/>
+      <c r="C31" s="177"/>
+      <c r="D31" s="170"/>
+      <c r="E31" s="172"/>
+      <c r="F31" s="168"/>
+      <c r="G31" s="168"/>
+      <c r="H31" s="168"/>
     </row>
     <row r="32" spans="1:8" ht="24.75" customHeight="1">
-      <c r="A32" s="166" t="s">
+      <c r="A32" s="178" t="s">
         <v>89</v>
       </c>
-      <c r="B32" s="167"/>
-      <c r="C32" s="167"/>
-      <c r="D32" s="167"/>
-      <c r="E32" s="167"/>
-      <c r="F32" s="167"/>
-      <c r="G32" s="167"/>
-      <c r="H32" s="168"/>
+      <c r="B32" s="179"/>
+      <c r="C32" s="179"/>
+      <c r="D32" s="179"/>
+      <c r="E32" s="179"/>
+      <c r="F32" s="179"/>
+      <c r="G32" s="179"/>
+      <c r="H32" s="180"/>
     </row>
     <row r="33" spans="1:8" ht="30" customHeight="1">
-      <c r="A33" s="169" t="s">
+      <c r="A33" s="173" t="s">
         <v>90</v>
       </c>
-      <c r="B33" s="170"/>
-      <c r="C33" s="170"/>
-      <c r="D33" s="170"/>
-      <c r="E33" s="170"/>
-      <c r="F33" s="170"/>
-      <c r="G33" s="170"/>
-      <c r="H33" s="171"/>
+      <c r="B33" s="174"/>
+      <c r="C33" s="174"/>
+      <c r="D33" s="174"/>
+      <c r="E33" s="174"/>
+      <c r="F33" s="174"/>
+      <c r="G33" s="174"/>
+      <c r="H33" s="175"/>
     </row>
     <row r="34" spans="1:8" ht="30" customHeight="1">
       <c r="A34" s="3"/>
@@ -10026,64 +10087,64 @@
       <c r="G43" s="12"/>
     </row>
     <row r="44" spans="1:8" ht="27.75" customHeight="1">
-      <c r="A44" s="172" t="s">
+      <c r="A44" s="169" t="s">
         <v>83</v>
       </c>
-      <c r="B44" s="172" t="s">
+      <c r="B44" s="169" t="s">
         <v>84</v>
       </c>
-      <c r="C44" s="174" t="s">
+      <c r="C44" s="176" t="s">
         <v>107</v>
       </c>
-      <c r="D44" s="172" t="s">
+      <c r="D44" s="169" t="s">
         <v>86</v>
       </c>
-      <c r="E44" s="176" t="s">
+      <c r="E44" s="171" t="s">
         <v>87</v>
       </c>
-      <c r="F44" s="178" t="s">
+      <c r="F44" s="167" t="s">
         <v>9</v>
       </c>
-      <c r="G44" s="178" t="s">
+      <c r="G44" s="167" t="s">
         <v>88</v>
       </c>
-      <c r="H44" s="178" t="s">
+      <c r="H44" s="167" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="45" spans="1:8" ht="27" customHeight="1">
-      <c r="A45" s="173"/>
-      <c r="B45" s="173"/>
-      <c r="C45" s="175"/>
-      <c r="D45" s="173"/>
-      <c r="E45" s="177"/>
-      <c r="F45" s="179"/>
-      <c r="G45" s="179"/>
-      <c r="H45" s="179"/>
+      <c r="A45" s="170"/>
+      <c r="B45" s="170"/>
+      <c r="C45" s="177"/>
+      <c r="D45" s="170"/>
+      <c r="E45" s="172"/>
+      <c r="F45" s="168"/>
+      <c r="G45" s="168"/>
+      <c r="H45" s="168"/>
     </row>
     <row r="46" spans="1:8" ht="24.75" customHeight="1">
-      <c r="A46" s="166" t="s">
+      <c r="A46" s="178" t="s">
         <v>89</v>
       </c>
-      <c r="B46" s="167"/>
-      <c r="C46" s="167"/>
-      <c r="D46" s="167"/>
-      <c r="E46" s="167"/>
-      <c r="F46" s="167"/>
-      <c r="G46" s="167"/>
-      <c r="H46" s="168"/>
+      <c r="B46" s="179"/>
+      <c r="C46" s="179"/>
+      <c r="D46" s="179"/>
+      <c r="E46" s="179"/>
+      <c r="F46" s="179"/>
+      <c r="G46" s="179"/>
+      <c r="H46" s="180"/>
     </row>
     <row r="47" spans="1:8" ht="30" customHeight="1">
-      <c r="A47" s="169" t="s">
+      <c r="A47" s="173" t="s">
         <v>90</v>
       </c>
-      <c r="B47" s="170"/>
-      <c r="C47" s="170"/>
-      <c r="D47" s="170"/>
-      <c r="E47" s="170"/>
-      <c r="F47" s="170"/>
-      <c r="G47" s="170"/>
-      <c r="H47" s="171"/>
+      <c r="B47" s="174"/>
+      <c r="C47" s="174"/>
+      <c r="D47" s="174"/>
+      <c r="E47" s="174"/>
+      <c r="F47" s="174"/>
+      <c r="G47" s="174"/>
+      <c r="H47" s="175"/>
     </row>
     <row r="48" spans="1:8" ht="30" customHeight="1">
       <c r="A48" s="3"/>
@@ -10219,64 +10280,64 @@
     </row>
     <row r="57" spans="1:8" ht="51" customHeight="1"/>
     <row r="58" spans="1:8">
-      <c r="A58" s="172" t="s">
+      <c r="A58" s="169" t="s">
         <v>83</v>
       </c>
-      <c r="B58" s="172" t="s">
+      <c r="B58" s="169" t="s">
         <v>84</v>
       </c>
-      <c r="C58" s="174" t="s">
+      <c r="C58" s="176" t="s">
         <v>115</v>
       </c>
-      <c r="D58" s="172" t="s">
+      <c r="D58" s="169" t="s">
         <v>86</v>
       </c>
-      <c r="E58" s="176" t="s">
+      <c r="E58" s="171" t="s">
         <v>87</v>
       </c>
-      <c r="F58" s="178" t="s">
+      <c r="F58" s="167" t="s">
         <v>9</v>
       </c>
-      <c r="G58" s="178" t="s">
+      <c r="G58" s="167" t="s">
         <v>88</v>
       </c>
-      <c r="H58" s="178" t="s">
+      <c r="H58" s="167" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="59" spans="1:8" ht="31.5" customHeight="1">
-      <c r="A59" s="173"/>
-      <c r="B59" s="173"/>
-      <c r="C59" s="175"/>
-      <c r="D59" s="173"/>
-      <c r="E59" s="177"/>
-      <c r="F59" s="179"/>
-      <c r="G59" s="179"/>
-      <c r="H59" s="179"/>
+      <c r="A59" s="170"/>
+      <c r="B59" s="170"/>
+      <c r="C59" s="177"/>
+      <c r="D59" s="170"/>
+      <c r="E59" s="172"/>
+      <c r="F59" s="168"/>
+      <c r="G59" s="168"/>
+      <c r="H59" s="168"/>
     </row>
     <row r="60" spans="1:8" ht="33" customHeight="1">
-      <c r="A60" s="166" t="s">
+      <c r="A60" s="178" t="s">
         <v>89</v>
       </c>
-      <c r="B60" s="167"/>
-      <c r="C60" s="167"/>
-      <c r="D60" s="167"/>
-      <c r="E60" s="167"/>
-      <c r="F60" s="167"/>
-      <c r="G60" s="167"/>
-      <c r="H60" s="168"/>
+      <c r="B60" s="179"/>
+      <c r="C60" s="179"/>
+      <c r="D60" s="179"/>
+      <c r="E60" s="179"/>
+      <c r="F60" s="179"/>
+      <c r="G60" s="179"/>
+      <c r="H60" s="180"/>
     </row>
     <row r="61" spans="1:8" ht="33" customHeight="1">
-      <c r="A61" s="169" t="s">
+      <c r="A61" s="173" t="s">
         <v>90</v>
       </c>
-      <c r="B61" s="170"/>
-      <c r="C61" s="170"/>
-      <c r="D61" s="170"/>
-      <c r="E61" s="170"/>
-      <c r="F61" s="170"/>
-      <c r="G61" s="170"/>
-      <c r="H61" s="171"/>
+      <c r="B61" s="174"/>
+      <c r="C61" s="174"/>
+      <c r="D61" s="174"/>
+      <c r="E61" s="174"/>
+      <c r="F61" s="174"/>
+      <c r="G61" s="174"/>
+      <c r="H61" s="175"/>
     </row>
     <row r="62" spans="1:8" ht="33" customHeight="1">
       <c r="A62" s="3"/>
@@ -10401,25 +10462,18 @@
     <row r="71" spans="1:8" ht="66" customHeight="1"/>
   </sheetData>
   <mergeCells count="51">
-    <mergeCell ref="H30:H31"/>
-    <mergeCell ref="H44:H45"/>
-    <mergeCell ref="H58:H59"/>
-    <mergeCell ref="F30:F31"/>
-    <mergeCell ref="F44:F45"/>
-    <mergeCell ref="F58:F59"/>
-    <mergeCell ref="G2:G3"/>
-    <mergeCell ref="G16:G17"/>
-    <mergeCell ref="G30:G31"/>
-    <mergeCell ref="G44:G45"/>
-    <mergeCell ref="G58:G59"/>
-    <mergeCell ref="D30:D31"/>
-    <mergeCell ref="D44:D45"/>
-    <mergeCell ref="D58:D59"/>
-    <mergeCell ref="E2:E3"/>
-    <mergeCell ref="E16:E17"/>
-    <mergeCell ref="E30:E31"/>
-    <mergeCell ref="E44:E45"/>
-    <mergeCell ref="E58:E59"/>
+    <mergeCell ref="A60:H60"/>
+    <mergeCell ref="B1:H1"/>
+    <mergeCell ref="A4:H4"/>
+    <mergeCell ref="A5:H5"/>
+    <mergeCell ref="A18:H18"/>
+    <mergeCell ref="A19:H19"/>
+    <mergeCell ref="D2:D3"/>
+    <mergeCell ref="D16:D17"/>
+    <mergeCell ref="F2:F3"/>
+    <mergeCell ref="F16:F17"/>
+    <mergeCell ref="H2:H3"/>
+    <mergeCell ref="H16:H17"/>
     <mergeCell ref="A61:H61"/>
     <mergeCell ref="A2:A3"/>
     <mergeCell ref="A16:A17"/>
@@ -10436,22 +10490,29 @@
     <mergeCell ref="C30:C31"/>
     <mergeCell ref="C44:C45"/>
     <mergeCell ref="C58:C59"/>
+    <mergeCell ref="D30:D31"/>
+    <mergeCell ref="D44:D45"/>
+    <mergeCell ref="D58:D59"/>
+    <mergeCell ref="E2:E3"/>
+    <mergeCell ref="E16:E17"/>
+    <mergeCell ref="E30:E31"/>
+    <mergeCell ref="E44:E45"/>
+    <mergeCell ref="E58:E59"/>
     <mergeCell ref="A32:H32"/>
     <mergeCell ref="A33:H33"/>
     <mergeCell ref="A46:H46"/>
     <mergeCell ref="A47:H47"/>
-    <mergeCell ref="A60:H60"/>
-    <mergeCell ref="B1:H1"/>
-    <mergeCell ref="A4:H4"/>
-    <mergeCell ref="A5:H5"/>
-    <mergeCell ref="A18:H18"/>
-    <mergeCell ref="A19:H19"/>
-    <mergeCell ref="D2:D3"/>
-    <mergeCell ref="D16:D17"/>
-    <mergeCell ref="F2:F3"/>
-    <mergeCell ref="F16:F17"/>
-    <mergeCell ref="H2:H3"/>
-    <mergeCell ref="H16:H17"/>
+    <mergeCell ref="G2:G3"/>
+    <mergeCell ref="G16:G17"/>
+    <mergeCell ref="G30:G31"/>
+    <mergeCell ref="G44:G45"/>
+    <mergeCell ref="G58:G59"/>
+    <mergeCell ref="H30:H31"/>
+    <mergeCell ref="H44:H45"/>
+    <mergeCell ref="H58:H59"/>
+    <mergeCell ref="F30:F31"/>
+    <mergeCell ref="F44:F45"/>
+    <mergeCell ref="F58:F59"/>
   </mergeCells>
   <phoneticPr fontId="22" type="noConversion"/>
   <dataValidations count="1">
@@ -10495,43 +10556,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:10" ht="14.25" customHeight="1">
-      <c r="B1" s="149" t="s">
+      <c r="B1" s="161" t="s">
         <v>47</v>
       </c>
-      <c r="C1" s="149"/>
-      <c r="D1" s="149"/>
-      <c r="E1" s="149"/>
-      <c r="F1" s="149"/>
-      <c r="G1" s="149"/>
-      <c r="H1" s="149"/>
-      <c r="I1" s="149"/>
-      <c r="J1" s="149"/>
+      <c r="C1" s="161"/>
+      <c r="D1" s="161"/>
+      <c r="E1" s="161"/>
+      <c r="F1" s="161"/>
+      <c r="G1" s="161"/>
+      <c r="H1" s="161"/>
+      <c r="I1" s="161"/>
+      <c r="J1" s="161"/>
     </row>
     <row r="2" spans="2:10" ht="49.5" customHeight="1">
-      <c r="B2" s="150" t="s">
+      <c r="B2" s="162" t="s">
         <v>119</v>
       </c>
-      <c r="C2" s="151"/>
-      <c r="D2" s="151"/>
-      <c r="E2" s="151"/>
-      <c r="F2" s="151"/>
-      <c r="G2" s="151"/>
-      <c r="H2" s="151"/>
-      <c r="I2" s="151"/>
-      <c r="J2" s="151"/>
+      <c r="C2" s="163"/>
+      <c r="D2" s="163"/>
+      <c r="E2" s="163"/>
+      <c r="F2" s="163"/>
+      <c r="G2" s="163"/>
+      <c r="H2" s="163"/>
+      <c r="I2" s="163"/>
+      <c r="J2" s="163"/>
     </row>
     <row r="3" spans="2:10" ht="30.75" customHeight="1">
-      <c r="B3" s="152" t="s">
+      <c r="B3" s="164" t="s">
         <v>49</v>
       </c>
-      <c r="C3" s="153"/>
-      <c r="D3" s="153"/>
-      <c r="E3" s="153"/>
-      <c r="F3" s="153"/>
-      <c r="G3" s="153"/>
-      <c r="H3" s="153"/>
-      <c r="I3" s="153"/>
-      <c r="J3" s="153"/>
+      <c r="C3" s="165"/>
+      <c r="D3" s="165"/>
+      <c r="E3" s="165"/>
+      <c r="F3" s="165"/>
+      <c r="G3" s="165"/>
+      <c r="H3" s="165"/>
+      <c r="I3" s="165"/>
+      <c r="J3" s="165"/>
     </row>
     <row r="4" spans="2:10" ht="36.75" customHeight="1">
       <c r="B4" s="16" t="s">
@@ -10563,10 +10624,10 @@
       </c>
     </row>
     <row r="5" spans="2:10" ht="28.5" customHeight="1">
-      <c r="B5" s="160" t="s">
+      <c r="B5" s="155" t="s">
         <v>56</v>
       </c>
-      <c r="C5" s="162" t="s">
+      <c r="C5" s="157" t="s">
         <v>57</v>
       </c>
       <c r="D5" s="19">
@@ -10584,8 +10645,8 @@
       <c r="J5" s="6"/>
     </row>
     <row r="6" spans="2:10" ht="28.5" customHeight="1">
-      <c r="B6" s="161"/>
-      <c r="C6" s="163"/>
+      <c r="B6" s="156"/>
+      <c r="C6" s="158"/>
       <c r="D6" s="19">
         <v>2</v>
       </c>
@@ -10597,8 +10658,8 @@
       <c r="J6" s="6"/>
     </row>
     <row r="7" spans="2:10" ht="28.5" customHeight="1">
-      <c r="B7" s="161"/>
-      <c r="C7" s="163"/>
+      <c r="B7" s="156"/>
+      <c r="C7" s="158"/>
       <c r="D7" s="19">
         <v>3</v>
       </c>
@@ -10610,8 +10671,8 @@
       <c r="J7" s="6"/>
     </row>
     <row r="8" spans="2:10" ht="28.5" customHeight="1">
-      <c r="B8" s="161"/>
-      <c r="C8" s="163"/>
+      <c r="B8" s="156"/>
+      <c r="C8" s="158"/>
       <c r="D8" s="19">
         <v>4</v>
       </c>
@@ -10623,8 +10684,8 @@
       <c r="J8" s="6"/>
     </row>
     <row r="9" spans="2:10" ht="28.5" customHeight="1">
-      <c r="B9" s="161"/>
-      <c r="C9" s="163"/>
+      <c r="B9" s="156"/>
+      <c r="C9" s="158"/>
       <c r="D9" s="19">
         <v>5</v>
       </c>
@@ -10636,8 +10697,8 @@
       <c r="J9" s="6"/>
     </row>
     <row r="10" spans="2:10" ht="28.5" customHeight="1">
-      <c r="B10" s="161"/>
-      <c r="C10" s="163"/>
+      <c r="B10" s="156"/>
+      <c r="C10" s="158"/>
       <c r="D10" s="19">
         <v>6</v>
       </c>
@@ -10649,8 +10710,8 @@
       <c r="J10" s="6"/>
     </row>
     <row r="11" spans="2:10" ht="28.5" customHeight="1">
-      <c r="B11" s="161"/>
-      <c r="C11" s="163"/>
+      <c r="B11" s="156"/>
+      <c r="C11" s="158"/>
       <c r="D11" s="19">
         <v>7</v>
       </c>
@@ -10662,8 +10723,8 @@
       <c r="J11" s="6"/>
     </row>
     <row r="12" spans="2:10" ht="28.5" customHeight="1">
-      <c r="B12" s="161"/>
-      <c r="C12" s="163"/>
+      <c r="B12" s="156"/>
+      <c r="C12" s="158"/>
       <c r="D12" s="19">
         <v>8</v>
       </c>
@@ -10675,8 +10736,8 @@
       <c r="J12" s="6"/>
     </row>
     <row r="13" spans="2:10" ht="28.5" customHeight="1">
-      <c r="B13" s="161"/>
-      <c r="C13" s="164"/>
+      <c r="B13" s="156"/>
+      <c r="C13" s="159"/>
       <c r="D13" s="19">
         <v>9</v>
       </c>
@@ -10688,8 +10749,8 @@
       <c r="J13" s="23"/>
     </row>
     <row r="14" spans="2:10" ht="28.5" customHeight="1">
-      <c r="B14" s="161"/>
-      <c r="C14" s="162" t="s">
+      <c r="B14" s="156"/>
+      <c r="C14" s="157" t="s">
         <v>66</v>
       </c>
       <c r="D14" s="19">
@@ -10703,8 +10764,8 @@
       <c r="J14" s="6"/>
     </row>
     <row r="15" spans="2:10" ht="28.5" customHeight="1">
-      <c r="B15" s="161"/>
-      <c r="C15" s="163"/>
+      <c r="B15" s="156"/>
+      <c r="C15" s="158"/>
       <c r="D15" s="19">
         <v>2</v>
       </c>
@@ -10716,8 +10777,8 @@
       <c r="J15" s="6"/>
     </row>
     <row r="16" spans="2:10" ht="28.5" customHeight="1">
-      <c r="B16" s="161"/>
-      <c r="C16" s="163"/>
+      <c r="B16" s="156"/>
+      <c r="C16" s="158"/>
       <c r="D16" s="19">
         <v>3</v>
       </c>
@@ -10729,8 +10790,8 @@
       <c r="J16" s="6"/>
     </row>
     <row r="17" spans="2:10" ht="28.5" customHeight="1">
-      <c r="B17" s="161"/>
-      <c r="C17" s="163"/>
+      <c r="B17" s="156"/>
+      <c r="C17" s="158"/>
       <c r="D17" s="19">
         <v>4</v>
       </c>
@@ -10742,8 +10803,8 @@
       <c r="J17" s="6"/>
     </row>
     <row r="18" spans="2:10" ht="28.5" customHeight="1">
-      <c r="B18" s="161"/>
-      <c r="C18" s="163"/>
+      <c r="B18" s="156"/>
+      <c r="C18" s="158"/>
       <c r="D18" s="19">
         <v>5</v>
       </c>
@@ -10755,8 +10816,8 @@
       <c r="J18" s="6"/>
     </row>
     <row r="19" spans="2:10" ht="28.5" customHeight="1">
-      <c r="B19" s="161"/>
-      <c r="C19" s="164"/>
+      <c r="B19" s="156"/>
+      <c r="C19" s="159"/>
       <c r="D19" s="19">
         <v>6</v>
       </c>
@@ -10768,8 +10829,8 @@
       <c r="J19" s="6"/>
     </row>
     <row r="20" spans="2:10" ht="28.5" customHeight="1">
-      <c r="B20" s="161"/>
-      <c r="C20" s="162" t="s">
+      <c r="B20" s="156"/>
+      <c r="C20" s="157" t="s">
         <v>73</v>
       </c>
       <c r="D20" s="19">
@@ -10783,8 +10844,8 @@
       <c r="J20" s="6"/>
     </row>
     <row r="21" spans="2:10" ht="28.5" customHeight="1">
-      <c r="B21" s="161"/>
-      <c r="C21" s="163"/>
+      <c r="B21" s="156"/>
+      <c r="C21" s="158"/>
       <c r="D21" s="19">
         <v>2</v>
       </c>
@@ -10796,8 +10857,8 @@
       <c r="J21" s="6"/>
     </row>
     <row r="22" spans="2:10" ht="28.5" customHeight="1">
-      <c r="B22" s="161"/>
-      <c r="C22" s="163"/>
+      <c r="B22" s="156"/>
+      <c r="C22" s="158"/>
       <c r="D22" s="19">
         <v>3</v>
       </c>
@@ -10809,8 +10870,8 @@
       <c r="J22" s="6"/>
     </row>
     <row r="23" spans="2:10" ht="28.5" customHeight="1">
-      <c r="B23" s="161"/>
-      <c r="C23" s="163"/>
+      <c r="B23" s="156"/>
+      <c r="C23" s="158"/>
       <c r="D23" s="19">
         <v>4</v>
       </c>
@@ -10822,8 +10883,8 @@
       <c r="J23" s="6"/>
     </row>
     <row r="24" spans="2:10" ht="28.5" customHeight="1">
-      <c r="B24" s="161"/>
-      <c r="C24" s="163"/>
+      <c r="B24" s="156"/>
+      <c r="C24" s="158"/>
       <c r="D24" s="19">
         <v>5</v>
       </c>
@@ -10836,7 +10897,7 @@
     </row>
     <row r="25" spans="2:10" ht="28.5" customHeight="1">
       <c r="B25" s="20"/>
-      <c r="C25" s="164"/>
+      <c r="C25" s="159"/>
       <c r="D25" s="19">
         <v>6</v>
       </c>
@@ -10849,124 +10910,129 @@
     </row>
     <row r="26" spans="2:10" ht="8.25" customHeight="1"/>
     <row r="27" spans="2:10" ht="36.75" customHeight="1">
-      <c r="B27" s="154" t="s">
+      <c r="B27" s="166" t="s">
         <v>74</v>
       </c>
-      <c r="C27" s="154"/>
-      <c r="D27" s="154"/>
-      <c r="E27" s="154"/>
-      <c r="F27" s="154"/>
-      <c r="G27" s="154"/>
-      <c r="H27" s="154"/>
-      <c r="I27" s="154"/>
-      <c r="J27" s="154"/>
+      <c r="C27" s="166"/>
+      <c r="D27" s="166"/>
+      <c r="E27" s="166"/>
+      <c r="F27" s="166"/>
+      <c r="G27" s="166"/>
+      <c r="H27" s="166"/>
+      <c r="I27" s="166"/>
+      <c r="J27" s="166"/>
     </row>
     <row r="28" spans="2:10" ht="26.25" customHeight="1">
-      <c r="B28" s="155" t="s">
+      <c r="B28" s="151" t="s">
         <v>75</v>
       </c>
-      <c r="C28" s="155"/>
-      <c r="D28" s="155"/>
-      <c r="E28" s="155"/>
-      <c r="F28" s="155"/>
-      <c r="G28" s="155"/>
-      <c r="H28" s="155"/>
-      <c r="I28" s="155"/>
-      <c r="J28" s="155"/>
+      <c r="C28" s="151"/>
+      <c r="D28" s="151"/>
+      <c r="E28" s="151"/>
+      <c r="F28" s="151"/>
+      <c r="G28" s="151"/>
+      <c r="H28" s="151"/>
+      <c r="I28" s="151"/>
+      <c r="J28" s="151"/>
     </row>
     <row r="29" spans="2:10" ht="50.25" customHeight="1">
-      <c r="B29" s="156" t="s">
+      <c r="B29" s="160" t="s">
         <v>121</v>
       </c>
-      <c r="C29" s="156"/>
-      <c r="D29" s="156"/>
-      <c r="E29" s="156"/>
-      <c r="F29" s="156"/>
-      <c r="G29" s="156"/>
-      <c r="H29" s="156"/>
-      <c r="I29" s="156"/>
-      <c r="J29" s="156"/>
+      <c r="C29" s="160"/>
+      <c r="D29" s="160"/>
+      <c r="E29" s="160"/>
+      <c r="F29" s="160"/>
+      <c r="G29" s="160"/>
+      <c r="H29" s="160"/>
+      <c r="I29" s="160"/>
+      <c r="J29" s="160"/>
     </row>
     <row r="30" spans="2:10" ht="27" customHeight="1">
-      <c r="B30" s="155" t="s">
+      <c r="B30" s="151" t="s">
         <v>77</v>
       </c>
-      <c r="C30" s="155"/>
-      <c r="D30" s="155"/>
-      <c r="E30" s="155"/>
-      <c r="F30" s="155"/>
-      <c r="G30" s="155"/>
-      <c r="H30" s="155"/>
-      <c r="I30" s="155"/>
-      <c r="J30" s="155"/>
+      <c r="C30" s="151"/>
+      <c r="D30" s="151"/>
+      <c r="E30" s="151"/>
+      <c r="F30" s="151"/>
+      <c r="G30" s="151"/>
+      <c r="H30" s="151"/>
+      <c r="I30" s="151"/>
+      <c r="J30" s="151"/>
     </row>
     <row r="31" spans="2:10" ht="51.75" customHeight="1">
-      <c r="B31" s="156" t="s">
+      <c r="B31" s="160" t="s">
         <v>122</v>
       </c>
-      <c r="C31" s="156"/>
-      <c r="D31" s="156"/>
-      <c r="E31" s="156"/>
-      <c r="F31" s="156"/>
-      <c r="G31" s="156"/>
-      <c r="H31" s="156"/>
-      <c r="I31" s="156"/>
-      <c r="J31" s="156"/>
+      <c r="C31" s="160"/>
+      <c r="D31" s="160"/>
+      <c r="E31" s="160"/>
+      <c r="F31" s="160"/>
+      <c r="G31" s="160"/>
+      <c r="H31" s="160"/>
+      <c r="I31" s="160"/>
+      <c r="J31" s="160"/>
     </row>
     <row r="32" spans="2:10" ht="27" customHeight="1">
-      <c r="B32" s="155" t="s">
+      <c r="B32" s="151" t="s">
         <v>79</v>
       </c>
-      <c r="C32" s="155"/>
-      <c r="D32" s="155"/>
-      <c r="E32" s="155"/>
-      <c r="F32" s="155"/>
-      <c r="G32" s="155"/>
-      <c r="H32" s="155"/>
-      <c r="I32" s="155"/>
-      <c r="J32" s="155"/>
+      <c r="C32" s="151"/>
+      <c r="D32" s="151"/>
+      <c r="E32" s="151"/>
+      <c r="F32" s="151"/>
+      <c r="G32" s="151"/>
+      <c r="H32" s="151"/>
+      <c r="I32" s="151"/>
+      <c r="J32" s="151"/>
     </row>
     <row r="33" spans="2:10" ht="43.5" customHeight="1">
-      <c r="B33" s="180" t="s">
+      <c r="B33" s="182" t="s">
         <v>123</v>
       </c>
-      <c r="C33" s="180"/>
-      <c r="D33" s="180"/>
-      <c r="E33" s="180"/>
-      <c r="F33" s="180"/>
-      <c r="G33" s="180"/>
-      <c r="H33" s="180"/>
-      <c r="I33" s="180"/>
-      <c r="J33" s="180"/>
+      <c r="C33" s="182"/>
+      <c r="D33" s="182"/>
+      <c r="E33" s="182"/>
+      <c r="F33" s="182"/>
+      <c r="G33" s="182"/>
+      <c r="H33" s="182"/>
+      <c r="I33" s="182"/>
+      <c r="J33" s="182"/>
     </row>
     <row r="34" spans="2:10" ht="26.25" customHeight="1">
-      <c r="B34" s="155" t="s">
+      <c r="B34" s="151" t="s">
         <v>81</v>
       </c>
-      <c r="C34" s="155"/>
-      <c r="D34" s="155"/>
-      <c r="E34" s="155"/>
-      <c r="F34" s="155"/>
-      <c r="G34" s="155"/>
-      <c r="H34" s="155"/>
-      <c r="I34" s="155"/>
-      <c r="J34" s="155"/>
+      <c r="C34" s="151"/>
+      <c r="D34" s="151"/>
+      <c r="E34" s="151"/>
+      <c r="F34" s="151"/>
+      <c r="G34" s="151"/>
+      <c r="H34" s="151"/>
+      <c r="I34" s="151"/>
+      <c r="J34" s="151"/>
     </row>
     <row r="35" spans="2:10" ht="57.75" customHeight="1">
-      <c r="B35" s="180" t="s">
+      <c r="B35" s="182" t="s">
         <v>124</v>
       </c>
-      <c r="C35" s="180"/>
-      <c r="D35" s="180"/>
-      <c r="E35" s="180"/>
-      <c r="F35" s="180"/>
-      <c r="G35" s="180"/>
-      <c r="H35" s="180"/>
-      <c r="I35" s="180"/>
-      <c r="J35" s="180"/>
+      <c r="C35" s="182"/>
+      <c r="D35" s="182"/>
+      <c r="E35" s="182"/>
+      <c r="F35" s="182"/>
+      <c r="G35" s="182"/>
+      <c r="H35" s="182"/>
+      <c r="I35" s="182"/>
+      <c r="J35" s="182"/>
     </row>
   </sheetData>
   <mergeCells count="16">
+    <mergeCell ref="B1:J1"/>
+    <mergeCell ref="B2:J2"/>
+    <mergeCell ref="B3:J3"/>
+    <mergeCell ref="B27:J27"/>
+    <mergeCell ref="B28:J28"/>
     <mergeCell ref="B34:J34"/>
     <mergeCell ref="B35:J35"/>
     <mergeCell ref="B5:B24"/>
@@ -10978,11 +11044,6 @@
     <mergeCell ref="B31:J31"/>
     <mergeCell ref="B32:J32"/>
     <mergeCell ref="B33:J33"/>
-    <mergeCell ref="B1:J1"/>
-    <mergeCell ref="B2:J2"/>
-    <mergeCell ref="B3:J3"/>
-    <mergeCell ref="B27:J27"/>
-    <mergeCell ref="B28:J28"/>
   </mergeCells>
   <phoneticPr fontId="22" type="noConversion"/>
   <dataValidations count="1">
@@ -11023,73 +11084,73 @@
   <sheetData>
     <row r="1" spans="1:8" ht="24" customHeight="1">
       <c r="A1" s="2"/>
-      <c r="B1" s="165"/>
-      <c r="C1" s="165"/>
-      <c r="D1" s="165"/>
-      <c r="E1" s="165"/>
-      <c r="F1" s="165"/>
-      <c r="G1" s="165"/>
-      <c r="H1" s="165"/>
+      <c r="B1" s="181"/>
+      <c r="C1" s="181"/>
+      <c r="D1" s="181"/>
+      <c r="E1" s="181"/>
+      <c r="F1" s="181"/>
+      <c r="G1" s="181"/>
+      <c r="H1" s="181"/>
     </row>
     <row r="2" spans="1:8" ht="27.75" customHeight="1">
-      <c r="A2" s="172" t="s">
+      <c r="A2" s="169" t="s">
         <v>83</v>
       </c>
-      <c r="B2" s="172" t="s">
+      <c r="B2" s="169" t="s">
         <v>84</v>
       </c>
-      <c r="C2" s="174" t="s">
+      <c r="C2" s="176" t="s">
         <v>125</v>
       </c>
-      <c r="D2" s="172" t="s">
+      <c r="D2" s="169" t="s">
         <v>86</v>
       </c>
-      <c r="E2" s="176" t="s">
+      <c r="E2" s="171" t="s">
         <v>87</v>
       </c>
-      <c r="F2" s="178" t="s">
+      <c r="F2" s="167" t="s">
         <v>9</v>
       </c>
-      <c r="G2" s="178" t="s">
+      <c r="G2" s="167" t="s">
         <v>88</v>
       </c>
-      <c r="H2" s="178" t="s">
+      <c r="H2" s="167" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="27" customHeight="1">
-      <c r="A3" s="173"/>
-      <c r="B3" s="173"/>
-      <c r="C3" s="175"/>
-      <c r="D3" s="173"/>
-      <c r="E3" s="177"/>
-      <c r="F3" s="179"/>
-      <c r="G3" s="179"/>
-      <c r="H3" s="179"/>
+      <c r="A3" s="170"/>
+      <c r="B3" s="170"/>
+      <c r="C3" s="177"/>
+      <c r="D3" s="170"/>
+      <c r="E3" s="172"/>
+      <c r="F3" s="168"/>
+      <c r="G3" s="168"/>
+      <c r="H3" s="168"/>
     </row>
     <row r="4" spans="1:8" ht="24.75" customHeight="1">
-      <c r="A4" s="166" t="s">
+      <c r="A4" s="178" t="s">
         <v>89</v>
       </c>
-      <c r="B4" s="167"/>
-      <c r="C4" s="167"/>
-      <c r="D4" s="167"/>
-      <c r="E4" s="167"/>
-      <c r="F4" s="167"/>
-      <c r="G4" s="167"/>
-      <c r="H4" s="168"/>
+      <c r="B4" s="179"/>
+      <c r="C4" s="179"/>
+      <c r="D4" s="179"/>
+      <c r="E4" s="179"/>
+      <c r="F4" s="179"/>
+      <c r="G4" s="179"/>
+      <c r="H4" s="180"/>
     </row>
     <row r="5" spans="1:8" ht="30" customHeight="1">
-      <c r="A5" s="169" t="s">
+      <c r="A5" s="173" t="s">
         <v>90</v>
       </c>
-      <c r="B5" s="170"/>
-      <c r="C5" s="170"/>
-      <c r="D5" s="170"/>
-      <c r="E5" s="170"/>
-      <c r="F5" s="170"/>
-      <c r="G5" s="170"/>
-      <c r="H5" s="171"/>
+      <c r="B5" s="174"/>
+      <c r="C5" s="174"/>
+      <c r="D5" s="174"/>
+      <c r="E5" s="174"/>
+      <c r="F5" s="174"/>
+      <c r="G5" s="174"/>
+      <c r="H5" s="175"/>
     </row>
     <row r="6" spans="1:8" ht="30" customHeight="1">
       <c r="A6" s="3"/>
@@ -11231,64 +11292,64 @@
       <c r="G15" s="12"/>
     </row>
     <row r="16" spans="1:8" ht="27.75" customHeight="1">
-      <c r="A16" s="172" t="s">
+      <c r="A16" s="169" t="s">
         <v>83</v>
       </c>
-      <c r="B16" s="172" t="s">
+      <c r="B16" s="169" t="s">
         <v>84</v>
       </c>
-      <c r="C16" s="174" t="s">
+      <c r="C16" s="176" t="s">
         <v>134</v>
       </c>
-      <c r="D16" s="172" t="s">
+      <c r="D16" s="169" t="s">
         <v>86</v>
       </c>
-      <c r="E16" s="176" t="s">
+      <c r="E16" s="171" t="s">
         <v>87</v>
       </c>
-      <c r="F16" s="178" t="s">
+      <c r="F16" s="167" t="s">
         <v>9</v>
       </c>
-      <c r="G16" s="178" t="s">
+      <c r="G16" s="167" t="s">
         <v>88</v>
       </c>
-      <c r="H16" s="178" t="s">
+      <c r="H16" s="167" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="17" spans="1:8" ht="27" customHeight="1">
-      <c r="A17" s="173"/>
-      <c r="B17" s="173"/>
-      <c r="C17" s="175"/>
-      <c r="D17" s="173"/>
-      <c r="E17" s="177"/>
-      <c r="F17" s="179"/>
-      <c r="G17" s="179"/>
-      <c r="H17" s="179"/>
+      <c r="A17" s="170"/>
+      <c r="B17" s="170"/>
+      <c r="C17" s="177"/>
+      <c r="D17" s="170"/>
+      <c r="E17" s="172"/>
+      <c r="F17" s="168"/>
+      <c r="G17" s="168"/>
+      <c r="H17" s="168"/>
     </row>
     <row r="18" spans="1:8" ht="24.75" customHeight="1">
-      <c r="A18" s="166" t="s">
+      <c r="A18" s="178" t="s">
         <v>89</v>
       </c>
-      <c r="B18" s="167"/>
-      <c r="C18" s="167"/>
-      <c r="D18" s="167"/>
-      <c r="E18" s="167"/>
-      <c r="F18" s="167"/>
-      <c r="G18" s="167"/>
-      <c r="H18" s="168"/>
+      <c r="B18" s="179"/>
+      <c r="C18" s="179"/>
+      <c r="D18" s="179"/>
+      <c r="E18" s="179"/>
+      <c r="F18" s="179"/>
+      <c r="G18" s="179"/>
+      <c r="H18" s="180"/>
     </row>
     <row r="19" spans="1:8" ht="30" customHeight="1">
-      <c r="A19" s="169" t="s">
+      <c r="A19" s="173" t="s">
         <v>90</v>
       </c>
-      <c r="B19" s="170"/>
-      <c r="C19" s="170"/>
-      <c r="D19" s="170"/>
-      <c r="E19" s="170"/>
-      <c r="F19" s="170"/>
-      <c r="G19" s="170"/>
-      <c r="H19" s="171"/>
+      <c r="B19" s="174"/>
+      <c r="C19" s="174"/>
+      <c r="D19" s="174"/>
+      <c r="E19" s="174"/>
+      <c r="F19" s="174"/>
+      <c r="G19" s="174"/>
+      <c r="H19" s="175"/>
     </row>
     <row r="20" spans="1:8" ht="30" customHeight="1">
       <c r="A20" s="3"/>
@@ -11418,64 +11479,64 @@
       <c r="G29" s="12"/>
     </row>
     <row r="30" spans="1:8" ht="27.75" customHeight="1">
-      <c r="A30" s="172" t="s">
+      <c r="A30" s="169" t="s">
         <v>83</v>
       </c>
-      <c r="B30" s="172" t="s">
+      <c r="B30" s="169" t="s">
         <v>84</v>
       </c>
-      <c r="C30" s="174" t="s">
+      <c r="C30" s="176" t="s">
         <v>140</v>
       </c>
-      <c r="D30" s="172" t="s">
+      <c r="D30" s="169" t="s">
         <v>86</v>
       </c>
-      <c r="E30" s="176" t="s">
+      <c r="E30" s="171" t="s">
         <v>87</v>
       </c>
-      <c r="F30" s="178" t="s">
+      <c r="F30" s="167" t="s">
         <v>9</v>
       </c>
-      <c r="G30" s="178" t="s">
+      <c r="G30" s="167" t="s">
         <v>88</v>
       </c>
-      <c r="H30" s="178" t="s">
+      <c r="H30" s="167" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="31" spans="1:8" ht="27" customHeight="1">
-      <c r="A31" s="173"/>
-      <c r="B31" s="173"/>
-      <c r="C31" s="175"/>
-      <c r="D31" s="173"/>
-      <c r="E31" s="177"/>
-      <c r="F31" s="179"/>
-      <c r="G31" s="179"/>
-      <c r="H31" s="179"/>
+      <c r="A31" s="170"/>
+      <c r="B31" s="170"/>
+      <c r="C31" s="177"/>
+      <c r="D31" s="170"/>
+      <c r="E31" s="172"/>
+      <c r="F31" s="168"/>
+      <c r="G31" s="168"/>
+      <c r="H31" s="168"/>
     </row>
     <row r="32" spans="1:8" ht="24.75" customHeight="1">
-      <c r="A32" s="166" t="s">
+      <c r="A32" s="178" t="s">
         <v>89</v>
       </c>
-      <c r="B32" s="167"/>
-      <c r="C32" s="167"/>
-      <c r="D32" s="167"/>
-      <c r="E32" s="167"/>
-      <c r="F32" s="167"/>
-      <c r="G32" s="167"/>
-      <c r="H32" s="168"/>
+      <c r="B32" s="179"/>
+      <c r="C32" s="179"/>
+      <c r="D32" s="179"/>
+      <c r="E32" s="179"/>
+      <c r="F32" s="179"/>
+      <c r="G32" s="179"/>
+      <c r="H32" s="180"/>
     </row>
     <row r="33" spans="1:8" ht="30" customHeight="1">
-      <c r="A33" s="169" t="s">
+      <c r="A33" s="173" t="s">
         <v>90</v>
       </c>
-      <c r="B33" s="170"/>
-      <c r="C33" s="170"/>
-      <c r="D33" s="170"/>
-      <c r="E33" s="170"/>
-      <c r="F33" s="170"/>
-      <c r="G33" s="170"/>
-      <c r="H33" s="171"/>
+      <c r="B33" s="174"/>
+      <c r="C33" s="174"/>
+      <c r="D33" s="174"/>
+      <c r="E33" s="174"/>
+      <c r="F33" s="174"/>
+      <c r="G33" s="174"/>
+      <c r="H33" s="175"/>
     </row>
     <row r="34" spans="1:8" ht="30" customHeight="1">
       <c r="A34" s="3"/>
@@ -11605,64 +11666,64 @@
       <c r="G43" s="12"/>
     </row>
     <row r="44" spans="1:8" ht="27.75" customHeight="1">
-      <c r="A44" s="172" t="s">
+      <c r="A44" s="169" t="s">
         <v>83</v>
       </c>
-      <c r="B44" s="172" t="s">
+      <c r="B44" s="169" t="s">
         <v>84</v>
       </c>
-      <c r="C44" s="174" t="s">
+      <c r="C44" s="176" t="s">
         <v>145</v>
       </c>
-      <c r="D44" s="172" t="s">
+      <c r="D44" s="169" t="s">
         <v>86</v>
       </c>
-      <c r="E44" s="176" t="s">
+      <c r="E44" s="171" t="s">
         <v>87</v>
       </c>
-      <c r="F44" s="178" t="s">
+      <c r="F44" s="167" t="s">
         <v>9</v>
       </c>
-      <c r="G44" s="178" t="s">
+      <c r="G44" s="167" t="s">
         <v>88</v>
       </c>
-      <c r="H44" s="178" t="s">
+      <c r="H44" s="167" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="45" spans="1:8" ht="27" customHeight="1">
-      <c r="A45" s="173"/>
-      <c r="B45" s="173"/>
-      <c r="C45" s="175"/>
-      <c r="D45" s="173"/>
-      <c r="E45" s="177"/>
-      <c r="F45" s="179"/>
-      <c r="G45" s="179"/>
-      <c r="H45" s="179"/>
+      <c r="A45" s="170"/>
+      <c r="B45" s="170"/>
+      <c r="C45" s="177"/>
+      <c r="D45" s="170"/>
+      <c r="E45" s="172"/>
+      <c r="F45" s="168"/>
+      <c r="G45" s="168"/>
+      <c r="H45" s="168"/>
     </row>
     <row r="46" spans="1:8" ht="24.75" customHeight="1">
-      <c r="A46" s="166" t="s">
+      <c r="A46" s="178" t="s">
         <v>89</v>
       </c>
-      <c r="B46" s="167"/>
-      <c r="C46" s="167"/>
-      <c r="D46" s="167"/>
-      <c r="E46" s="167"/>
-      <c r="F46" s="167"/>
-      <c r="G46" s="167"/>
-      <c r="H46" s="168"/>
+      <c r="B46" s="179"/>
+      <c r="C46" s="179"/>
+      <c r="D46" s="179"/>
+      <c r="E46" s="179"/>
+      <c r="F46" s="179"/>
+      <c r="G46" s="179"/>
+      <c r="H46" s="180"/>
     </row>
     <row r="47" spans="1:8" ht="30" customHeight="1">
-      <c r="A47" s="169" t="s">
+      <c r="A47" s="173" t="s">
         <v>90</v>
       </c>
-      <c r="B47" s="170"/>
-      <c r="C47" s="170"/>
-      <c r="D47" s="170"/>
-      <c r="E47" s="170"/>
-      <c r="F47" s="170"/>
-      <c r="G47" s="170"/>
-      <c r="H47" s="171"/>
+      <c r="B47" s="174"/>
+      <c r="C47" s="174"/>
+      <c r="D47" s="174"/>
+      <c r="E47" s="174"/>
+      <c r="F47" s="174"/>
+      <c r="G47" s="174"/>
+      <c r="H47" s="175"/>
     </row>
     <row r="48" spans="1:8" ht="30" customHeight="1">
       <c r="A48" s="3"/>
@@ -11793,22 +11854,17 @@
     <row r="57" spans="1:8" ht="66" customHeight="1"/>
   </sheetData>
   <mergeCells count="41">
-    <mergeCell ref="H30:H31"/>
-    <mergeCell ref="H44:H45"/>
-    <mergeCell ref="F30:F31"/>
-    <mergeCell ref="F44:F45"/>
-    <mergeCell ref="G2:G3"/>
-    <mergeCell ref="G16:G17"/>
-    <mergeCell ref="G30:G31"/>
-    <mergeCell ref="G44:G45"/>
-    <mergeCell ref="D30:D31"/>
-    <mergeCell ref="D44:D45"/>
-    <mergeCell ref="E2:E3"/>
-    <mergeCell ref="E16:E17"/>
-    <mergeCell ref="E30:E31"/>
-    <mergeCell ref="E44:E45"/>
-    <mergeCell ref="A32:H32"/>
-    <mergeCell ref="A33:H33"/>
+    <mergeCell ref="B1:H1"/>
+    <mergeCell ref="A4:H4"/>
+    <mergeCell ref="A5:H5"/>
+    <mergeCell ref="A18:H18"/>
+    <mergeCell ref="A19:H19"/>
+    <mergeCell ref="D2:D3"/>
+    <mergeCell ref="D16:D17"/>
+    <mergeCell ref="F2:F3"/>
+    <mergeCell ref="F16:F17"/>
+    <mergeCell ref="H2:H3"/>
+    <mergeCell ref="H16:H17"/>
     <mergeCell ref="A46:H46"/>
     <mergeCell ref="A47:H47"/>
     <mergeCell ref="A2:A3"/>
@@ -11823,17 +11879,22 @@
     <mergeCell ref="C16:C17"/>
     <mergeCell ref="C30:C31"/>
     <mergeCell ref="C44:C45"/>
-    <mergeCell ref="B1:H1"/>
-    <mergeCell ref="A4:H4"/>
-    <mergeCell ref="A5:H5"/>
-    <mergeCell ref="A18:H18"/>
-    <mergeCell ref="A19:H19"/>
-    <mergeCell ref="D2:D3"/>
-    <mergeCell ref="D16:D17"/>
-    <mergeCell ref="F2:F3"/>
-    <mergeCell ref="F16:F17"/>
-    <mergeCell ref="H2:H3"/>
-    <mergeCell ref="H16:H17"/>
+    <mergeCell ref="D30:D31"/>
+    <mergeCell ref="D44:D45"/>
+    <mergeCell ref="E2:E3"/>
+    <mergeCell ref="E16:E17"/>
+    <mergeCell ref="E30:E31"/>
+    <mergeCell ref="E44:E45"/>
+    <mergeCell ref="A32:H32"/>
+    <mergeCell ref="A33:H33"/>
+    <mergeCell ref="H30:H31"/>
+    <mergeCell ref="H44:H45"/>
+    <mergeCell ref="F30:F31"/>
+    <mergeCell ref="F44:F45"/>
+    <mergeCell ref="G2:G3"/>
+    <mergeCell ref="G16:G17"/>
+    <mergeCell ref="G30:G31"/>
+    <mergeCell ref="G44:G45"/>
   </mergeCells>
   <phoneticPr fontId="22" type="noConversion"/>
   <dataValidations count="1">
@@ -11877,43 +11938,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:10" ht="14.25" customHeight="1">
-      <c r="B1" s="149" t="s">
+      <c r="B1" s="161" t="s">
         <v>47</v>
       </c>
-      <c r="C1" s="149"/>
-      <c r="D1" s="149"/>
-      <c r="E1" s="149"/>
-      <c r="F1" s="149"/>
-      <c r="G1" s="149"/>
-      <c r="H1" s="149"/>
-      <c r="I1" s="149"/>
-      <c r="J1" s="149"/>
+      <c r="C1" s="161"/>
+      <c r="D1" s="161"/>
+      <c r="E1" s="161"/>
+      <c r="F1" s="161"/>
+      <c r="G1" s="161"/>
+      <c r="H1" s="161"/>
+      <c r="I1" s="161"/>
+      <c r="J1" s="161"/>
     </row>
     <row r="2" spans="2:10" ht="49.5" customHeight="1">
-      <c r="B2" s="150" t="s">
+      <c r="B2" s="162" t="s">
         <v>150</v>
       </c>
-      <c r="C2" s="151"/>
-      <c r="D2" s="151"/>
-      <c r="E2" s="151"/>
-      <c r="F2" s="151"/>
-      <c r="G2" s="151"/>
-      <c r="H2" s="151"/>
-      <c r="I2" s="151"/>
-      <c r="J2" s="151"/>
+      <c r="C2" s="163"/>
+      <c r="D2" s="163"/>
+      <c r="E2" s="163"/>
+      <c r="F2" s="163"/>
+      <c r="G2" s="163"/>
+      <c r="H2" s="163"/>
+      <c r="I2" s="163"/>
+      <c r="J2" s="163"/>
     </row>
     <row r="3" spans="2:10" ht="30.75" customHeight="1">
-      <c r="B3" s="152" t="s">
+      <c r="B3" s="164" t="s">
         <v>49</v>
       </c>
-      <c r="C3" s="153"/>
-      <c r="D3" s="153"/>
-      <c r="E3" s="153"/>
-      <c r="F3" s="153"/>
-      <c r="G3" s="153"/>
-      <c r="H3" s="153"/>
-      <c r="I3" s="153"/>
-      <c r="J3" s="153"/>
+      <c r="C3" s="165"/>
+      <c r="D3" s="165"/>
+      <c r="E3" s="165"/>
+      <c r="F3" s="165"/>
+      <c r="G3" s="165"/>
+      <c r="H3" s="165"/>
+      <c r="I3" s="165"/>
+      <c r="J3" s="165"/>
     </row>
     <row r="4" spans="2:10" ht="36.75" customHeight="1">
       <c r="B4" s="16" t="s">
@@ -11945,10 +12006,10 @@
       </c>
     </row>
     <row r="5" spans="2:10" ht="28.5" customHeight="1">
-      <c r="B5" s="160" t="s">
+      <c r="B5" s="155" t="s">
         <v>56</v>
       </c>
-      <c r="C5" s="162" t="s">
+      <c r="C5" s="157" t="s">
         <v>57</v>
       </c>
       <c r="D5" s="19">
@@ -11964,8 +12025,8 @@
       <c r="J5" s="6"/>
     </row>
     <row r="6" spans="2:10" ht="28.5" customHeight="1">
-      <c r="B6" s="161"/>
-      <c r="C6" s="163"/>
+      <c r="B6" s="156"/>
+      <c r="C6" s="158"/>
       <c r="D6" s="19">
         <v>2</v>
       </c>
@@ -11979,8 +12040,8 @@
       <c r="J6" s="6"/>
     </row>
     <row r="7" spans="2:10" ht="28.5" customHeight="1">
-      <c r="B7" s="161"/>
-      <c r="C7" s="163"/>
+      <c r="B7" s="156"/>
+      <c r="C7" s="158"/>
       <c r="D7" s="19">
         <v>3</v>
       </c>
@@ -11994,8 +12055,8 @@
       <c r="J7" s="6"/>
     </row>
     <row r="8" spans="2:10" ht="28.5" customHeight="1">
-      <c r="B8" s="161"/>
-      <c r="C8" s="163"/>
+      <c r="B8" s="156"/>
+      <c r="C8" s="158"/>
       <c r="D8" s="19">
         <v>4</v>
       </c>
@@ -12007,8 +12068,8 @@
       <c r="J8" s="6"/>
     </row>
     <row r="9" spans="2:10" ht="28.5" customHeight="1">
-      <c r="B9" s="161"/>
-      <c r="C9" s="163"/>
+      <c r="B9" s="156"/>
+      <c r="C9" s="158"/>
       <c r="D9" s="19">
         <v>5</v>
       </c>
@@ -12020,8 +12081,8 @@
       <c r="J9" s="6"/>
     </row>
     <row r="10" spans="2:10" ht="28.5" customHeight="1">
-      <c r="B10" s="161"/>
-      <c r="C10" s="163"/>
+      <c r="B10" s="156"/>
+      <c r="C10" s="158"/>
       <c r="D10" s="19">
         <v>6</v>
       </c>
@@ -12033,8 +12094,8 @@
       <c r="J10" s="6"/>
     </row>
     <row r="11" spans="2:10" ht="28.5" customHeight="1">
-      <c r="B11" s="161"/>
-      <c r="C11" s="163"/>
+      <c r="B11" s="156"/>
+      <c r="C11" s="158"/>
       <c r="D11" s="19">
         <v>7</v>
       </c>
@@ -12046,8 +12107,8 @@
       <c r="J11" s="6"/>
     </row>
     <row r="12" spans="2:10" ht="28.5" customHeight="1">
-      <c r="B12" s="161"/>
-      <c r="C12" s="163"/>
+      <c r="B12" s="156"/>
+      <c r="C12" s="158"/>
       <c r="D12" s="19">
         <v>8</v>
       </c>
@@ -12059,8 +12120,8 @@
       <c r="J12" s="6"/>
     </row>
     <row r="13" spans="2:10" ht="28.5" customHeight="1">
-      <c r="B13" s="161"/>
-      <c r="C13" s="164"/>
+      <c r="B13" s="156"/>
+      <c r="C13" s="159"/>
       <c r="D13" s="19">
         <v>9</v>
       </c>
@@ -12072,8 +12133,8 @@
       <c r="J13" s="23"/>
     </row>
     <row r="14" spans="2:10" ht="28.5" customHeight="1">
-      <c r="B14" s="161"/>
-      <c r="C14" s="162" t="s">
+      <c r="B14" s="156"/>
+      <c r="C14" s="157" t="s">
         <v>66</v>
       </c>
       <c r="D14" s="19">
@@ -12087,8 +12148,8 @@
       <c r="J14" s="6"/>
     </row>
     <row r="15" spans="2:10" ht="28.5" customHeight="1">
-      <c r="B15" s="161"/>
-      <c r="C15" s="163"/>
+      <c r="B15" s="156"/>
+      <c r="C15" s="158"/>
       <c r="D15" s="19">
         <v>2</v>
       </c>
@@ -12100,8 +12161,8 @@
       <c r="J15" s="6"/>
     </row>
     <row r="16" spans="2:10" ht="28.5" customHeight="1">
-      <c r="B16" s="161"/>
-      <c r="C16" s="163"/>
+      <c r="B16" s="156"/>
+      <c r="C16" s="158"/>
       <c r="D16" s="19">
         <v>3</v>
       </c>
@@ -12113,8 +12174,8 @@
       <c r="J16" s="6"/>
     </row>
     <row r="17" spans="2:10" ht="28.5" customHeight="1">
-      <c r="B17" s="161"/>
-      <c r="C17" s="163"/>
+      <c r="B17" s="156"/>
+      <c r="C17" s="158"/>
       <c r="D17" s="19">
         <v>4</v>
       </c>
@@ -12126,8 +12187,8 @@
       <c r="J17" s="6"/>
     </row>
     <row r="18" spans="2:10" ht="28.5" customHeight="1">
-      <c r="B18" s="161"/>
-      <c r="C18" s="163"/>
+      <c r="B18" s="156"/>
+      <c r="C18" s="158"/>
       <c r="D18" s="19">
         <v>5</v>
       </c>
@@ -12139,8 +12200,8 @@
       <c r="J18" s="6"/>
     </row>
     <row r="19" spans="2:10" ht="28.5" customHeight="1">
-      <c r="B19" s="161"/>
-      <c r="C19" s="164"/>
+      <c r="B19" s="156"/>
+      <c r="C19" s="159"/>
       <c r="D19" s="19">
         <v>6</v>
       </c>
@@ -12152,8 +12213,8 @@
       <c r="J19" s="6"/>
     </row>
     <row r="20" spans="2:10" ht="28.5" customHeight="1">
-      <c r="B20" s="161"/>
-      <c r="C20" s="162" t="s">
+      <c r="B20" s="156"/>
+      <c r="C20" s="157" t="s">
         <v>73</v>
       </c>
       <c r="D20" s="19">
@@ -12167,8 +12228,8 @@
       <c r="J20" s="6"/>
     </row>
     <row r="21" spans="2:10" ht="28.5" customHeight="1">
-      <c r="B21" s="161"/>
-      <c r="C21" s="163"/>
+      <c r="B21" s="156"/>
+      <c r="C21" s="158"/>
       <c r="D21" s="19">
         <v>2</v>
       </c>
@@ -12180,8 +12241,8 @@
       <c r="J21" s="6"/>
     </row>
     <row r="22" spans="2:10" ht="28.5" customHeight="1">
-      <c r="B22" s="161"/>
-      <c r="C22" s="163"/>
+      <c r="B22" s="156"/>
+      <c r="C22" s="158"/>
       <c r="D22" s="19">
         <v>3</v>
       </c>
@@ -12193,8 +12254,8 @@
       <c r="J22" s="6"/>
     </row>
     <row r="23" spans="2:10" ht="28.5" customHeight="1">
-      <c r="B23" s="161"/>
-      <c r="C23" s="163"/>
+      <c r="B23" s="156"/>
+      <c r="C23" s="158"/>
       <c r="D23" s="19">
         <v>4</v>
       </c>
@@ -12206,8 +12267,8 @@
       <c r="J23" s="6"/>
     </row>
     <row r="24" spans="2:10" ht="28.5" customHeight="1">
-      <c r="B24" s="161"/>
-      <c r="C24" s="163"/>
+      <c r="B24" s="156"/>
+      <c r="C24" s="158"/>
       <c r="D24" s="19">
         <v>5</v>
       </c>
@@ -12220,7 +12281,7 @@
     </row>
     <row r="25" spans="2:10" ht="28.5" customHeight="1">
       <c r="B25" s="20"/>
-      <c r="C25" s="164"/>
+      <c r="C25" s="159"/>
       <c r="D25" s="19">
         <v>6</v>
       </c>
@@ -12233,118 +12294,123 @@
     </row>
     <row r="26" spans="2:10" ht="8.25" customHeight="1"/>
     <row r="27" spans="2:10" ht="36.75" customHeight="1">
-      <c r="B27" s="154" t="s">
+      <c r="B27" s="166" t="s">
         <v>74</v>
       </c>
-      <c r="C27" s="154"/>
-      <c r="D27" s="154"/>
-      <c r="E27" s="154"/>
-      <c r="F27" s="154"/>
-      <c r="G27" s="154"/>
-      <c r="H27" s="154"/>
-      <c r="I27" s="154"/>
-      <c r="J27" s="154"/>
+      <c r="C27" s="166"/>
+      <c r="D27" s="166"/>
+      <c r="E27" s="166"/>
+      <c r="F27" s="166"/>
+      <c r="G27" s="166"/>
+      <c r="H27" s="166"/>
+      <c r="I27" s="166"/>
+      <c r="J27" s="166"/>
     </row>
     <row r="28" spans="2:10" ht="26.25" customHeight="1">
-      <c r="B28" s="155" t="s">
+      <c r="B28" s="151" t="s">
         <v>75</v>
       </c>
-      <c r="C28" s="155"/>
-      <c r="D28" s="155"/>
-      <c r="E28" s="155"/>
-      <c r="F28" s="155"/>
-      <c r="G28" s="155"/>
-      <c r="H28" s="155"/>
-      <c r="I28" s="155"/>
-      <c r="J28" s="155"/>
+      <c r="C28" s="151"/>
+      <c r="D28" s="151"/>
+      <c r="E28" s="151"/>
+      <c r="F28" s="151"/>
+      <c r="G28" s="151"/>
+      <c r="H28" s="151"/>
+      <c r="I28" s="151"/>
+      <c r="J28" s="151"/>
     </row>
     <row r="29" spans="2:10" ht="50.25" customHeight="1">
-      <c r="B29" s="156"/>
-      <c r="C29" s="156"/>
-      <c r="D29" s="156"/>
-      <c r="E29" s="156"/>
-      <c r="F29" s="156"/>
-      <c r="G29" s="156"/>
-      <c r="H29" s="156"/>
-      <c r="I29" s="156"/>
-      <c r="J29" s="156"/>
+      <c r="B29" s="160"/>
+      <c r="C29" s="160"/>
+      <c r="D29" s="160"/>
+      <c r="E29" s="160"/>
+      <c r="F29" s="160"/>
+      <c r="G29" s="160"/>
+      <c r="H29" s="160"/>
+      <c r="I29" s="160"/>
+      <c r="J29" s="160"/>
     </row>
     <row r="30" spans="2:10" ht="27" customHeight="1">
-      <c r="B30" s="155" t="s">
+      <c r="B30" s="151" t="s">
         <v>77</v>
       </c>
-      <c r="C30" s="155"/>
-      <c r="D30" s="155"/>
-      <c r="E30" s="155"/>
-      <c r="F30" s="155"/>
-      <c r="G30" s="155"/>
-      <c r="H30" s="155"/>
-      <c r="I30" s="155"/>
-      <c r="J30" s="155"/>
+      <c r="C30" s="151"/>
+      <c r="D30" s="151"/>
+      <c r="E30" s="151"/>
+      <c r="F30" s="151"/>
+      <c r="G30" s="151"/>
+      <c r="H30" s="151"/>
+      <c r="I30" s="151"/>
+      <c r="J30" s="151"/>
     </row>
     <row r="31" spans="2:10" ht="51.75" customHeight="1">
-      <c r="B31" s="156" t="s">
+      <c r="B31" s="160" t="s">
         <v>154</v>
       </c>
-      <c r="C31" s="156"/>
-      <c r="D31" s="156"/>
-      <c r="E31" s="156"/>
-      <c r="F31" s="156"/>
-      <c r="G31" s="156"/>
-      <c r="H31" s="156"/>
-      <c r="I31" s="156"/>
-      <c r="J31" s="156"/>
+      <c r="C31" s="160"/>
+      <c r="D31" s="160"/>
+      <c r="E31" s="160"/>
+      <c r="F31" s="160"/>
+      <c r="G31" s="160"/>
+      <c r="H31" s="160"/>
+      <c r="I31" s="160"/>
+      <c r="J31" s="160"/>
     </row>
     <row r="32" spans="2:10" ht="27" customHeight="1">
-      <c r="B32" s="155" t="s">
+      <c r="B32" s="151" t="s">
         <v>79</v>
       </c>
-      <c r="C32" s="155"/>
-      <c r="D32" s="155"/>
-      <c r="E32" s="155"/>
-      <c r="F32" s="155"/>
-      <c r="G32" s="155"/>
-      <c r="H32" s="155"/>
-      <c r="I32" s="155"/>
-      <c r="J32" s="155"/>
+      <c r="C32" s="151"/>
+      <c r="D32" s="151"/>
+      <c r="E32" s="151"/>
+      <c r="F32" s="151"/>
+      <c r="G32" s="151"/>
+      <c r="H32" s="151"/>
+      <c r="I32" s="151"/>
+      <c r="J32" s="151"/>
     </row>
     <row r="33" spans="2:10" ht="43.5" customHeight="1">
-      <c r="B33" s="180"/>
-      <c r="C33" s="180"/>
-      <c r="D33" s="180"/>
-      <c r="E33" s="180"/>
-      <c r="F33" s="180"/>
-      <c r="G33" s="180"/>
-      <c r="H33" s="180"/>
-      <c r="I33" s="180"/>
-      <c r="J33" s="180"/>
+      <c r="B33" s="182"/>
+      <c r="C33" s="182"/>
+      <c r="D33" s="182"/>
+      <c r="E33" s="182"/>
+      <c r="F33" s="182"/>
+      <c r="G33" s="182"/>
+      <c r="H33" s="182"/>
+      <c r="I33" s="182"/>
+      <c r="J33" s="182"/>
     </row>
     <row r="34" spans="2:10" ht="26.25" customHeight="1">
-      <c r="B34" s="155" t="s">
+      <c r="B34" s="151" t="s">
         <v>81</v>
       </c>
-      <c r="C34" s="155"/>
-      <c r="D34" s="155"/>
-      <c r="E34" s="155"/>
-      <c r="F34" s="155"/>
-      <c r="G34" s="155"/>
-      <c r="H34" s="155"/>
-      <c r="I34" s="155"/>
-      <c r="J34" s="155"/>
+      <c r="C34" s="151"/>
+      <c r="D34" s="151"/>
+      <c r="E34" s="151"/>
+      <c r="F34" s="151"/>
+      <c r="G34" s="151"/>
+      <c r="H34" s="151"/>
+      <c r="I34" s="151"/>
+      <c r="J34" s="151"/>
     </row>
     <row r="35" spans="2:10" ht="57.75" customHeight="1">
-      <c r="B35" s="180"/>
-      <c r="C35" s="180"/>
-      <c r="D35" s="180"/>
-      <c r="E35" s="180"/>
-      <c r="F35" s="180"/>
-      <c r="G35" s="180"/>
-      <c r="H35" s="180"/>
-      <c r="I35" s="180"/>
-      <c r="J35" s="180"/>
+      <c r="B35" s="182"/>
+      <c r="C35" s="182"/>
+      <c r="D35" s="182"/>
+      <c r="E35" s="182"/>
+      <c r="F35" s="182"/>
+      <c r="G35" s="182"/>
+      <c r="H35" s="182"/>
+      <c r="I35" s="182"/>
+      <c r="J35" s="182"/>
     </row>
   </sheetData>
   <mergeCells count="16">
+    <mergeCell ref="B1:J1"/>
+    <mergeCell ref="B2:J2"/>
+    <mergeCell ref="B3:J3"/>
+    <mergeCell ref="B27:J27"/>
+    <mergeCell ref="B28:J28"/>
     <mergeCell ref="B34:J34"/>
     <mergeCell ref="B35:J35"/>
     <mergeCell ref="B5:B24"/>
@@ -12356,11 +12422,6 @@
     <mergeCell ref="B31:J31"/>
     <mergeCell ref="B32:J32"/>
     <mergeCell ref="B33:J33"/>
-    <mergeCell ref="B1:J1"/>
-    <mergeCell ref="B2:J2"/>
-    <mergeCell ref="B3:J3"/>
-    <mergeCell ref="B27:J27"/>
-    <mergeCell ref="B28:J28"/>
   </mergeCells>
   <phoneticPr fontId="22" type="noConversion"/>
   <dataValidations count="1">
@@ -12401,73 +12462,73 @@
   <sheetData>
     <row r="1" spans="1:8" ht="24" customHeight="1">
       <c r="A1" s="2"/>
-      <c r="B1" s="165"/>
-      <c r="C1" s="165"/>
-      <c r="D1" s="165"/>
-      <c r="E1" s="165"/>
-      <c r="F1" s="165"/>
-      <c r="G1" s="165"/>
-      <c r="H1" s="165"/>
+      <c r="B1" s="181"/>
+      <c r="C1" s="181"/>
+      <c r="D1" s="181"/>
+      <c r="E1" s="181"/>
+      <c r="F1" s="181"/>
+      <c r="G1" s="181"/>
+      <c r="H1" s="181"/>
     </row>
     <row r="2" spans="1:8" ht="27.75" customHeight="1">
-      <c r="A2" s="172" t="s">
+      <c r="A2" s="169" t="s">
         <v>83</v>
       </c>
-      <c r="B2" s="172" t="s">
+      <c r="B2" s="169" t="s">
         <v>84</v>
       </c>
-      <c r="C2" s="174" t="s">
+      <c r="C2" s="176" t="s">
         <v>155</v>
       </c>
-      <c r="D2" s="172" t="s">
+      <c r="D2" s="169" t="s">
         <v>86</v>
       </c>
-      <c r="E2" s="176" t="s">
+      <c r="E2" s="171" t="s">
         <v>87</v>
       </c>
-      <c r="F2" s="178" t="s">
+      <c r="F2" s="167" t="s">
         <v>9</v>
       </c>
-      <c r="G2" s="178" t="s">
+      <c r="G2" s="167" t="s">
         <v>88</v>
       </c>
-      <c r="H2" s="178" t="s">
+      <c r="H2" s="167" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="27" customHeight="1">
-      <c r="A3" s="173"/>
-      <c r="B3" s="173"/>
-      <c r="C3" s="175"/>
-      <c r="D3" s="173"/>
-      <c r="E3" s="177"/>
-      <c r="F3" s="179"/>
-      <c r="G3" s="179"/>
-      <c r="H3" s="179"/>
+      <c r="A3" s="170"/>
+      <c r="B3" s="170"/>
+      <c r="C3" s="177"/>
+      <c r="D3" s="170"/>
+      <c r="E3" s="172"/>
+      <c r="F3" s="168"/>
+      <c r="G3" s="168"/>
+      <c r="H3" s="168"/>
     </row>
     <row r="4" spans="1:8" ht="24.75" customHeight="1">
-      <c r="A4" s="166" t="s">
+      <c r="A4" s="178" t="s">
         <v>89</v>
       </c>
-      <c r="B4" s="167"/>
-      <c r="C4" s="167"/>
-      <c r="D4" s="167"/>
-      <c r="E4" s="167"/>
-      <c r="F4" s="167"/>
-      <c r="G4" s="167"/>
-      <c r="H4" s="168"/>
+      <c r="B4" s="179"/>
+      <c r="C4" s="179"/>
+      <c r="D4" s="179"/>
+      <c r="E4" s="179"/>
+      <c r="F4" s="179"/>
+      <c r="G4" s="179"/>
+      <c r="H4" s="180"/>
     </row>
     <row r="5" spans="1:8" ht="30" customHeight="1">
-      <c r="A5" s="169" t="s">
+      <c r="A5" s="173" t="s">
         <v>90</v>
       </c>
-      <c r="B5" s="170"/>
-      <c r="C5" s="170"/>
-      <c r="D5" s="170"/>
-      <c r="E5" s="170"/>
-      <c r="F5" s="170"/>
-      <c r="G5" s="170"/>
-      <c r="H5" s="171"/>
+      <c r="B5" s="174"/>
+      <c r="C5" s="174"/>
+      <c r="D5" s="174"/>
+      <c r="E5" s="174"/>
+      <c r="F5" s="174"/>
+      <c r="G5" s="174"/>
+      <c r="H5" s="175"/>
     </row>
     <row r="6" spans="1:8" ht="30" customHeight="1">
       <c r="A6" s="3"/>
@@ -12585,64 +12646,64 @@
       <c r="G15" s="12"/>
     </row>
     <row r="16" spans="1:8" ht="27.75" customHeight="1">
-      <c r="A16" s="172" t="s">
+      <c r="A16" s="169" t="s">
         <v>83</v>
       </c>
-      <c r="B16" s="172" t="s">
+      <c r="B16" s="169" t="s">
         <v>84</v>
       </c>
-      <c r="C16" s="174" t="s">
+      <c r="C16" s="176" t="s">
         <v>156</v>
       </c>
-      <c r="D16" s="172" t="s">
+      <c r="D16" s="169" t="s">
         <v>86</v>
       </c>
-      <c r="E16" s="176" t="s">
+      <c r="E16" s="171" t="s">
         <v>87</v>
       </c>
-      <c r="F16" s="178" t="s">
+      <c r="F16" s="167" t="s">
         <v>9</v>
       </c>
-      <c r="G16" s="178" t="s">
+      <c r="G16" s="167" t="s">
         <v>88</v>
       </c>
-      <c r="H16" s="178" t="s">
+      <c r="H16" s="167" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="17" spans="1:8" ht="27" customHeight="1">
-      <c r="A17" s="173"/>
-      <c r="B17" s="173"/>
-      <c r="C17" s="175"/>
-      <c r="D17" s="173"/>
-      <c r="E17" s="177"/>
-      <c r="F17" s="179"/>
-      <c r="G17" s="179"/>
-      <c r="H17" s="179"/>
+      <c r="A17" s="170"/>
+      <c r="B17" s="170"/>
+      <c r="C17" s="177"/>
+      <c r="D17" s="170"/>
+      <c r="E17" s="172"/>
+      <c r="F17" s="168"/>
+      <c r="G17" s="168"/>
+      <c r="H17" s="168"/>
     </row>
     <row r="18" spans="1:8" ht="24.75" customHeight="1">
-      <c r="A18" s="166" t="s">
+      <c r="A18" s="178" t="s">
         <v>89</v>
       </c>
-      <c r="B18" s="167"/>
-      <c r="C18" s="167"/>
-      <c r="D18" s="167"/>
-      <c r="E18" s="167"/>
-      <c r="F18" s="167"/>
-      <c r="G18" s="167"/>
-      <c r="H18" s="168"/>
+      <c r="B18" s="179"/>
+      <c r="C18" s="179"/>
+      <c r="D18" s="179"/>
+      <c r="E18" s="179"/>
+      <c r="F18" s="179"/>
+      <c r="G18" s="179"/>
+      <c r="H18" s="180"/>
     </row>
     <row r="19" spans="1:8" ht="30" customHeight="1">
-      <c r="A19" s="169" t="s">
+      <c r="A19" s="173" t="s">
         <v>90</v>
       </c>
-      <c r="B19" s="170"/>
-      <c r="C19" s="170"/>
-      <c r="D19" s="170"/>
-      <c r="E19" s="170"/>
-      <c r="F19" s="170"/>
-      <c r="G19" s="170"/>
-      <c r="H19" s="171"/>
+      <c r="B19" s="174"/>
+      <c r="C19" s="174"/>
+      <c r="D19" s="174"/>
+      <c r="E19" s="174"/>
+      <c r="F19" s="174"/>
+      <c r="G19" s="174"/>
+      <c r="H19" s="175"/>
     </row>
     <row r="20" spans="1:8" ht="30" customHeight="1">
       <c r="A20" s="3"/>
@@ -12784,64 +12845,64 @@
       <c r="G29" s="12"/>
     </row>
     <row r="30" spans="1:8" ht="27.75" customHeight="1">
-      <c r="A30" s="172" t="s">
+      <c r="A30" s="169" t="s">
         <v>83</v>
       </c>
-      <c r="B30" s="172" t="s">
+      <c r="B30" s="169" t="s">
         <v>84</v>
       </c>
-      <c r="C30" s="174" t="s">
+      <c r="C30" s="176" t="s">
         <v>165</v>
       </c>
-      <c r="D30" s="172" t="s">
+      <c r="D30" s="169" t="s">
         <v>86</v>
       </c>
-      <c r="E30" s="176" t="s">
+      <c r="E30" s="171" t="s">
         <v>87</v>
       </c>
-      <c r="F30" s="178" t="s">
+      <c r="F30" s="167" t="s">
         <v>9</v>
       </c>
-      <c r="G30" s="178" t="s">
+      <c r="G30" s="167" t="s">
         <v>88</v>
       </c>
-      <c r="H30" s="178" t="s">
+      <c r="H30" s="167" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="31" spans="1:8" ht="27" customHeight="1">
-      <c r="A31" s="173"/>
-      <c r="B31" s="173"/>
-      <c r="C31" s="175"/>
-      <c r="D31" s="173"/>
-      <c r="E31" s="177"/>
-      <c r="F31" s="179"/>
-      <c r="G31" s="179"/>
-      <c r="H31" s="179"/>
+      <c r="A31" s="170"/>
+      <c r="B31" s="170"/>
+      <c r="C31" s="177"/>
+      <c r="D31" s="170"/>
+      <c r="E31" s="172"/>
+      <c r="F31" s="168"/>
+      <c r="G31" s="168"/>
+      <c r="H31" s="168"/>
     </row>
     <row r="32" spans="1:8" ht="24.75" customHeight="1">
-      <c r="A32" s="166" t="s">
+      <c r="A32" s="178" t="s">
         <v>89</v>
       </c>
-      <c r="B32" s="167"/>
-      <c r="C32" s="167"/>
-      <c r="D32" s="167"/>
-      <c r="E32" s="167"/>
-      <c r="F32" s="167"/>
-      <c r="G32" s="167"/>
-      <c r="H32" s="168"/>
+      <c r="B32" s="179"/>
+      <c r="C32" s="179"/>
+      <c r="D32" s="179"/>
+      <c r="E32" s="179"/>
+      <c r="F32" s="179"/>
+      <c r="G32" s="179"/>
+      <c r="H32" s="180"/>
     </row>
     <row r="33" spans="1:8" ht="30" customHeight="1">
-      <c r="A33" s="169" t="s">
+      <c r="A33" s="173" t="s">
         <v>90</v>
       </c>
-      <c r="B33" s="170"/>
-      <c r="C33" s="170"/>
-      <c r="D33" s="170"/>
-      <c r="E33" s="170"/>
-      <c r="F33" s="170"/>
-      <c r="G33" s="170"/>
-      <c r="H33" s="171"/>
+      <c r="B33" s="174"/>
+      <c r="C33" s="174"/>
+      <c r="D33" s="174"/>
+      <c r="E33" s="174"/>
+      <c r="F33" s="174"/>
+      <c r="G33" s="174"/>
+      <c r="H33" s="175"/>
     </row>
     <row r="34" spans="1:8" ht="30" customHeight="1">
       <c r="A34" s="3"/>
@@ -12983,64 +13044,64 @@
       <c r="G43" s="12"/>
     </row>
     <row r="44" spans="1:8" ht="27.75" customHeight="1">
-      <c r="A44" s="172" t="s">
+      <c r="A44" s="169" t="s">
         <v>83</v>
       </c>
-      <c r="B44" s="172" t="s">
+      <c r="B44" s="169" t="s">
         <v>84</v>
       </c>
-      <c r="C44" s="174" t="s">
+      <c r="C44" s="176" t="s">
         <v>174</v>
       </c>
-      <c r="D44" s="172" t="s">
+      <c r="D44" s="169" t="s">
         <v>86</v>
       </c>
-      <c r="E44" s="176" t="s">
+      <c r="E44" s="171" t="s">
         <v>87</v>
       </c>
-      <c r="F44" s="178" t="s">
+      <c r="F44" s="167" t="s">
         <v>9</v>
       </c>
-      <c r="G44" s="178" t="s">
+      <c r="G44" s="167" t="s">
         <v>88</v>
       </c>
-      <c r="H44" s="178" t="s">
+      <c r="H44" s="167" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="45" spans="1:8" ht="27" customHeight="1">
-      <c r="A45" s="173"/>
-      <c r="B45" s="173"/>
-      <c r="C45" s="175"/>
-      <c r="D45" s="173"/>
-      <c r="E45" s="177"/>
-      <c r="F45" s="179"/>
-      <c r="G45" s="179"/>
-      <c r="H45" s="179"/>
+      <c r="A45" s="170"/>
+      <c r="B45" s="170"/>
+      <c r="C45" s="177"/>
+      <c r="D45" s="170"/>
+      <c r="E45" s="172"/>
+      <c r="F45" s="168"/>
+      <c r="G45" s="168"/>
+      <c r="H45" s="168"/>
     </row>
     <row r="46" spans="1:8" ht="24.75" customHeight="1">
-      <c r="A46" s="166" t="s">
+      <c r="A46" s="178" t="s">
         <v>89</v>
       </c>
-      <c r="B46" s="167"/>
-      <c r="C46" s="167"/>
-      <c r="D46" s="167"/>
-      <c r="E46" s="167"/>
-      <c r="F46" s="167"/>
-      <c r="G46" s="167"/>
-      <c r="H46" s="168"/>
+      <c r="B46" s="179"/>
+      <c r="C46" s="179"/>
+      <c r="D46" s="179"/>
+      <c r="E46" s="179"/>
+      <c r="F46" s="179"/>
+      <c r="G46" s="179"/>
+      <c r="H46" s="180"/>
     </row>
     <row r="47" spans="1:8" ht="30" customHeight="1">
-      <c r="A47" s="169" t="s">
+      <c r="A47" s="173" t="s">
         <v>90</v>
       </c>
-      <c r="B47" s="170"/>
-      <c r="C47" s="170"/>
-      <c r="D47" s="170"/>
-      <c r="E47" s="170"/>
-      <c r="F47" s="170"/>
-      <c r="G47" s="170"/>
-      <c r="H47" s="171"/>
+      <c r="B47" s="174"/>
+      <c r="C47" s="174"/>
+      <c r="D47" s="174"/>
+      <c r="E47" s="174"/>
+      <c r="F47" s="174"/>
+      <c r="G47" s="174"/>
+      <c r="H47" s="175"/>
     </row>
     <row r="48" spans="1:8" ht="30" customHeight="1">
       <c r="A48" s="3"/>
@@ -13170,22 +13231,17 @@
     </row>
   </sheetData>
   <mergeCells count="41">
-    <mergeCell ref="H30:H31"/>
-    <mergeCell ref="H44:H45"/>
-    <mergeCell ref="F30:F31"/>
-    <mergeCell ref="F44:F45"/>
-    <mergeCell ref="G2:G3"/>
-    <mergeCell ref="G16:G17"/>
-    <mergeCell ref="G30:G31"/>
-    <mergeCell ref="G44:G45"/>
-    <mergeCell ref="D30:D31"/>
-    <mergeCell ref="D44:D45"/>
-    <mergeCell ref="E2:E3"/>
-    <mergeCell ref="E16:E17"/>
-    <mergeCell ref="E30:E31"/>
-    <mergeCell ref="E44:E45"/>
-    <mergeCell ref="A32:H32"/>
-    <mergeCell ref="A33:H33"/>
+    <mergeCell ref="B1:H1"/>
+    <mergeCell ref="A4:H4"/>
+    <mergeCell ref="A5:H5"/>
+    <mergeCell ref="A18:H18"/>
+    <mergeCell ref="A19:H19"/>
+    <mergeCell ref="D2:D3"/>
+    <mergeCell ref="D16:D17"/>
+    <mergeCell ref="F2:F3"/>
+    <mergeCell ref="F16:F17"/>
+    <mergeCell ref="H2:H3"/>
+    <mergeCell ref="H16:H17"/>
     <mergeCell ref="A46:H46"/>
     <mergeCell ref="A47:H47"/>
     <mergeCell ref="A2:A3"/>
@@ -13200,17 +13256,22 @@
     <mergeCell ref="C16:C17"/>
     <mergeCell ref="C30:C31"/>
     <mergeCell ref="C44:C45"/>
-    <mergeCell ref="B1:H1"/>
-    <mergeCell ref="A4:H4"/>
-    <mergeCell ref="A5:H5"/>
-    <mergeCell ref="A18:H18"/>
-    <mergeCell ref="A19:H19"/>
-    <mergeCell ref="D2:D3"/>
-    <mergeCell ref="D16:D17"/>
-    <mergeCell ref="F2:F3"/>
-    <mergeCell ref="F16:F17"/>
-    <mergeCell ref="H2:H3"/>
-    <mergeCell ref="H16:H17"/>
+    <mergeCell ref="D30:D31"/>
+    <mergeCell ref="D44:D45"/>
+    <mergeCell ref="E2:E3"/>
+    <mergeCell ref="E16:E17"/>
+    <mergeCell ref="E30:E31"/>
+    <mergeCell ref="E44:E45"/>
+    <mergeCell ref="A32:H32"/>
+    <mergeCell ref="A33:H33"/>
+    <mergeCell ref="H30:H31"/>
+    <mergeCell ref="H44:H45"/>
+    <mergeCell ref="F30:F31"/>
+    <mergeCell ref="F44:F45"/>
+    <mergeCell ref="G2:G3"/>
+    <mergeCell ref="G16:G17"/>
+    <mergeCell ref="G30:G31"/>
+    <mergeCell ref="G44:G45"/>
   </mergeCells>
   <phoneticPr fontId="22" type="noConversion"/>
   <dataValidations count="1">
@@ -13254,43 +13315,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:10" ht="14.25" customHeight="1">
-      <c r="B1" s="149" t="s">
+      <c r="B1" s="161" t="s">
         <v>47</v>
       </c>
-      <c r="C1" s="149"/>
-      <c r="D1" s="149"/>
-      <c r="E1" s="149"/>
-      <c r="F1" s="149"/>
-      <c r="G1" s="149"/>
-      <c r="H1" s="149"/>
-      <c r="I1" s="149"/>
-      <c r="J1" s="149"/>
+      <c r="C1" s="161"/>
+      <c r="D1" s="161"/>
+      <c r="E1" s="161"/>
+      <c r="F1" s="161"/>
+      <c r="G1" s="161"/>
+      <c r="H1" s="161"/>
+      <c r="I1" s="161"/>
+      <c r="J1" s="161"/>
     </row>
     <row r="2" spans="2:10" ht="49.5" customHeight="1">
-      <c r="B2" s="150" t="s">
+      <c r="B2" s="162" t="s">
         <v>181</v>
       </c>
-      <c r="C2" s="151"/>
-      <c r="D2" s="151"/>
-      <c r="E2" s="151"/>
-      <c r="F2" s="151"/>
-      <c r="G2" s="151"/>
-      <c r="H2" s="151"/>
-      <c r="I2" s="151"/>
-      <c r="J2" s="151"/>
+      <c r="C2" s="163"/>
+      <c r="D2" s="163"/>
+      <c r="E2" s="163"/>
+      <c r="F2" s="163"/>
+      <c r="G2" s="163"/>
+      <c r="H2" s="163"/>
+      <c r="I2" s="163"/>
+      <c r="J2" s="163"/>
     </row>
     <row r="3" spans="2:10" ht="30.75" customHeight="1">
-      <c r="B3" s="152" t="s">
+      <c r="B3" s="164" t="s">
         <v>49</v>
       </c>
-      <c r="C3" s="153"/>
-      <c r="D3" s="153"/>
-      <c r="E3" s="153"/>
-      <c r="F3" s="153"/>
-      <c r="G3" s="153"/>
-      <c r="H3" s="153"/>
-      <c r="I3" s="153"/>
-      <c r="J3" s="153"/>
+      <c r="C3" s="165"/>
+      <c r="D3" s="165"/>
+      <c r="E3" s="165"/>
+      <c r="F3" s="165"/>
+      <c r="G3" s="165"/>
+      <c r="H3" s="165"/>
+      <c r="I3" s="165"/>
+      <c r="J3" s="165"/>
     </row>
     <row r="4" spans="2:10" ht="36.75" customHeight="1">
       <c r="B4" s="16" t="s">
@@ -13322,10 +13383,10 @@
       </c>
     </row>
     <row r="5" spans="2:10" ht="28.5" customHeight="1">
-      <c r="B5" s="160" t="s">
+      <c r="B5" s="155" t="s">
         <v>56</v>
       </c>
-      <c r="C5" s="162" t="s">
+      <c r="C5" s="157" t="s">
         <v>57</v>
       </c>
       <c r="D5" s="19">
@@ -13339,8 +13400,8 @@
       <c r="J5" s="6"/>
     </row>
     <row r="6" spans="2:10" ht="28.5" customHeight="1">
-      <c r="B6" s="161"/>
-      <c r="C6" s="163"/>
+      <c r="B6" s="156"/>
+      <c r="C6" s="158"/>
       <c r="D6" s="19">
         <v>2</v>
       </c>
@@ -13352,8 +13413,8 @@
       <c r="J6" s="6"/>
     </row>
     <row r="7" spans="2:10" ht="28.5" customHeight="1">
-      <c r="B7" s="161"/>
-      <c r="C7" s="163"/>
+      <c r="B7" s="156"/>
+      <c r="C7" s="158"/>
       <c r="D7" s="19">
         <v>3</v>
       </c>
@@ -13365,8 +13426,8 @@
       <c r="J7" s="6"/>
     </row>
     <row r="8" spans="2:10" ht="28.5" customHeight="1">
-      <c r="B8" s="161"/>
-      <c r="C8" s="163"/>
+      <c r="B8" s="156"/>
+      <c r="C8" s="158"/>
       <c r="D8" s="19">
         <v>4</v>
       </c>
@@ -13378,8 +13439,8 @@
       <c r="J8" s="6"/>
     </row>
     <row r="9" spans="2:10" ht="28.5" customHeight="1">
-      <c r="B9" s="161"/>
-      <c r="C9" s="163"/>
+      <c r="B9" s="156"/>
+      <c r="C9" s="158"/>
       <c r="D9" s="19">
         <v>5</v>
       </c>
@@ -13391,8 +13452,8 @@
       <c r="J9" s="6"/>
     </row>
     <row r="10" spans="2:10" ht="28.5" customHeight="1">
-      <c r="B10" s="161"/>
-      <c r="C10" s="163"/>
+      <c r="B10" s="156"/>
+      <c r="C10" s="158"/>
       <c r="D10" s="19">
         <v>6</v>
       </c>
@@ -13404,8 +13465,8 @@
       <c r="J10" s="6"/>
     </row>
     <row r="11" spans="2:10" ht="28.5" customHeight="1">
-      <c r="B11" s="161"/>
-      <c r="C11" s="163"/>
+      <c r="B11" s="156"/>
+      <c r="C11" s="158"/>
       <c r="D11" s="19">
         <v>7</v>
       </c>
@@ -13417,8 +13478,8 @@
       <c r="J11" s="6"/>
     </row>
     <row r="12" spans="2:10" ht="28.5" customHeight="1">
-      <c r="B12" s="161"/>
-      <c r="C12" s="163"/>
+      <c r="B12" s="156"/>
+      <c r="C12" s="158"/>
       <c r="D12" s="19">
         <v>8</v>
       </c>
@@ -13430,8 +13491,8 @@
       <c r="J12" s="6"/>
     </row>
     <row r="13" spans="2:10" ht="28.5" customHeight="1">
-      <c r="B13" s="161"/>
-      <c r="C13" s="164"/>
+      <c r="B13" s="156"/>
+      <c r="C13" s="159"/>
       <c r="D13" s="19">
         <v>9</v>
       </c>
@@ -13443,8 +13504,8 @@
       <c r="J13" s="23"/>
     </row>
     <row r="14" spans="2:10" ht="28.5" customHeight="1">
-      <c r="B14" s="161"/>
-      <c r="C14" s="162" t="s">
+      <c r="B14" s="156"/>
+      <c r="C14" s="157" t="s">
         <v>66</v>
       </c>
       <c r="D14" s="19">
@@ -13458,8 +13519,8 @@
       <c r="J14" s="6"/>
     </row>
     <row r="15" spans="2:10" ht="28.5" customHeight="1">
-      <c r="B15" s="161"/>
-      <c r="C15" s="163"/>
+      <c r="B15" s="156"/>
+      <c r="C15" s="158"/>
       <c r="D15" s="19">
         <v>2</v>
       </c>
@@ -13471,8 +13532,8 @@
       <c r="J15" s="6"/>
     </row>
     <row r="16" spans="2:10" ht="28.5" customHeight="1">
-      <c r="B16" s="161"/>
-      <c r="C16" s="163"/>
+      <c r="B16" s="156"/>
+      <c r="C16" s="158"/>
       <c r="D16" s="19">
         <v>3</v>
       </c>
@@ -13484,8 +13545,8 @@
       <c r="J16" s="6"/>
     </row>
     <row r="17" spans="2:10" ht="28.5" customHeight="1">
-      <c r="B17" s="161"/>
-      <c r="C17" s="163"/>
+      <c r="B17" s="156"/>
+      <c r="C17" s="158"/>
       <c r="D17" s="19">
         <v>4</v>
       </c>
@@ -13497,8 +13558,8 @@
       <c r="J17" s="6"/>
     </row>
     <row r="18" spans="2:10" ht="28.5" customHeight="1">
-      <c r="B18" s="161"/>
-      <c r="C18" s="163"/>
+      <c r="B18" s="156"/>
+      <c r="C18" s="158"/>
       <c r="D18" s="19">
         <v>5</v>
       </c>
@@ -13510,8 +13571,8 @@
       <c r="J18" s="6"/>
     </row>
     <row r="19" spans="2:10" ht="28.5" customHeight="1">
-      <c r="B19" s="161"/>
-      <c r="C19" s="164"/>
+      <c r="B19" s="156"/>
+      <c r="C19" s="159"/>
       <c r="D19" s="19">
         <v>6</v>
       </c>
@@ -13523,8 +13584,8 @@
       <c r="J19" s="6"/>
     </row>
     <row r="20" spans="2:10" ht="28.5" customHeight="1">
-      <c r="B20" s="161"/>
-      <c r="C20" s="162" t="s">
+      <c r="B20" s="156"/>
+      <c r="C20" s="157" t="s">
         <v>73</v>
       </c>
       <c r="D20" s="19">
@@ -13538,8 +13599,8 @@
       <c r="J20" s="6"/>
     </row>
     <row r="21" spans="2:10" ht="28.5" customHeight="1">
-      <c r="B21" s="161"/>
-      <c r="C21" s="163"/>
+      <c r="B21" s="156"/>
+      <c r="C21" s="158"/>
       <c r="D21" s="19">
         <v>2</v>
       </c>
@@ -13551,8 +13612,8 @@
       <c r="J21" s="6"/>
     </row>
     <row r="22" spans="2:10" ht="28.5" customHeight="1">
-      <c r="B22" s="161"/>
-      <c r="C22" s="163"/>
+      <c r="B22" s="156"/>
+      <c r="C22" s="158"/>
       <c r="D22" s="19">
         <v>3</v>
       </c>
@@ -13564,8 +13625,8 @@
       <c r="J22" s="6"/>
     </row>
     <row r="23" spans="2:10" ht="28.5" customHeight="1">
-      <c r="B23" s="161"/>
-      <c r="C23" s="163"/>
+      <c r="B23" s="156"/>
+      <c r="C23" s="158"/>
       <c r="D23" s="19">
         <v>4</v>
       </c>
@@ -13577,8 +13638,8 @@
       <c r="J23" s="6"/>
     </row>
     <row r="24" spans="2:10" ht="28.5" customHeight="1">
-      <c r="B24" s="161"/>
-      <c r="C24" s="163"/>
+      <c r="B24" s="156"/>
+      <c r="C24" s="158"/>
       <c r="D24" s="19">
         <v>5</v>
       </c>
@@ -13591,7 +13652,7 @@
     </row>
     <row r="25" spans="2:10" ht="28.5" customHeight="1">
       <c r="B25" s="20"/>
-      <c r="C25" s="164"/>
+      <c r="C25" s="159"/>
       <c r="D25" s="19">
         <v>6</v>
       </c>
@@ -13604,118 +13665,123 @@
     </row>
     <row r="26" spans="2:10" ht="8.25" customHeight="1"/>
     <row r="27" spans="2:10" ht="36.75" customHeight="1">
-      <c r="B27" s="154" t="s">
+      <c r="B27" s="166" t="s">
         <v>74</v>
       </c>
-      <c r="C27" s="154"/>
-      <c r="D27" s="154"/>
-      <c r="E27" s="154"/>
-      <c r="F27" s="154"/>
-      <c r="G27" s="154"/>
-      <c r="H27" s="154"/>
-      <c r="I27" s="154"/>
-      <c r="J27" s="154"/>
+      <c r="C27" s="166"/>
+      <c r="D27" s="166"/>
+      <c r="E27" s="166"/>
+      <c r="F27" s="166"/>
+      <c r="G27" s="166"/>
+      <c r="H27" s="166"/>
+      <c r="I27" s="166"/>
+      <c r="J27" s="166"/>
     </row>
     <row r="28" spans="2:10" ht="26.25" customHeight="1">
-      <c r="B28" s="155" t="s">
+      <c r="B28" s="151" t="s">
         <v>75</v>
       </c>
-      <c r="C28" s="155"/>
-      <c r="D28" s="155"/>
-      <c r="E28" s="155"/>
-      <c r="F28" s="155"/>
-      <c r="G28" s="155"/>
-      <c r="H28" s="155"/>
-      <c r="I28" s="155"/>
-      <c r="J28" s="155"/>
+      <c r="C28" s="151"/>
+      <c r="D28" s="151"/>
+      <c r="E28" s="151"/>
+      <c r="F28" s="151"/>
+      <c r="G28" s="151"/>
+      <c r="H28" s="151"/>
+      <c r="I28" s="151"/>
+      <c r="J28" s="151"/>
     </row>
     <row r="29" spans="2:10" ht="50.25" customHeight="1">
-      <c r="B29" s="156"/>
-      <c r="C29" s="156"/>
-      <c r="D29" s="156"/>
-      <c r="E29" s="156"/>
-      <c r="F29" s="156"/>
-      <c r="G29" s="156"/>
-      <c r="H29" s="156"/>
-      <c r="I29" s="156"/>
-      <c r="J29" s="156"/>
+      <c r="B29" s="160"/>
+      <c r="C29" s="160"/>
+      <c r="D29" s="160"/>
+      <c r="E29" s="160"/>
+      <c r="F29" s="160"/>
+      <c r="G29" s="160"/>
+      <c r="H29" s="160"/>
+      <c r="I29" s="160"/>
+      <c r="J29" s="160"/>
     </row>
     <row r="30" spans="2:10" ht="27" customHeight="1">
-      <c r="B30" s="155" t="s">
+      <c r="B30" s="151" t="s">
         <v>77</v>
       </c>
-      <c r="C30" s="155"/>
-      <c r="D30" s="155"/>
-      <c r="E30" s="155"/>
-      <c r="F30" s="155"/>
-      <c r="G30" s="155"/>
-      <c r="H30" s="155"/>
-      <c r="I30" s="155"/>
-      <c r="J30" s="155"/>
+      <c r="C30" s="151"/>
+      <c r="D30" s="151"/>
+      <c r="E30" s="151"/>
+      <c r="F30" s="151"/>
+      <c r="G30" s="151"/>
+      <c r="H30" s="151"/>
+      <c r="I30" s="151"/>
+      <c r="J30" s="151"/>
     </row>
     <row r="31" spans="2:10" ht="51.75" customHeight="1">
-      <c r="B31" s="156" t="s">
+      <c r="B31" s="160" t="s">
         <v>154</v>
       </c>
-      <c r="C31" s="156"/>
-      <c r="D31" s="156"/>
-      <c r="E31" s="156"/>
-      <c r="F31" s="156"/>
-      <c r="G31" s="156"/>
-      <c r="H31" s="156"/>
-      <c r="I31" s="156"/>
-      <c r="J31" s="156"/>
+      <c r="C31" s="160"/>
+      <c r="D31" s="160"/>
+      <c r="E31" s="160"/>
+      <c r="F31" s="160"/>
+      <c r="G31" s="160"/>
+      <c r="H31" s="160"/>
+      <c r="I31" s="160"/>
+      <c r="J31" s="160"/>
     </row>
     <row r="32" spans="2:10" ht="27" customHeight="1">
-      <c r="B32" s="155" t="s">
+      <c r="B32" s="151" t="s">
         <v>79</v>
       </c>
-      <c r="C32" s="155"/>
-      <c r="D32" s="155"/>
-      <c r="E32" s="155"/>
-      <c r="F32" s="155"/>
-      <c r="G32" s="155"/>
-      <c r="H32" s="155"/>
-      <c r="I32" s="155"/>
-      <c r="J32" s="155"/>
+      <c r="C32" s="151"/>
+      <c r="D32" s="151"/>
+      <c r="E32" s="151"/>
+      <c r="F32" s="151"/>
+      <c r="G32" s="151"/>
+      <c r="H32" s="151"/>
+      <c r="I32" s="151"/>
+      <c r="J32" s="151"/>
     </row>
     <row r="33" spans="2:10" ht="43.5" customHeight="1">
-      <c r="B33" s="180"/>
-      <c r="C33" s="180"/>
-      <c r="D33" s="180"/>
-      <c r="E33" s="180"/>
-      <c r="F33" s="180"/>
-      <c r="G33" s="180"/>
-      <c r="H33" s="180"/>
-      <c r="I33" s="180"/>
-      <c r="J33" s="180"/>
+      <c r="B33" s="182"/>
+      <c r="C33" s="182"/>
+      <c r="D33" s="182"/>
+      <c r="E33" s="182"/>
+      <c r="F33" s="182"/>
+      <c r="G33" s="182"/>
+      <c r="H33" s="182"/>
+      <c r="I33" s="182"/>
+      <c r="J33" s="182"/>
     </row>
     <row r="34" spans="2:10" ht="26.25" customHeight="1">
-      <c r="B34" s="155" t="s">
+      <c r="B34" s="151" t="s">
         <v>81</v>
       </c>
-      <c r="C34" s="155"/>
-      <c r="D34" s="155"/>
-      <c r="E34" s="155"/>
-      <c r="F34" s="155"/>
-      <c r="G34" s="155"/>
-      <c r="H34" s="155"/>
-      <c r="I34" s="155"/>
-      <c r="J34" s="155"/>
+      <c r="C34" s="151"/>
+      <c r="D34" s="151"/>
+      <c r="E34" s="151"/>
+      <c r="F34" s="151"/>
+      <c r="G34" s="151"/>
+      <c r="H34" s="151"/>
+      <c r="I34" s="151"/>
+      <c r="J34" s="151"/>
     </row>
     <row r="35" spans="2:10" ht="57.75" customHeight="1">
-      <c r="B35" s="180"/>
-      <c r="C35" s="180"/>
-      <c r="D35" s="180"/>
-      <c r="E35" s="180"/>
-      <c r="F35" s="180"/>
-      <c r="G35" s="180"/>
-      <c r="H35" s="180"/>
-      <c r="I35" s="180"/>
-      <c r="J35" s="180"/>
+      <c r="B35" s="182"/>
+      <c r="C35" s="182"/>
+      <c r="D35" s="182"/>
+      <c r="E35" s="182"/>
+      <c r="F35" s="182"/>
+      <c r="G35" s="182"/>
+      <c r="H35" s="182"/>
+      <c r="I35" s="182"/>
+      <c r="J35" s="182"/>
     </row>
   </sheetData>
   <mergeCells count="16">
+    <mergeCell ref="B1:J1"/>
+    <mergeCell ref="B2:J2"/>
+    <mergeCell ref="B3:J3"/>
+    <mergeCell ref="B27:J27"/>
+    <mergeCell ref="B28:J28"/>
     <mergeCell ref="B34:J34"/>
     <mergeCell ref="B35:J35"/>
     <mergeCell ref="B5:B24"/>
@@ -13727,11 +13793,6 @@
     <mergeCell ref="B31:J31"/>
     <mergeCell ref="B32:J32"/>
     <mergeCell ref="B33:J33"/>
-    <mergeCell ref="B1:J1"/>
-    <mergeCell ref="B2:J2"/>
-    <mergeCell ref="B3:J3"/>
-    <mergeCell ref="B27:J27"/>
-    <mergeCell ref="B28:J28"/>
   </mergeCells>
   <phoneticPr fontId="22" type="noConversion"/>
   <dataValidations count="1">
